--- a/data/hotels_by_city/Dallas/Dallas_shard_613.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_613.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="414">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,1127 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r558696003-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>55902</t>
+  </si>
+  <si>
+    <t>578443</t>
+  </si>
+  <si>
+    <t>558696003</t>
+  </si>
+  <si>
+    <t>02/05/2018</t>
+  </si>
+  <si>
+    <t>Excellent stay!</t>
+  </si>
+  <si>
+    <t>We found this hotel to be extremely clean, very pet and people friendly, with a courteous helpful staff.  Their pricing was quite reasonable, with a great breakfast buffet included.  I'm recommending it for everyone!</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r558379169-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>558379169</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t>Caught them on a bad day</t>
+  </si>
+  <si>
+    <t>Purchased room off hotwire, great price for a mid price hotel, reasonably clean but 2 cars only in the parking lot. 1st day/night was okRoom was not cleaned the following day and they had no hot water the following morningSo, great price vs hot water and clean towers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r557348772-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>557348772</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>Property Declining?</t>
+  </si>
+  <si>
+    <t>This is our second stay at the Quality Inn. Would not have rebooked it if I did not think it was a decent property.  The second time around was a little different from our first stay.
+The rooms are large and clean for the most part and the staff is friendly and helpful.  The bathroom in our room had a couple of issues.  
+The faucet in the sink dripped unless you fiddled around with the handle and found the perfect spot. Somewhat annoying.  On our fourth and last day there was no hot water in the shower. I'm not really much for cold showers. We mentioned it to hotel staff and they seemed concerned but I'm not sure what was done since we then checked out. 
+The free continental breakfast was not as good as the first time we stayed here. The yogurt was two weeks outdated and the eggs were luke-warm at best. Not sure what was up with the waffle batter this time - the two times I tried to make a waffle it broke in half when opening the waffle iron and crumbled into small uneatable pieces when trying to get it out of the iron. Staff remade new batter but with the same cooking result. Other breakfast options, small muffins and pastries, did not seem fresh and there is no wheat option of any kind in the bread department.
+As mentioned the staff was helpful but...This is our second stay at the Quality Inn. Would not have rebooked it if I did not think it was a decent property.  The second time around was a little different from our first stay.The rooms are large and clean for the most part and the staff is friendly and helpful.  The bathroom in our room had a couple of issues.  The faucet in the sink dripped unless you fiddled around with the handle and found the perfect spot. Somewhat annoying.  On our fourth and last day there was no hot water in the shower. I'm not really much for cold showers. We mentioned it to hotel staff and they seemed concerned but I'm not sure what was done since we then checked out. The free continental breakfast was not as good as the first time we stayed here. The yogurt was two weeks outdated and the eggs were luke-warm at best. Not sure what was up with the waffle batter this time - the two times I tried to make a waffle it broke in half when opening the waffle iron and crumbled into small uneatable pieces when trying to get it out of the iron. Staff remade new batter but with the same cooking result. Other breakfast options, small muffins and pastries, did not seem fresh and there is no wheat option of any kind in the bread department.As mentioned the staff was helpful but overall I felt the property was declining. It is less expensive then the other nearby properties so if you're on a budget I guess this would be a good option. Unfortunately, I don't believe we will be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>This is our second stay at the Quality Inn. Would not have rebooked it if I did not think it was a decent property.  The second time around was a little different from our first stay.
+The rooms are large and clean for the most part and the staff is friendly and helpful.  The bathroom in our room had a couple of issues.  
+The faucet in the sink dripped unless you fiddled around with the handle and found the perfect spot. Somewhat annoying.  On our fourth and last day there was no hot water in the shower. I'm not really much for cold showers. We mentioned it to hotel staff and they seemed concerned but I'm not sure what was done since we then checked out. 
+The free continental breakfast was not as good as the first time we stayed here. The yogurt was two weeks outdated and the eggs were luke-warm at best. Not sure what was up with the waffle batter this time - the two times I tried to make a waffle it broke in half when opening the waffle iron and crumbled into small uneatable pieces when trying to get it out of the iron. Staff remade new batter but with the same cooking result. Other breakfast options, small muffins and pastries, did not seem fresh and there is no wheat option of any kind in the bread department.
+As mentioned the staff was helpful but...This is our second stay at the Quality Inn. Would not have rebooked it if I did not think it was a decent property.  The second time around was a little different from our first stay.The rooms are large and clean for the most part and the staff is friendly and helpful.  The bathroom in our room had a couple of issues.  The faucet in the sink dripped unless you fiddled around with the handle and found the perfect spot. Somewhat annoying.  On our fourth and last day there was no hot water in the shower. I'm not really much for cold showers. We mentioned it to hotel staff and they seemed concerned but I'm not sure what was done since we then checked out. The free continental breakfast was not as good as the first time we stayed here. The yogurt was two weeks outdated and the eggs were luke-warm at best. Not sure what was up with the waffle batter this time - the two times I tried to make a waffle it broke in half when opening the waffle iron and crumbled into small uneatable pieces when trying to get it out of the iron. Staff remade new batter but with the same cooking result. Other breakfast options, small muffins and pastries, did not seem fresh and there is no wheat option of any kind in the bread department.As mentioned the staff was helpful but overall I felt the property was declining. It is less expensive then the other nearby properties so if you're on a budget I guess this would be a good option. Unfortunately, I don't believe we will be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r482736118-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>482736118</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>Nice place for the price</t>
+  </si>
+  <si>
+    <t>After reading some of the other reviews I was a little worried about our stay.  We had 2 rooms booked and both were very clean.  We got checked in quickly.  The staff was very helpful.  The indoor pool was small and occasionally crowded, but my son loved it.  Breakfast was the usual...pastries, cereal, yogurt, Texas shaped waffles, eggs and sausage.  Our only complaint was the noise from  upstairs.  They must have been doing aerobics for hours or had a large dog or kids running and jumping.  Overall, a very pleasant stay.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r478407038-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>478407038</t>
+  </si>
+  <si>
+    <t>04/23/2017</t>
+  </si>
+  <si>
+    <t>Worse Than I Expected</t>
+  </si>
+  <si>
+    <t>I read a few of the negative reviews prior to booking here and figured there was some exaggeration to the complaints. Nope! The carpet in my room was so sticky, my foot made an audible sound as it lifted off the floor. The hotel smelled overwhelmingly of stale smoke. The light in the bathroom was burned out, and the water pressure dropped down to almost nothing multiple times during my shower. The TV was so pixilated that I gave up and watched something on my phone. The beds were hard and cheap with the ratty, torn box springs exposed. There were several large stains on the desk chair. The breakfast was limited, but it was passable. Overall, I will do my best to avoid this place in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>I read a few of the negative reviews prior to booking here and figured there was some exaggeration to the complaints. Nope! The carpet in my room was so sticky, my foot made an audible sound as it lifted off the floor. The hotel smelled overwhelmingly of stale smoke. The light in the bathroom was burned out, and the water pressure dropped down to almost nothing multiple times during my shower. The TV was so pixilated that I gave up and watched something on my phone. The beds were hard and cheap with the ratty, torn box springs exposed. There were several large stains on the desk chair. The breakfast was limited, but it was passable. Overall, I will do my best to avoid this place in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r473211171-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>473211171</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised</t>
+  </si>
+  <si>
+    <t>In reading some of the other reviews, I was a little skeptical about staying here.  But the price was "right" since we had been in another town the night before and spent more than usual on an upgraded room so I took a chance on this hotel.  I didn't experience any of the problems others have.  From the outside it looks VERY new but the inside is not.  Yes, obviously it's an older hotel but ALL hotels can't be brand new everywhere you go.  It didn't smell bad to me at all, bathrooms were clean, beds were clean, rooms were clean, check-in took less than five minutes and very efficient, breakfast was good and well stocked.  BEST part for me was the room stayed cool enough ALL night.  I usually have problems with that in other hotels so I really enjoyed that.  Only problem we had was the cable didn't work on the TV when we got there.  The lady at the front desk came in our room and checked/fixed it and never had any other issues.  Fairly close to town.  I would stay here again if ever in the area.  Go to the bar/grill called Hollywood &amp; Vine downtown.  Really cool place and great bar food/cold beer!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>In reading some of the other reviews, I was a little skeptical about staying here.  But the price was "right" since we had been in another town the night before and spent more than usual on an upgraded room so I took a chance on this hotel.  I didn't experience any of the problems others have.  From the outside it looks VERY new but the inside is not.  Yes, obviously it's an older hotel but ALL hotels can't be brand new everywhere you go.  It didn't smell bad to me at all, bathrooms were clean, beds were clean, rooms were clean, check-in took less than five minutes and very efficient, breakfast was good and well stocked.  BEST part for me was the room stayed cool enough ALL night.  I usually have problems with that in other hotels so I really enjoyed that.  Only problem we had was the cable didn't work on the TV when we got there.  The lady at the front desk came in our room and checked/fixed it and never had any other issues.  Fairly close to town.  I would stay here again if ever in the area.  Go to the bar/grill called Hollywood &amp; Vine downtown.  Really cool place and great bar food/cold beer!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r468760983-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>468760983</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>Go across the street</t>
+  </si>
+  <si>
+    <t>Dirty, old and unpleasant hotel. The hotel had a moldy odor. Check in took over 30 minutes with only one person in front of us.  Beds had no skirt on bottom just bare mattress. No comforter just a very thin blanket. Pillows had black moldy spots on them. AC would not turn off using controls had to unplug. Bathroom was in need of update. Toilet paper holder was rusted and pitted. Tub had black caulking instead of white. Beds were hard and lumpy. There were only 5 tables in the breakfast area so we had to take our food elsewhere to eat. Breakfast was not restocked well. I took the last sausage at around 8am and they never put any more out even though breakfast was open until 9. Eggs were dry and awful. Front desk was slow and unwelcoming. They never smiled or greeted us kindly. Never thanked me for being an elite gold member. I booked this hotel for the indoor pool which was closed for cleaning during the evening until 830pm.  At 830 it opened but it is very small and was soon too overcrowded with kids and unsafe for younger kids. I would not recommend this hotel. It needs renovated, deep cleaned, deodorized, new beds and linens, new ac units. Also there was a camera installed on the top of the tv which was a bit unnerving. MoreShow less</t>
+  </si>
+  <si>
+    <t>Dirty, old and unpleasant hotel. The hotel had a moldy odor. Check in took over 30 minutes with only one person in front of us.  Beds had no skirt on bottom just bare mattress. No comforter just a very thin blanket. Pillows had black moldy spots on them. AC would not turn off using controls had to unplug. Bathroom was in need of update. Toilet paper holder was rusted and pitted. Tub had black caulking instead of white. Beds were hard and lumpy. There were only 5 tables in the breakfast area so we had to take our food elsewhere to eat. Breakfast was not restocked well. I took the last sausage at around 8am and they never put any more out even though breakfast was open until 9. Eggs were dry and awful. Front desk was slow and unwelcoming. They never smiled or greeted us kindly. Never thanked me for being an elite gold member. I booked this hotel for the indoor pool which was closed for cleaning during the evening until 830pm.  At 830 it opened but it is very small and was soon too overcrowded with kids and unsafe for younger kids. I would not recommend this hotel. It needs renovated, deep cleaned, deodorized, new beds and linens, new ac units. Also there was a camera installed on the top of the tv which was a bit unnerving. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r441007895-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>441007895</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>Almost everything we expected from a good brand; great location for Glen Rose</t>
+  </si>
+  <si>
+    <t>Our family booked two rooms for a Thanksgiving getaway in Glen Rose.  Having stayed in many places around this country and others, we felt no negatives at all except for lack of Internet connection on our end of the long hallway extending from the lobby.  This was not at all a deal breaker because we had to walk only a few steps down the hallway or go to the lobby for good connections.  Had we been on business, our review could be different.Cleanliness, comfort, quiet, breakfast, friendliness - all were exceptional.  Recommended, especially when others in the immediately area charge significantly more.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r432802022-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>432802022</t>
+  </si>
+  <si>
+    <t>10/29/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can't complain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have stayed at several of these chains. We have been very pleased with all of them. The rooms are clean and good size, breakfast is great, the staff friendly, and there is always coffee water and snacks available. Pool area is very nice as well. Oh bed are comfy too!!  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r423539041-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>423539041</t>
+  </si>
+  <si>
+    <t>09/29/2016</t>
+  </si>
+  <si>
+    <t>Rest after bike races!</t>
+  </si>
+  <si>
+    <t>We have been staying here for six years now during our annual Texas Time Trials. It's a tradition for us to stay at this hotel. We love it, and we love the proprietor. Great staff, great breakfast, and very clean. It's convenient during our race events.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r417691904-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>417691904</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place to stay in Glen Rose </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed one night while on a motorcycle trip and had a great time!  The facility is next to a Sonic which is very convenient.  The place has a nice indoor pool and free breakfast.   Clean room and the bathroom was very nice. Recommended while in Glen Rose, Texas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r414561522-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>414561522</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>Weekend getaway</t>
+  </si>
+  <si>
+    <t>The hotel was not as bad as the reviews. Plenty of food at 730. The hotel had an employee keep the food and coffee supplied. The air was very cool. The manager had to fix the tv the previous guess had undone all the cables for games I guess. Staff friendly .Did have trouble with wifi. I would stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r391513360-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>391513360</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>used to be America Best Value</t>
+  </si>
+  <si>
+    <t>now a Quality Inn and less than desirable for customer service.  Many persons showing horses stayed at this hotel as a Best Value but agree that things have gone downhill with poor attitude from front desk personell</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r377431706-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>377431706</t>
+  </si>
+  <si>
+    <t>05/28/2016</t>
+  </si>
+  <si>
+    <t>Terrible service</t>
+  </si>
+  <si>
+    <t>Wasn't able to make it to hotel tonight due to travel with a 2-yr. old. Proprietor wouldn't give a refund &lt; 24 hrs. I know I'm legally obligated to pay, but you're not reading this for legal advice, either. No partial refund? No future credit?No consideration?No customer service!Stay right next door at the Holiday Inn Express. They'll take good care of you.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r373941362-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>373941362</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Beautiful Time Here In Glen Rose TX!</t>
+  </si>
+  <si>
+    <t>It was better than I imagined it would be!  I certainly recommend this Quality Inn &amp; Suites to anyone to stay at. Very affordable, comfortable,  and great service.  I just loved the indoor pool and Jacuzzi.  The breakfast was so awesome as well. There was so many food options to choose from.  It was a terrific 3 night stay!  Will definitely stay in this motel if we vacation through Glen Rose again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r356774703-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>356774703</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>It could have been worse.</t>
+  </si>
+  <si>
+    <t>The room was meh. The breakfast buffet was meh. The pool and hot tub were good. And the shower was good. The king size bed leaned towards the wall and in the middle. Overall, when I go back to Glen Rose (and I will) I will be writing a review for a different hotel.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r356451222-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>356451222</t>
+  </si>
+  <si>
+    <t>03/17/2016</t>
+  </si>
+  <si>
+    <t>Average but will stay elsewhere when returning</t>
+  </si>
+  <si>
+    <t>Chose it because of location, value, and positive reviews. Staff is nice. Pool is nice but small. Furnishings are ok. Bed and pillows uncomfortable. Sheets were okay but beds had no skirts. You could see the box springs...very cheep looking. Bathroom okay with good pressure but tub faucet dripped. Online photos are misleading in the size of the place. Pool and breakfast area are very small. Breakfast waffles and coffee are good. Eggs were not. It was okay for our first trip to Glen Rose but wish we would've stayed elsewhere.  When we come back we will each go camping or choose one of the other hotels we saw in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chose it because of location, value, and positive reviews. Staff is nice. Pool is nice but small. Furnishings are ok. Bed and pillows uncomfortable. Sheets were okay but beds had no skirts. You could see the box springs...very cheep looking. Bathroom okay with good pressure but tub faucet dripped. Online photos are misleading in the size of the place. Pool and breakfast area are very small. Breakfast waffles and coffee are good. Eggs were not. It was okay for our first trip to Glen Rose but wish we would've stayed elsewhere.  When we come back we will each go camping or choose one of the other hotels we saw in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r340546494-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>340546494</t>
+  </si>
+  <si>
+    <t>01/16/2016</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Been traveling for a month staying mostly at Hamptons. This Quality Inn has fast internet and connects very easily - better than most Hamptons. Looks freshly painted. Pleasant person at the front desk. A couple minor gripes: machines in the fitness center should be replaced, water pressure in the shower varies, the breakfast bar has some pretty sad eggs and is a bit sparse. Still a nice place. Looks like they take pride in it. I give it an 8.5 out of 10.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r292173436-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>292173436</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t>Will put you in a smoking room &amp; then force you to pay more to get out of it.</t>
+  </si>
+  <si>
+    <t>We used "Sam's Club" to reserve our room. Then once we get here they tell us that all they have for us is a smoking room. They then tell us that we can go to the dollar general down the street to get air fresheners. My son has asthma and they were strong arming us to pay $10 more a night to not be in a smoking room. Once we moved to a NON-smoking room the room smelt of VERY strong mildew. *in short-smoking floor-they don't work with you-dirty and unfriendlyHorrible place and I will NEVER recommend anyone to this place.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r288800688-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>288800688</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>Staff were great.</t>
+  </si>
+  <si>
+    <t>The front desk clerk and the maintenance man (maybe husband and wife) were hard-working and eager to please. The hotel itself had a smell between syrup and tanning bed salon that was hard to get past. Indoor pool was murky, which was a little gross. Breakfast was free, but not a lot of choices. Our room was near the main road, which was very noisy.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r287376554-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>287376554</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>great lil find</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very clean great stay tv a little small for room size beds comfortable very affordable compared to prices of other hotels in glen rose great staff would deffinatly stay there again continental breakfast quits real early so didnt get to try that but was told by the clerk where to find an awesome breakfast in glenrose </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r275404083-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>275404083</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t>Would never stay there again!!</t>
+  </si>
+  <si>
+    <t>The staff was understaffed due to a management problem and what staff they did have was not very courteous to their customers. It started off with the person checking us in was overwhelmed with too many people waiting to check in but wouldn't bother her manager that she needed help. She acted as though he might be upset if she did. So we all had to be patient and wait for a very long time. Once checked in then we went to our room and it smelled like cigarette smoke. I immediately went down to talk to the person at the front desk and was told the only the rooms that they had were smoking rooms and that the room I was in was a non-smoking room. So there were no accommodations made to help with any request. That evening in our room I smelled fresh cigarette smoke and figured it had to be coming from somewhere but we had our own a/c unit in our room. Well the next morning after we checked out (oh that was another interesting ordeal as well) I walked outside and saw why there was the smell in our room. The smokers were down below our room as the hotel placed ashtrays for their cleaning staff and others right outside the front door as you walked out and it turned out our bedroom was right above the smoking area. I wasn't happy about that....The staff was understaffed due to a management problem and what staff they did have was not very courteous to their customers. It started off with the person checking us in was overwhelmed with too many people waiting to check in but wouldn't bother her manager that she needed help. She acted as though he might be upset if she did. So we all had to be patient and wait for a very long time. Once checked in then we went to our room and it smelled like cigarette smoke. I immediately went down to talk to the person at the front desk and was told the only the rooms that they had were smoking rooms and that the room I was in was a non-smoking room. So there were no accommodations made to help with any request. That evening in our room I smelled fresh cigarette smoke and figured it had to be coming from somewhere but we had our own a/c unit in our room. Well the next morning after we checked out (oh that was another interesting ordeal as well) I walked outside and saw why there was the smell in our room. The smokers were down below our room as the hotel placed ashtrays for their cleaning staff and others right outside the front door as you walked out and it turned out our bedroom was right above the smoking area. I wasn't happy about that. I brought this to the attention of the manager, who really seemed to care less, and he then became defensive and basically asked me "where was I suppose to move it? They won't go out to the field to smoke, so no I'm not going to move it." So apparently they were more worried about keeping their staff happy then their customers. When we had checked in to the hotel we had told them that we each were sharing the cost of our room. I was told that we could take care of that in the morning. Before I had a chance to check out one of my friends told me that they refused to split the room charges that it had already been charged to their card and it would be difficult to give a refund. That it would take several days for it to be credit back to their card. I refused this excuse. So when I checked out I told the person at the front desk that we would be splitting it. She started explaining why she couldn't. It so happened that the so-called manager was standing there and he told her how to do it. I explained that we were told that we could when we checked in. Then they blamed the girl who checked us in for all the mistakes. It was like totally unbelievable. Nope I won't be back. I've already told the GM of the hotel and Choice Hotels. I will not recommend that hotel either to anyone. My expectations were totally deflated by the staff. Definitely not a biker friendly hotel either.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>The staff was understaffed due to a management problem and what staff they did have was not very courteous to their customers. It started off with the person checking us in was overwhelmed with too many people waiting to check in but wouldn't bother her manager that she needed help. She acted as though he might be upset if she did. So we all had to be patient and wait for a very long time. Once checked in then we went to our room and it smelled like cigarette smoke. I immediately went down to talk to the person at the front desk and was told the only the rooms that they had were smoking rooms and that the room I was in was a non-smoking room. So there were no accommodations made to help with any request. That evening in our room I smelled fresh cigarette smoke and figured it had to be coming from somewhere but we had our own a/c unit in our room. Well the next morning after we checked out (oh that was another interesting ordeal as well) I walked outside and saw why there was the smell in our room. The smokers were down below our room as the hotel placed ashtrays for their cleaning staff and others right outside the front door as you walked out and it turned out our bedroom was right above the smoking area. I wasn't happy about that....The staff was understaffed due to a management problem and what staff they did have was not very courteous to their customers. It started off with the person checking us in was overwhelmed with too many people waiting to check in but wouldn't bother her manager that she needed help. She acted as though he might be upset if she did. So we all had to be patient and wait for a very long time. Once checked in then we went to our room and it smelled like cigarette smoke. I immediately went down to talk to the person at the front desk and was told the only the rooms that they had were smoking rooms and that the room I was in was a non-smoking room. So there were no accommodations made to help with any request. That evening in our room I smelled fresh cigarette smoke and figured it had to be coming from somewhere but we had our own a/c unit in our room. Well the next morning after we checked out (oh that was another interesting ordeal as well) I walked outside and saw why there was the smell in our room. The smokers were down below our room as the hotel placed ashtrays for their cleaning staff and others right outside the front door as you walked out and it turned out our bedroom was right above the smoking area. I wasn't happy about that. I brought this to the attention of the manager, who really seemed to care less, and he then became defensive and basically asked me "where was I suppose to move it? They won't go out to the field to smoke, so no I'm not going to move it." So apparently they were more worried about keeping their staff happy then their customers. When we had checked in to the hotel we had told them that we each were sharing the cost of our room. I was told that we could take care of that in the morning. Before I had a chance to check out one of my friends told me that they refused to split the room charges that it had already been charged to their card and it would be difficult to give a refund. That it would take several days for it to be credit back to their card. I refused this excuse. So when I checked out I told the person at the front desk that we would be splitting it. She started explaining why she couldn't. It so happened that the so-called manager was standing there and he told her how to do it. I explained that we were told that we could when we checked in. Then they blamed the girl who checked us in for all the mistakes. It was like totally unbelievable. Nope I won't be back. I've already told the GM of the hotel and Choice Hotels. I will not recommend that hotel either to anyone. My expectations were totally deflated by the staff. Definitely not a biker friendly hotel either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r269163129-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>269163129</t>
+  </si>
+  <si>
+    <t>04/30/2015</t>
+  </si>
+  <si>
+    <t>Nice comfortable hotel</t>
+  </si>
+  <si>
+    <t>Quite nice for a budget hotel. All interior corridors. Small indoor pool and Jacuzzi. Laundry room with a single washer and dryer. Breakfast was decent - about the norm for these budget chain hotels (but no instant oatmeal as I like). Small refrigerator and microwave in room. Sink is outside bathroom so someone can use it while other person is using toilet or shower. I would stay here again if I was in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r260246506-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>260246506</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Very Family friendly and good value</t>
+  </si>
+  <si>
+    <t>I rented two rooms for a family trip during spring break.  Rooms were pretty average, but had everything we needed. A plus is the mini fridge which is nice when you've got kids.  The best feature for the kids is the indoor pool and hot tub. There is also a decent breakfast included, but they ran out if several items before the breakfast time was up, so I suggest showing up early.  There were lots of families with children, so we felt right at home.  There was a bit of mildew in the tub area and the tub had a slow drain, but overall the room and property was clean.  This property is close to the Glen Rose attractions.  For the price, this was a good value and I would recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>I rented two rooms for a family trip during spring break.  Rooms were pretty average, but had everything we needed. A plus is the mini fridge which is nice when you've got kids.  The best feature for the kids is the indoor pool and hot tub. There is also a decent breakfast included, but they ran out if several items before the breakfast time was up, so I suggest showing up early.  There were lots of families with children, so we felt right at home.  There was a bit of mildew in the tub area and the tub had a slow drain, but overall the room and property was clean.  This property is close to the Glen Rose attractions.  For the price, this was a good value and I would recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r254271428-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>254271428</t>
+  </si>
+  <si>
+    <t>02/15/2015</t>
+  </si>
+  <si>
+    <t>Best stay on a 3week road trip</t>
+  </si>
+  <si>
+    <t>This place is awesome. After being on the road for 3weeks we had some scary experiences. We walked in here and were awed. Beautiful lobby, large breakfast room, heated indoor pool and hot tub, nicely decorated large rooms.  Clean,clean,clean. And did I mention the friendly and helpful staff? We liked it so well we stayed an extra day! Lots to do here. We hiked Dinosaur Valley state park..saw many dinosaur fossil tracks. Also drove Fossil Rim wildlife center...a three hour drive through with many species of African and exotic animals that you can hand feed with food provided.It was a memorable stay and we will be back!     Barb and Dave Q.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>This place is awesome. After being on the road for 3weeks we had some scary experiences. We walked in here and were awed. Beautiful lobby, large breakfast room, heated indoor pool and hot tub, nicely decorated large rooms.  Clean,clean,clean. And did I mention the friendly and helpful staff? We liked it so well we stayed an extra day! Lots to do here. We hiked Dinosaur Valley state park..saw many dinosaur fossil tracks. Also drove Fossil Rim wildlife center...a three hour drive through with many species of African and exotic animals that you can hand feed with food provided.It was a memorable stay and we will be back!     Barb and Dave Q.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r251792676-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>251792676</t>
+  </si>
+  <si>
+    <t>01/30/2015</t>
+  </si>
+  <si>
+    <t>Home away from home for an extended stay</t>
+  </si>
+  <si>
+    <t>Every aspect of our stay was terrific.  Welcoming, friendly staff, clean comfortable room, full breakfast choices and all at a great price.  From the onsite manager, Terry Dale, to the front desk staff, Vicky, Deborah and Mary, and the housekeeping staff, if you needed anything they were very accommodating. I would highly recommend this as a must stay.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r247788798-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>247788798</t>
+  </si>
+  <si>
+    <t>01/06/2015</t>
+  </si>
+  <si>
+    <t>Always an excellent stay</t>
+  </si>
+  <si>
+    <t>I stay here every year while attending the Nolan River Dog Show. Pet friendly,  Clean Rooms, comfortable beds and great service. Wonderful staff. Good breakfast with many choices.Will return next year.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r230959521-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>230959521</t>
+  </si>
+  <si>
+    <t>09/25/2014</t>
+  </si>
+  <si>
+    <t>Nice place to stay.</t>
+  </si>
+  <si>
+    <t>The hotel is what you would expect.  Clean, well up kept, and not noisy.Overall it was a really nice hotel, and I would stay here again if I am back in the area.Breakfast was nice, nothing fancy, and the staff recommended a GREAT restaurant for dinner.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r227360078-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>227360078</t>
+  </si>
+  <si>
+    <t>09/06/2014</t>
+  </si>
+  <si>
+    <t>Stink stains wholey sheets</t>
+  </si>
+  <si>
+    <t>Terribly unacceptable. To start, the smell!!!! Its stinks makes with glades an carpet powder. Couldnt breath so strong. Sheets stained and wholes in them. The flag was so torn. It was disrespectful. Pure lazy. We left, got hotel hotel down the street.Used to be a great place not no moreMoreShow less</t>
+  </si>
+  <si>
+    <t>Jason P, Owner at Quality Inn &amp; Suites, responded to this reviewResponded September 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2014</t>
+  </si>
+  <si>
+    <t>Terribly unacceptable. To start, the smell!!!! Its stinks makes with glades an carpet powder. Couldnt breath so strong. Sheets stained and wholes in them. The flag was so torn. It was disrespectful. Pure lazy. We left, got hotel hotel down the street.Used to be a great place not no moreMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r219789157-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>219789157</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel, great price</t>
+  </si>
+  <si>
+    <t>I recently stayed here for a weekend trip.  Really nice hotel, clean, food was good, staff was friendly and helpful.Suggested we went to a local place for dinner.  WOW, what great food, but that's for a different review.Would recommend this place for anyone headed out to the State Park, or other local attractions.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r206082307-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>206082307</t>
+  </si>
+  <si>
+    <t>05/18/2014</t>
+  </si>
+  <si>
+    <t>Good Stay, but Could Have Been Better</t>
+  </si>
+  <si>
+    <t>I was here one night with my wife and daughter. The price was very reasonable. The rooms was good sized and comfortable, except that there were two lights that weren't working,and the AC unit wouldn't turn off even on the "Stop" setting. The unit itself works great. The man person on duty during the day, I believe his name is Terry, was fantastic and was very informative and helpful. There is an indoor pool and hot tub, which I loved until a couple of teenage boys came and decided to jump and dive in the pool and splash all over the place. Then one of them decided to turn off the hot tub I was in at the time and I turned it back on and told him not to do that again, and he didn't. That said, I had been there awhile and since my peaceful time was now gone, I went back to my room. I don't blame the hotel for them, however. That's poor parenting. The next morning, we went to the breakfast. I wasn't doing so well with the waffle maker and didn't flip it when the timer went off. In my defense, I was half asleep. Anyway, the girl on duty was a bit rude when getting on to me about it. Granted, I was wrong to take so long, but she was rude enough that my wife felt compelled to say something. If not...I was here one night with my wife and daughter. The price was very reasonable. The rooms was good sized and comfortable, except that there were two lights that weren't working,and the AC unit wouldn't turn off even on the "Stop" setting. The unit itself works great. The man person on duty during the day, I believe his name is Terry, was fantastic and was very informative and helpful. There is an indoor pool and hot tub, which I loved until a couple of teenage boys came and decided to jump and dive in the pool and splash all over the place. Then one of them decided to turn off the hot tub I was in at the time and I turned it back on and told him not to do that again, and he didn't. That said, I had been there awhile and since my peaceful time was now gone, I went back to my room. I don't blame the hotel for them, however. That's poor parenting. The next morning, we went to the breakfast. I wasn't doing so well with the waffle maker and didn't flip it when the timer went off. In my defense, I was half asleep. Anyway, the girl on duty was a bit rude when getting on to me about it. Granted, I was wrong to take so long, but she was rude enough that my wife felt compelled to say something. If not for the negatives, this would have gotten at least four stars from me. Anyway, I'm a Choice Hotel Member, but will most likely stay somewhere else next time I come here.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I was here one night with my wife and daughter. The price was very reasonable. The rooms was good sized and comfortable, except that there were two lights that weren't working,and the AC unit wouldn't turn off even on the "Stop" setting. The unit itself works great. The man person on duty during the day, I believe his name is Terry, was fantastic and was very informative and helpful. There is an indoor pool and hot tub, which I loved until a couple of teenage boys came and decided to jump and dive in the pool and splash all over the place. Then one of them decided to turn off the hot tub I was in at the time and I turned it back on and told him not to do that again, and he didn't. That said, I had been there awhile and since my peaceful time was now gone, I went back to my room. I don't blame the hotel for them, however. That's poor parenting. The next morning, we went to the breakfast. I wasn't doing so well with the waffle maker and didn't flip it when the timer went off. In my defense, I was half asleep. Anyway, the girl on duty was a bit rude when getting on to me about it. Granted, I was wrong to take so long, but she was rude enough that my wife felt compelled to say something. If not...I was here one night with my wife and daughter. The price was very reasonable. The rooms was good sized and comfortable, except that there were two lights that weren't working,and the AC unit wouldn't turn off even on the "Stop" setting. The unit itself works great. The man person on duty during the day, I believe his name is Terry, was fantastic and was very informative and helpful. There is an indoor pool and hot tub, which I loved until a couple of teenage boys came and decided to jump and dive in the pool and splash all over the place. Then one of them decided to turn off the hot tub I was in at the time and I turned it back on and told him not to do that again, and he didn't. That said, I had been there awhile and since my peaceful time was now gone, I went back to my room. I don't blame the hotel for them, however. That's poor parenting. The next morning, we went to the breakfast. I wasn't doing so well with the waffle maker and didn't flip it when the timer went off. In my defense, I was half asleep. Anyway, the girl on duty was a bit rude when getting on to me about it. Granted, I was wrong to take so long, but she was rude enough that my wife felt compelled to say something. If not for the negatives, this would have gotten at least four stars from me. Anyway, I'm a Choice Hotel Member, but will most likely stay somewhere else next time I come here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r196633408-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>196633408</t>
+  </si>
+  <si>
+    <t>03/08/2014</t>
+  </si>
+  <si>
+    <t>Perfect for our purposes</t>
+  </si>
+  <si>
+    <t>We stayed here before a morning trip to nearby Fossil Rim, and it was just what we needed. Not a 5-star resort by any stretch - but a safe, convenient, and affordable place to stay. Our room was clean. The indoor pool is a bit small, but it was fine for our family. The staff was pleasant and generally helpful. The included breakfast was pretty typical fare - cereal, fruit, breads, and Texas-shaped waffles. Parking was well-lit and convenient. The only things we didn't care for were the lack of extra pillows for the king-size bed (there were only two, and no more were available even after asking at the front desk) and the taste of the tap water (which is more a local issue than one specific to the hotel).MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>We stayed here before a morning trip to nearby Fossil Rim, and it was just what we needed. Not a 5-star resort by any stretch - but a safe, convenient, and affordable place to stay. Our room was clean. The indoor pool is a bit small, but it was fine for our family. The staff was pleasant and generally helpful. The included breakfast was pretty typical fare - cereal, fruit, breads, and Texas-shaped waffles. Parking was well-lit and convenient. The only things we didn't care for were the lack of extra pillows for the king-size bed (there were only two, and no more were available even after asking at the front desk) and the taste of the tap water (which is more a local issue than one specific to the hotel).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r192789729-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>192789729</t>
+  </si>
+  <si>
+    <t>02/01/2014</t>
+  </si>
+  <si>
+    <t>Amazing Stay!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed at this hotel for a few days at the end of Jan 2014 with my wife and kids. Rooms are very large and extremely comfortable. Breakfast was great in the mornings and the staff were helpful. We were very unfamiliar with the area so they were extremely helpful with directions. We will be back next year!  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r185810600-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>185810600</t>
+  </si>
+  <si>
+    <t>11/25/2013</t>
+  </si>
+  <si>
+    <t>Exceeded my expectations on an astronomical level.</t>
+  </si>
+  <si>
+    <t>Believe it or not, my husband and I decided to Honeymoon in Glen Rose, Tx. After tediously comparing rates at other local bed and breakfasts, we decided to stay at ABV due to the price. I am glad we did. The hospitality and service we received here was like nothing I've ever seen before. When I return to the area, I will definitely stay here again-no questions asked.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jason P, Owner at Quality Inn &amp; Suites, responded to this reviewResponded December 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2013</t>
+  </si>
+  <si>
+    <t>Believe it or not, my husband and I decided to Honeymoon in Glen Rose, Tx. After tediously comparing rates at other local bed and breakfasts, we decided to stay at ABV due to the price. I am glad we did. The hospitality and service we received here was like nothing I've ever seen before. When I return to the area, I will definitely stay here again-no questions asked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r183111069-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>183111069</t>
+  </si>
+  <si>
+    <t>10/31/2013</t>
+  </si>
+  <si>
+    <t>Truly a Great Value</t>
+  </si>
+  <si>
+    <t>I had met Terry, the manager, on a previous trip while passing through town.  I knew I would be bringing the guys up for a golf outing and needed to find a nice clean place to stay.  Terry showed me what the rooms were like and told me to call him when we needed to stay.  We just finished our second golf trip with the guys to Glen Rose, TX, and Terry and his staff could not have been nicer to us.  It is truly a great value, plus clean and friendly to boot!  Y'all should stop in and try it.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>I had met Terry, the manager, on a previous trip while passing through town.  I knew I would be bringing the guys up for a golf outing and needed to find a nice clean place to stay.  Terry showed me what the rooms were like and told me to call him when we needed to stay.  We just finished our second golf trip with the guys to Glen Rose, TX, and Terry and his staff could not have been nicer to us.  It is truly a great value, plus clean and friendly to boot!  Y'all should stop in and try it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r179769686-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>179769686</t>
+  </si>
+  <si>
+    <t>10/04/2013</t>
+  </si>
+  <si>
+    <t>very pleased and relieved</t>
+  </si>
+  <si>
+    <t>This was my first time to stay at any Americas Best Value Inn &amp; Suites. Although I was apprehensive, I relied on some good reviews on tripadvisor. I was very pleased and relieved. The hotel was great, clean, spacious, comfortable, and efficient. The manager is truly a people person with a fantastic personality. He loves children. One of the friendliest helpful managers ever. He went out of his way to welcome us. The pool was cold the first day. When we mentioned it, he made sure it was super warm for us the next day...awesome. I think he said his name was Terry, but my memory may be wrong. You won't have a great breakfast, but you will be treated to a great waffle, fruit, cereal and variety of breads. I highly recommend this place. Indoor pool, super low price. enjoyed our stay immensely.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jason P, Owner at Quality Inn &amp; Suites, responded to this reviewResponded October 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2013</t>
+  </si>
+  <si>
+    <t>This was my first time to stay at any Americas Best Value Inn &amp; Suites. Although I was apprehensive, I relied on some good reviews on tripadvisor. I was very pleased and relieved. The hotel was great, clean, spacious, comfortable, and efficient. The manager is truly a people person with a fantastic personality. He loves children. One of the friendliest helpful managers ever. He went out of his way to welcome us. The pool was cold the first day. When we mentioned it, he made sure it was super warm for us the next day...awesome. I think he said his name was Terry, but my memory may be wrong. You won't have a great breakfast, but you will be treated to a great waffle, fruit, cereal and variety of breads. I highly recommend this place. Indoor pool, super low price. enjoyed our stay immensely.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r171416541-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>171416541</t>
+  </si>
+  <si>
+    <t>08/08/2013</t>
+  </si>
+  <si>
+    <t>it was ok</t>
+  </si>
+  <si>
+    <t>everything was great.....no problems....except.....when i went to make coffee, the carafe was full, i opened it, saw MOLD on the old coffee.....i told them at the desk when i checked out, they coulda a least bought me a cuppa coffee! (That is why I gave it a "poor" for cleanliness)  Also we were kicked out of the pool right at 10, we had to use our key to get in and there was no lifeguard so why did it even close?</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r171126028-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>171126028</t>
+  </si>
+  <si>
+    <t>08/06/2013</t>
+  </si>
+  <si>
+    <t>What you need and great price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So surprising for such a low-priced chain, this location is a wonderful choice.  Great sized rooms, really comfy bed, very clean in rooms and public spaces, great complementary breakfast (perfect waffles) and friendly, accommodating staff. I'd stay here again in a heartbeat and highly recommend. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r170235165-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>170235165</t>
+  </si>
+  <si>
+    <t>07/31/2013</t>
+  </si>
+  <si>
+    <t>Good Hotel at a Reasonable Price</t>
+  </si>
+  <si>
+    <t>Our family stayed here in June 2012.  We were located on the 1st floor and didn't have a musty/mildew odor in our room.  The in-laws also stayed here and didn't have any issues with their room.We chose this hotel over the Holiday Inn that is located up the hill because of the price.  The price difference for our three night stay would have been nearly $150.00 more.  The lobby and room were very nice and clean.  We were pleasantly surprised with the quality of the room.  We stayed in a room with two queen beds.  It was spacious and suited our family of four nicely.  The continental breakfast was adequate.  My only complaint is that I prefer to make my own waffles.  I only had one issue and that was with check-in.  I made an online reservation nearly a month out from our stay and included my Value Club Member number with the reservation.  Upon trying to check in the number wasn't on the reservation.  I was finally able to get the number after 15 minutes.  If a reservation is made through the central booking system they information should carry over.  This was our 2nd stay at this hotel.  The pool and hot tub make for a nice way to unwind for the evening.  There was no issues with the Wi-Fi.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Our family stayed here in June 2012.  We were located on the 1st floor and didn't have a musty/mildew odor in our room.  The in-laws also stayed here and didn't have any issues with their room.We chose this hotel over the Holiday Inn that is located up the hill because of the price.  The price difference for our three night stay would have been nearly $150.00 more.  The lobby and room were very nice and clean.  We were pleasantly surprised with the quality of the room.  We stayed in a room with two queen beds.  It was spacious and suited our family of four nicely.  The continental breakfast was adequate.  My only complaint is that I prefer to make my own waffles.  I only had one issue and that was with check-in.  I made an online reservation nearly a month out from our stay and included my Value Club Member number with the reservation.  Upon trying to check in the number wasn't on the reservation.  I was finally able to get the number after 15 minutes.  If a reservation is made through the central booking system they information should carry over.  This was our 2nd stay at this hotel.  The pool and hot tub make for a nice way to unwind for the evening.  There was no issues with the Wi-Fi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r166852259-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>166852259</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>very pleased- good hotel at a good price!</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel due to it being the lowest price (best price is as a value club member) in Glen Rose with perhaps the exception of a 1 star motel we were not sure about. We stayed in a king suite and although the room was not as big as you'd expect at a higher end hotel, it was just right for our family of 4. We had a small child and a 1 year old child- the suite provided a sleeper sofa for our child to sleep on. However, there was not room for the couch to be pulled out AND use the pack n play, but our child slept just fine on it as a sofa. Our king bed was comfortable and on the firm side, just how we like it. We did not have any trouble with the tv, microwave, fridge, a/c, bathroom, etc. The continental breakfast was better than we anticipated and have experienced at other low budget hotels in the past. There were 4 types of cereal, instant oatmeal, fresh fruit, boiled eggs, toast and bagels, and waffles which a staff member makes for you upon request. We loved not having to make our own waffles! They were good and even Texas shaped. There was milk, orange juice, and coffee to drink. The lobby was very nice and clean, the rooms were clean and cool, and the indoor pool and hot tub were...We stayed at this hotel due to it being the lowest price (best price is as a value club member) in Glen Rose with perhaps the exception of a 1 star motel we were not sure about. We stayed in a king suite and although the room was not as big as you'd expect at a higher end hotel, it was just right for our family of 4. We had a small child and a 1 year old child- the suite provided a sleeper sofa for our child to sleep on. However, there was not room for the couch to be pulled out AND use the pack n play, but our child slept just fine on it as a sofa. Our king bed was comfortable and on the firm side, just how we like it. We did not have any trouble with the tv, microwave, fridge, a/c, bathroom, etc. The continental breakfast was better than we anticipated and have experienced at other low budget hotels in the past. There were 4 types of cereal, instant oatmeal, fresh fruit, boiled eggs, toast and bagels, and waffles which a staff member makes for you upon request. We loved not having to make our own waffles! They were good and even Texas shaped. There was milk, orange juice, and coffee to drink. The lobby was very nice and clean, the rooms were clean and cool, and the indoor pool and hot tub were clean and very enjoyable. Close to attractions too, and several places to eat nearby. We did have a room on the first floor and did hear a little noise from above us, but nothing terrible that interfered with sleep or anything. We did not hear anything from the rooms next to us.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel due to it being the lowest price (best price is as a value club member) in Glen Rose with perhaps the exception of a 1 star motel we were not sure about. We stayed in a king suite and although the room was not as big as you'd expect at a higher end hotel, it was just right for our family of 4. We had a small child and a 1 year old child- the suite provided a sleeper sofa for our child to sleep on. However, there was not room for the couch to be pulled out AND use the pack n play, but our child slept just fine on it as a sofa. Our king bed was comfortable and on the firm side, just how we like it. We did not have any trouble with the tv, microwave, fridge, a/c, bathroom, etc. The continental breakfast was better than we anticipated and have experienced at other low budget hotels in the past. There were 4 types of cereal, instant oatmeal, fresh fruit, boiled eggs, toast and bagels, and waffles which a staff member makes for you upon request. We loved not having to make our own waffles! They were good and even Texas shaped. There was milk, orange juice, and coffee to drink. The lobby was very nice and clean, the rooms were clean and cool, and the indoor pool and hot tub were...We stayed at this hotel due to it being the lowest price (best price is as a value club member) in Glen Rose with perhaps the exception of a 1 star motel we were not sure about. We stayed in a king suite and although the room was not as big as you'd expect at a higher end hotel, it was just right for our family of 4. We had a small child and a 1 year old child- the suite provided a sleeper sofa for our child to sleep on. However, there was not room for the couch to be pulled out AND use the pack n play, but our child slept just fine on it as a sofa. Our king bed was comfortable and on the firm side, just how we like it. We did not have any trouble with the tv, microwave, fridge, a/c, bathroom, etc. The continental breakfast was better than we anticipated and have experienced at other low budget hotels in the past. There were 4 types of cereal, instant oatmeal, fresh fruit, boiled eggs, toast and bagels, and waffles which a staff member makes for you upon request. We loved not having to make our own waffles! They were good and even Texas shaped. There was milk, orange juice, and coffee to drink. The lobby was very nice and clean, the rooms were clean and cool, and the indoor pool and hot tub were clean and very enjoyable. Close to attractions too, and several places to eat nearby. We did have a room on the first floor and did hear a little noise from above us, but nothing terrible that interfered with sleep or anything. We did not hear anything from the rooms next to us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r166566351-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>166566351</t>
+  </si>
+  <si>
+    <t>07/06/2013</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised!!!</t>
+  </si>
+  <si>
+    <t>We were attending a family reunion at Tres Rios recently, we were unable to get a cabin, so we booked a handicapped room.  Rates for our room was reasonable, held our breath, thinking room would be small, hot, no amenities...WRONG, spacious and very cold AC...much appreciated. With temp at 105...luv it..The manager Terry, I think so likeable, made our stay so much better...made the BEST waffles, even brought it to our table..great way to start your day, a little humor and kindness..this is our place to come back for other visits...No restaurant, just continental breakfast room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r158099376-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>158099376</t>
+  </si>
+  <si>
+    <t>04/18/2013</t>
+  </si>
+  <si>
+    <t>Below average</t>
+  </si>
+  <si>
+    <t>I am surprised at the high ranking this hotel has received in the past. It is a clean, well-maintained budget hotel. But my experience included smelly halls [air fresheners stuck in all the hall outlets, but didn't help], smelly room [I had to open the window to try and air it out], a Very Firm bed, like "quilt on the floor", and hard foam pillows. The nice lady on the front desk was vague about why the Wi-Fi and TV appeared not to be working. I later found out that the TV only worked on "upper" channels and that a cable solved the internet problem. I was even told by a staff member that breakfast "wasn't much"? All together I spent an uncomfortable night. There are other much nicer places to stay in town at about the same price. Check around.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>I am surprised at the high ranking this hotel has received in the past. It is a clean, well-maintained budget hotel. But my experience included smelly halls [air fresheners stuck in all the hall outlets, but didn't help], smelly room [I had to open the window to try and air it out], a Very Firm bed, like "quilt on the floor", and hard foam pillows. The nice lady on the front desk was vague about why the Wi-Fi and TV appeared not to be working. I later found out that the TV only worked on "upper" channels and that a cable solved the internet problem. I was even told by a staff member that breakfast "wasn't much"? All together I spent an uncomfortable night. There are other much nicer places to stay in town at about the same price. Check around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r154882356-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>154882356</t>
+  </si>
+  <si>
+    <t>03/17/2013</t>
+  </si>
+  <si>
+    <t>Awesome customer service!!</t>
+  </si>
+  <si>
+    <t>Very nice and clean!  Indoor pool was great!  Staff was just wonderful!!  They even make your Texas waffles for you!  Great price!!  One lady even showed me all the brochures of where to go when they open. So nice to my kids!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r154203564-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>154203564</t>
+  </si>
+  <si>
+    <t>03/10/2013</t>
+  </si>
+  <si>
+    <t>What a Great Place...</t>
+  </si>
+  <si>
+    <t>The staff was great, both day and night! We went to Glen Rose this past weekend to see Dinosaur Land and the State Park. We were looking for an inexpensive place to stay for the short stop-over on the way to Dallas. This place was a lot better than we expected. For $58 a night we stayed in a nice clean room and the place looked almost brand new. There was an indoor pool, a children's play room, and a nice little workout room that had two treadmills, an elliptical, and an stationary bike. We had a very nice room, and it was very quiet. We were not bothered by anyone. The breakfast was good. They has fruit, waffles, cereal, bread, boiled eggs, ect... This hotel is within walking distance to a couple of eating places and a little river. For the price, this is a great value!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>The staff was great, both day and night! We went to Glen Rose this past weekend to see Dinosaur Land and the State Park. We were looking for an inexpensive place to stay for the short stop-over on the way to Dallas. This place was a lot better than we expected. For $58 a night we stayed in a nice clean room and the place looked almost brand new. There was an indoor pool, a children's play room, and a nice little workout room that had two treadmills, an elliptical, and an stationary bike. We had a very nice room, and it was very quiet. We were not bothered by anyone. The breakfast was good. They has fruit, waffles, cereal, bread, boiled eggs, ect... This hotel is within walking distance to a couple of eating places and a little river. For the price, this is a great value!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r148293804-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>148293804</t>
+  </si>
+  <si>
+    <t>12/29/2012</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>Since it was winter we wanted a hotel that had an indoor pool for our 3 year old to go swimming. I think this was the only one that did plus there was free continental breakfast (texas shaped waffles, cereal, instant oatmeal, coffee, juice). We were staying the night in town to go to Fossil Rim which was awesome! The staff here was very friendly, rooms were clean plus had a small refrigerator, microwave and coffee maker. I would definitely stay here again and would recommend it.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r137466346-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>137466346</t>
+  </si>
+  <si>
+    <t>08/17/2012</t>
+  </si>
+  <si>
+    <t>Good Budget Hotel</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here a couple of nights for a wedding in the area.  The hotel was overall neat and clean and obviously recently remodeled.  The staff was very friendly and accommodating.  Downsides to the hotel were minimal.  One of the lights in our room was burnt out (which I'm sure would have been addressed had we said something), wallpaper needed repair in some spots and the breakfast was not very good (few choices, not well attended).  I admit, I am a bit of a hotel snob, and this would not have been my first choice (I like nicer soap and linens) but the stay was pleasant and the hotel met our needs.While I wouldn't choose to stay here again given a nicer option, I wouldn't throw a fit if someone booked me a room here either.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here a couple of nights for a wedding in the area.  The hotel was overall neat and clean and obviously recently remodeled.  The staff was very friendly and accommodating.  Downsides to the hotel were minimal.  One of the lights in our room was burnt out (which I'm sure would have been addressed had we said something), wallpaper needed repair in some spots and the breakfast was not very good (few choices, not well attended).  I admit, I am a bit of a hotel snob, and this would not have been my first choice (I like nicer soap and linens) but the stay was pleasant and the hotel met our needs.While I wouldn't choose to stay here again given a nicer option, I wouldn't throw a fit if someone booked me a room here either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r135451434-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>135451434</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>Glen Rose stop</t>
+  </si>
+  <si>
+    <t>This was the host hotel for our event.  Clean, good bed, and enough towels. Breakfast was on time, and very clean food service area.  Good value for the money, flexible for check in and check out times, very helpful and accomodating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r134446174-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>134446174</t>
+  </si>
+  <si>
+    <t>07/15/2012</t>
+  </si>
+  <si>
+    <t>Great place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had 5 rooms here for a night all were nice and clean. The man working was very nice and helpful. They have a free breakfast in the moring which is good. Ill stay here again sometime. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r126523816-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>126523816</t>
+  </si>
+  <si>
+    <t>03/22/2012</t>
+  </si>
+  <si>
+    <t>Good experience</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights on a Spring Break The beds were comfortable, but the pillows were neck breakers! ---- way too big and hard.  The kids enjoyed the pool, but it was rather dark in the pool room at night.  We were told that the lights inside the pool were broken.  The hot tub was wonderful.  Breakfast had very little choice---cereal, waffles, or stale English muffins.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r123020716-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>123020716</t>
+  </si>
+  <si>
+    <t>01/13/2012</t>
+  </si>
+  <si>
+    <t>Kid Friendly!!!!</t>
+  </si>
+  <si>
+    <t>We kicked off our Christmas Break this year with a trip to Fossil Rim.  We stayed at the America's Best Value Inn mainly because they have an indoor pool and the price was good.  We were really suprised to see all the kid friendly touches around the hotel.  There is a little library area where parents can go to read and inside the room there is a child table and toys so that the kids are entertained while Mom or Dad studies.  Also, at the breakfast area there is a child table that is just the right size for little ones to feel like they are having a breakfast of their own.  Everyone was nice, the rooms were clean, and we really appreciate all of the details that make our children feel welcome, too.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>We kicked off our Christmas Break this year with a trip to Fossil Rim.  We stayed at the America's Best Value Inn mainly because they have an indoor pool and the price was good.  We were really suprised to see all the kid friendly touches around the hotel.  There is a little library area where parents can go to read and inside the room there is a child table and toys so that the kids are entertained while Mom or Dad studies.  Also, at the breakfast area there is a child table that is just the right size for little ones to feel like they are having a breakfast of their own.  Everyone was nice, the rooms were clean, and we really appreciate all of the details that make our children feel welcome, too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r118668092-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>118668092</t>
+  </si>
+  <si>
+    <t>09/27/2011</t>
+  </si>
+  <si>
+    <t>Highly Recommended!</t>
+  </si>
+  <si>
+    <t>Stayed at the Americas Best Value Inn in Glen Rose,Texas during our cycling race "Texas Time Trials."  It was a Great  stay for us,  Terry and the staff made us feel right at home, it was clean, any questions or info we needed was answered promptly,  and the breakfast was great topped with Texas State shaped waffles!  After returning home we joined Americas Best Value Inn's Value Club!  We will look forward to our stay next year.  Thanks Terry!Scott &amp; Jen Luikart Ohio, USAMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>rubenreyes, Manager at Quality Inn &amp; Suites, responded to this reviewResponded October 1, 2011</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2011</t>
+  </si>
+  <si>
+    <t>Stayed at the Americas Best Value Inn in Glen Rose,Texas during our cycling race "Texas Time Trials."  It was a Great  stay for us,  Terry and the staff made us feel right at home, it was clean, any questions or info we needed was answered promptly,  and the breakfast was great topped with Texas State shaped waffles!  After returning home we joined Americas Best Value Inn's Value Club!  We will look forward to our stay next year.  Thanks Terry!Scott &amp; Jen Luikart Ohio, USAMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r101119844-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>101119844</t>
+  </si>
+  <si>
+    <t>03/22/2011</t>
+  </si>
+  <si>
+    <t>Would not honor confirmation/reservation made through Hotels.com</t>
+  </si>
+  <si>
+    <t>We arrived on Friday evening (5:30pm-ish) during Spring Break.  Upon tryng to check in, we discovered that they did not have a reservation for our family.  We provdided them with our confirmation made through Hotels.com, only to be told there was nothing they could do, they had no rooms... ours was the last reservation to come in.  What???  It made no sense.  Why does Americas Best Inn use Hotels.com as a service, if they won't honor a reservation made through them.  They did make a couple a calls to other hotels (no one had rooms) and then said, "Well, Granbury is only 15 minutes away."    Granbury was definitely worth the extra few miles!  We stayed at the Best Western and had fabulous service, breakfast -- and they also had an indoor pool.  There are way more restaurant options in Granbury too.  So, if you plan a trip to see all the attractions in Glen Rose, plan to stay in Granbury!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>abviglenrose858, Manager at Quality Inn &amp; Suites, responded to this reviewResponded May 5, 2011</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2011</t>
+  </si>
+  <si>
+    <t>We arrived on Friday evening (5:30pm-ish) during Spring Break.  Upon tryng to check in, we discovered that they did not have a reservation for our family.  We provdided them with our confirmation made through Hotels.com, only to be told there was nothing they could do, they had no rooms... ours was the last reservation to come in.  What???  It made no sense.  Why does Americas Best Inn use Hotels.com as a service, if they won't honor a reservation made through them.  They did make a couple a calls to other hotels (no one had rooms) and then said, "Well, Granbury is only 15 minutes away."    Granbury was definitely worth the extra few miles!  We stayed at the Best Western and had fabulous service, breakfast -- and they also had an indoor pool.  There are way more restaurant options in Granbury too.  So, if you plan a trip to see all the attractions in Glen Rose, plan to stay in Granbury!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r97257559-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>97257559</t>
+  </si>
+  <si>
+    <t>02/19/2011</t>
+  </si>
+  <si>
+    <t>I was amazed at the service we received and how well my children were treated.</t>
+  </si>
+  <si>
+    <t>We went on a 2 and a half day trip to Glen Rose from Dallas. We had 3 kids in tow who were all very sick of being in the car and ready to bounce off the walls. As we walked into the hotel, the manager (Terry Dale) greeted each of the three kids with fruit snacks and toy airplanes. Check in went smoothly and we were told if we needed anything to let him know. When we decided to go to the pool he was busy doing something, but 5 minutes after we jumped in, he brought us towel and asked if there was anything else he could do for us. This type of service lasted the whole time we were there. He came in to the breakfast areas in the morning while we were having breakfast and made waffles for everyone (so nice to have a break from cooking!) and when we left on Thursday morning, he gave each of the kids a small present to take with them. My 2 year old covered himself in stamps from the giraffe stamp Mr. Dale gave him! We will be going back to Glen Rose in the summer, and we will be staying at America's Best Value Inn again! Its one thing for management to treat the adults paying for the room well, but it goes above and beyond when they take an interest in your children and their happiness...We went on a 2 and a half day trip to Glen Rose from Dallas. We had 3 kids in tow who were all very sick of being in the car and ready to bounce off the walls. As we walked into the hotel, the manager (Terry Dale) greeted each of the three kids with fruit snacks and toy airplanes. Check in went smoothly and we were told if we needed anything to let him know. When we decided to go to the pool he was busy doing something, but 5 minutes after we jumped in, he brought us towel and asked if there was anything else he could do for us. This type of service lasted the whole time we were there. He came in to the breakfast areas in the morning while we were having breakfast and made waffles for everyone (so nice to have a break from cooking!) and when we left on Thursday morning, he gave each of the kids a small present to take with them. My 2 year old covered himself in stamps from the giraffe stamp Mr. Dale gave him! We will be going back to Glen Rose in the summer, and we will be staying at America's Best Value Inn again! Its one thing for management to treat the adults paying for the room well, but it goes above and beyond when they take an interest in your children and their happiness and enjoyment!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>We went on a 2 and a half day trip to Glen Rose from Dallas. We had 3 kids in tow who were all very sick of being in the car and ready to bounce off the walls. As we walked into the hotel, the manager (Terry Dale) greeted each of the three kids with fruit snacks and toy airplanes. Check in went smoothly and we were told if we needed anything to let him know. When we decided to go to the pool he was busy doing something, but 5 minutes after we jumped in, he brought us towel and asked if there was anything else he could do for us. This type of service lasted the whole time we were there. He came in to the breakfast areas in the morning while we were having breakfast and made waffles for everyone (so nice to have a break from cooking!) and when we left on Thursday morning, he gave each of the kids a small present to take with them. My 2 year old covered himself in stamps from the giraffe stamp Mr. Dale gave him! We will be going back to Glen Rose in the summer, and we will be staying at America's Best Value Inn again! Its one thing for management to treat the adults paying for the room well, but it goes above and beyond when they take an interest in your children and their happiness...We went on a 2 and a half day trip to Glen Rose from Dallas. We had 3 kids in tow who were all very sick of being in the car and ready to bounce off the walls. As we walked into the hotel, the manager (Terry Dale) greeted each of the three kids with fruit snacks and toy airplanes. Check in went smoothly and we were told if we needed anything to let him know. When we decided to go to the pool he was busy doing something, but 5 minutes after we jumped in, he brought us towel and asked if there was anything else he could do for us. This type of service lasted the whole time we were there. He came in to the breakfast areas in the morning while we were having breakfast and made waffles for everyone (so nice to have a break from cooking!) and when we left on Thursday morning, he gave each of the kids a small present to take with them. My 2 year old covered himself in stamps from the giraffe stamp Mr. Dale gave him! We will be going back to Glen Rose in the summer, and we will be staying at America's Best Value Inn again! Its one thing for management to treat the adults paying for the room well, but it goes above and beyond when they take an interest in your children and their happiness and enjoyment!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r87464669-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>87464669</t>
+  </si>
+  <si>
+    <t>11/17/2010</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>The hotel is a little old but it is a nice place to stay for a short trip.  We loved the indoor pool &amp; "Texas" shape waffleMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>The hotel is a little old but it is a nice place to stay for a short trip.  We loved the indoor pool &amp; "Texas" shape waffleMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r59272495-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>59272495</t>
+  </si>
+  <si>
+    <t>03/22/2010</t>
+  </si>
+  <si>
+    <t>OK for the price</t>
+  </si>
+  <si>
+    <t>This hotel was just OK for the cheap price I got.  First impression was very good.... The staff was pleasant, and the lobby and room were both nice; however, the hallway in front of my non-smoking room reeked of cigarette.  It continued to stink all 3 nights I was in room 100.  Someone was grilling outside the back door also.  I thought that was a bit odd.  The grill stayed there all 3 days.  The bed sagged on the side next to the phone, and I had to stay in the middle of the bed to keep from rolling off.  The pillows were very flat.  The sheets were poor quality, thin, and wouldn't stay put on the bed.  They were completely off the corners and wadded up by morning.  The breakfast was minimal.  Don't expect anything more than dry cereal, white bread, shriveled english muffins, bagels, and waffles.  Bananas were the only fruit offered, and most was overripe.  No de-caf coffee was offered.  I had to ask for it at the front desk.  None was provided in my room either.  I was given some packets that I made in my room.  The maid did not remove the filter packet or clean the pot.  She was pounding on our door at 8 am the 2nd day.  We said come back later, put out the do not disturb sign till 1 pm, and then removed it when we left.  I saw the...This hotel was just OK for the cheap price I got.  First impression was very good.... The staff was pleasant, and the lobby and room were both nice; however, the hallway in front of my non-smoking room reeked of cigarette.  It continued to stink all 3 nights I was in room 100.  Someone was grilling outside the back door also.  I thought that was a bit odd.  The grill stayed there all 3 days.  The bed sagged on the side next to the phone, and I had to stay in the middle of the bed to keep from rolling off.  The pillows were very flat.  The sheets were poor quality, thin, and wouldn't stay put on the bed.  They were completely off the corners and wadded up by morning.  The breakfast was minimal.  Don't expect anything more than dry cereal, white bread, shriveled english muffins, bagels, and waffles.  Bananas were the only fruit offered, and most was overripe.  No de-caf coffee was offered.  I had to ask for it at the front desk.  None was provided in my room either.  I was given some packets that I made in my room.  The maid did not remove the filter packet or clean the pot.  She was pounding on our door at 8 am the 2nd day.  We said come back later, put out the do not disturb sign till 1 pm, and then removed it when we left.  I saw the maid in the hallway at that time doing other rooms, but she never returned to clean our room.  I had to request towels at 11:30 that night.  The remote control for the TV was poor quality.  We had to push the buttons repeatedly to get it to respond for channel changes.  If you don't object to these things, then go ahead and stay here.  If you want better quality, spend a bit more.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>This hotel was just OK for the cheap price I got.  First impression was very good.... The staff was pleasant, and the lobby and room were both nice; however, the hallway in front of my non-smoking room reeked of cigarette.  It continued to stink all 3 nights I was in room 100.  Someone was grilling outside the back door also.  I thought that was a bit odd.  The grill stayed there all 3 days.  The bed sagged on the side next to the phone, and I had to stay in the middle of the bed to keep from rolling off.  The pillows were very flat.  The sheets were poor quality, thin, and wouldn't stay put on the bed.  They were completely off the corners and wadded up by morning.  The breakfast was minimal.  Don't expect anything more than dry cereal, white bread, shriveled english muffins, bagels, and waffles.  Bananas were the only fruit offered, and most was overripe.  No de-caf coffee was offered.  I had to ask for it at the front desk.  None was provided in my room either.  I was given some packets that I made in my room.  The maid did not remove the filter packet or clean the pot.  She was pounding on our door at 8 am the 2nd day.  We said come back later, put out the do not disturb sign till 1 pm, and then removed it when we left.  I saw the...This hotel was just OK for the cheap price I got.  First impression was very good.... The staff was pleasant, and the lobby and room were both nice; however, the hallway in front of my non-smoking room reeked of cigarette.  It continued to stink all 3 nights I was in room 100.  Someone was grilling outside the back door also.  I thought that was a bit odd.  The grill stayed there all 3 days.  The bed sagged on the side next to the phone, and I had to stay in the middle of the bed to keep from rolling off.  The pillows were very flat.  The sheets were poor quality, thin, and wouldn't stay put on the bed.  They were completely off the corners and wadded up by morning.  The breakfast was minimal.  Don't expect anything more than dry cereal, white bread, shriveled english muffins, bagels, and waffles.  Bananas were the only fruit offered, and most was overripe.  No de-caf coffee was offered.  I had to ask for it at the front desk.  None was provided in my room either.  I was given some packets that I made in my room.  The maid did not remove the filter packet or clean the pot.  She was pounding on our door at 8 am the 2nd day.  We said come back later, put out the do not disturb sign till 1 pm, and then removed it when we left.  I saw the maid in the hallway at that time doing other rooms, but she never returned to clean our room.  I had to request towels at 11:30 that night.  The remote control for the TV was poor quality.  We had to push the buttons repeatedly to get it to respond for channel changes.  If you don't object to these things, then go ahead and stay here.  If you want better quality, spend a bit more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r59007094-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>59007094</t>
+  </si>
+  <si>
+    <t>03/19/2010</t>
+  </si>
+  <si>
+    <t>Great value! Would pay more!</t>
+  </si>
+  <si>
+    <t>My extended family stayed here last weekend while visiting Fossil Rim and Dinosaur State Park. My sister had stayed here twice before and recommended it. Although we worried because it was so inexpensive, we were really pleased with the hotel!We had 3 rooms that included children, the parents, and a grandmother. We all really enjoyed it. The rooms were very clean, large, and quite. (Though my sister had problems with noisy upstairs neighbors. It is 2 stories, though, so just ask for an upstairs room! Ours was great.) The people who worked at the front desk were very friendly. They even opened the breakfast room for us to have a small birthday party - just 8 of us opening presents &amp; having cake. The kids LOVED the pool, though it was small and noisy. There were quite a few kids there and they all were having a great time.We plan on going back to Glen Rose as soon as we can and would stay at no other place. Incredible place for the price, and we usually pay a lot more! Oh, and they do let pets stay. My sister had a dog with her. She paid $5 for one night.(Oh, and the only negatives I found were the toilet paper - definitely cheap - and the lotion - pretty runny.)MoreShow less</t>
+  </si>
+  <si>
+    <t>abviglenrose858, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded May 5, 2011</t>
+  </si>
+  <si>
+    <t>My extended family stayed here last weekend while visiting Fossil Rim and Dinosaur State Park. My sister had stayed here twice before and recommended it. Although we worried because it was so inexpensive, we were really pleased with the hotel!We had 3 rooms that included children, the parents, and a grandmother. We all really enjoyed it. The rooms were very clean, large, and quite. (Though my sister had problems with noisy upstairs neighbors. It is 2 stories, though, so just ask for an upstairs room! Ours was great.) The people who worked at the front desk were very friendly. They even opened the breakfast room for us to have a small birthday party - just 8 of us opening presents &amp; having cake. The kids LOVED the pool, though it was small and noisy. There were quite a few kids there and they all were having a great time.We plan on going back to Glen Rose as soon as we can and would stay at no other place. Incredible place for the price, and we usually pay a lot more! Oh, and they do let pets stay. My sister had a dog with her. She paid $5 for one night.(Oh, and the only negatives I found were the toilet paper - definitely cheap - and the lotion - pretty runny.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r57435402-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>57435402</t>
+  </si>
+  <si>
+    <t>03/01/2010</t>
+  </si>
+  <si>
+    <t>No Frills ~ if you are into that.</t>
+  </si>
+  <si>
+    <t>Basic requirments meet...a bed, a room.   Rooms are small.  Beds are not very comfortable, water pressure was lame....shower was more of trickle...  If I was just there to sleep and go, then it would have done the job.  Completely disappointed with "free" breakfast.  Should have paid 10 buck more to stay across the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>Basic requirments meet...a bed, a room.   Rooms are small.  Beds are not very comfortable, water pressure was lame....shower was more of trickle...  If I was just there to sleep and go, then it would have done the job.  Completely disappointed with "free" breakfast.  Should have paid 10 buck more to stay across the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r4993097-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>4993097</t>
+  </si>
+  <si>
+    <t>04/20/2006</t>
+  </si>
+  <si>
+    <t>Nice place to stay!</t>
+  </si>
+  <si>
+    <t>We stayed at this new hotel on Easter weekend. The hotel is very nice ,with interiorcorridors. They also have an indoor pool and hot tub.Every room has a refridgeratorand microwave. The breakfast was above average. Glen Rose is a good weekend getaway for those that want to get out of the city for a few days. There is a wildlifepark here that is great. You actually get to feed the animals! We will be going backto Glen Rose and America's Best Value Inn&amp; Suites!</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1766,3648 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>115</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s">
+        <v>131</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>132</v>
+      </c>
+      <c r="O16" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>143</v>
+      </c>
+      <c r="O17" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" t="s">
+        <v>148</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>143</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>155</v>
+      </c>
+      <c r="O19" t="s">
+        <v>85</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" t="s">
+        <v>160</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>161</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K21" t="s">
+        <v>165</v>
+      </c>
+      <c r="L21" t="s">
+        <v>166</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>161</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>168</v>
+      </c>
+      <c r="J22" t="s">
+        <v>169</v>
+      </c>
+      <c r="K22" t="s">
+        <v>170</v>
+      </c>
+      <c r="L22" t="s">
+        <v>171</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>161</v>
+      </c>
+      <c r="O22" t="s">
+        <v>85</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>173</v>
+      </c>
+      <c r="J23" t="s">
+        <v>174</v>
+      </c>
+      <c r="K23" t="s">
+        <v>175</v>
+      </c>
+      <c r="L23" t="s">
+        <v>176</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>177</v>
+      </c>
+      <c r="O23" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" t="s">
+        <v>181</v>
+      </c>
+      <c r="K24" t="s">
+        <v>182</v>
+      </c>
+      <c r="L24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>177</v>
+      </c>
+      <c r="O24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>185</v>
+      </c>
+      <c r="J25" t="s">
+        <v>186</v>
+      </c>
+      <c r="K25" t="s">
+        <v>187</v>
+      </c>
+      <c r="L25" t="s">
+        <v>188</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>189</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>192</v>
+      </c>
+      <c r="J26" t="s">
+        <v>193</v>
+      </c>
+      <c r="K26" t="s">
+        <v>194</v>
+      </c>
+      <c r="L26" t="s">
+        <v>195</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O26" t="s">
+        <v>85</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>199</v>
+      </c>
+      <c r="J27" t="s">
+        <v>200</v>
+      </c>
+      <c r="K27" t="s">
+        <v>201</v>
+      </c>
+      <c r="L27" t="s">
+        <v>202</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>203</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>205</v>
+      </c>
+      <c r="J28" t="s">
+        <v>206</v>
+      </c>
+      <c r="K28" t="s">
+        <v>207</v>
+      </c>
+      <c r="L28" t="s">
+        <v>208</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>209</v>
+      </c>
+      <c r="O28" t="s">
+        <v>115</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>210</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>211</v>
+      </c>
+      <c r="J29" t="s">
+        <v>212</v>
+      </c>
+      <c r="K29" t="s">
+        <v>213</v>
+      </c>
+      <c r="L29" t="s">
+        <v>214</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>215</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>217</v>
+      </c>
+      <c r="J30" t="s">
+        <v>218</v>
+      </c>
+      <c r="K30" t="s">
+        <v>219</v>
+      </c>
+      <c r="L30" t="s">
+        <v>220</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>221</v>
+      </c>
+      <c r="X30" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>225</v>
+      </c>
+      <c r="J31" t="s">
+        <v>226</v>
+      </c>
+      <c r="K31" t="s">
+        <v>227</v>
+      </c>
+      <c r="L31" t="s">
+        <v>228</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>215</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>230</v>
+      </c>
+      <c r="J32" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" t="s">
+        <v>232</v>
+      </c>
+      <c r="L32" t="s">
+        <v>233</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>234</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>236</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>237</v>
+      </c>
+      <c r="J33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K33" t="s">
+        <v>239</v>
+      </c>
+      <c r="L33" t="s">
+        <v>240</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>241</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>244</v>
+      </c>
+      <c r="J34" t="s">
+        <v>245</v>
+      </c>
+      <c r="K34" t="s">
+        <v>246</v>
+      </c>
+      <c r="L34" t="s">
+        <v>247</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>249</v>
+      </c>
+      <c r="J35" t="s">
+        <v>250</v>
+      </c>
+      <c r="K35" t="s">
+        <v>251</v>
+      </c>
+      <c r="L35" t="s">
+        <v>252</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>253</v>
+      </c>
+      <c r="X35" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>256</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>257</v>
+      </c>
+      <c r="J36" t="s">
+        <v>258</v>
+      </c>
+      <c r="K36" t="s">
+        <v>259</v>
+      </c>
+      <c r="L36" t="s">
+        <v>260</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>261</v>
+      </c>
+      <c r="O36" t="s">
+        <v>58</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>253</v>
+      </c>
+      <c r="X36" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>263</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>264</v>
+      </c>
+      <c r="J37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K37" t="s">
+        <v>266</v>
+      </c>
+      <c r="L37" t="s">
+        <v>267</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>261</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>268</v>
+      </c>
+      <c r="X37" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>271</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>272</v>
+      </c>
+      <c r="J38" t="s">
+        <v>273</v>
+      </c>
+      <c r="K38" t="s">
+        <v>274</v>
+      </c>
+      <c r="L38" t="s">
+        <v>275</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>276</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>277</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>278</v>
+      </c>
+      <c r="J39" t="s">
+        <v>279</v>
+      </c>
+      <c r="K39" t="s">
+        <v>280</v>
+      </c>
+      <c r="L39" t="s">
+        <v>281</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>282</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>283</v>
+      </c>
+      <c r="J40" t="s">
+        <v>284</v>
+      </c>
+      <c r="K40" t="s">
+        <v>285</v>
+      </c>
+      <c r="L40" t="s">
+        <v>286</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>287</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>289</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>290</v>
+      </c>
+      <c r="J41" t="s">
+        <v>291</v>
+      </c>
+      <c r="K41" t="s">
+        <v>292</v>
+      </c>
+      <c r="L41" t="s">
+        <v>293</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>276</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>295</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>296</v>
+      </c>
+      <c r="J42" t="s">
+        <v>297</v>
+      </c>
+      <c r="K42" t="s">
+        <v>298</v>
+      </c>
+      <c r="L42" t="s">
+        <v>299</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>287</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>300</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>301</v>
+      </c>
+      <c r="J43" t="s">
+        <v>302</v>
+      </c>
+      <c r="K43" t="s">
+        <v>303</v>
+      </c>
+      <c r="L43" t="s">
+        <v>304</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>305</v>
+      </c>
+      <c r="O43" t="s">
+        <v>115</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>307</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>308</v>
+      </c>
+      <c r="J44" t="s">
+        <v>309</v>
+      </c>
+      <c r="K44" t="s">
+        <v>310</v>
+      </c>
+      <c r="L44" t="s">
+        <v>311</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>312</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>313</v>
+      </c>
+      <c r="J45" t="s">
+        <v>314</v>
+      </c>
+      <c r="K45" t="s">
+        <v>315</v>
+      </c>
+      <c r="L45" t="s">
+        <v>316</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>317</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>319</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>320</v>
+      </c>
+      <c r="J46" t="s">
+        <v>321</v>
+      </c>
+      <c r="K46" t="s">
+        <v>322</v>
+      </c>
+      <c r="L46" t="s">
+        <v>323</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>324</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>325</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>326</v>
+      </c>
+      <c r="J47" t="s">
+        <v>327</v>
+      </c>
+      <c r="K47" t="s">
+        <v>328</v>
+      </c>
+      <c r="L47" t="s">
+        <v>329</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>330</v>
+      </c>
+      <c r="O47" t="s">
+        <v>85</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>332</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>333</v>
+      </c>
+      <c r="J48" t="s">
+        <v>334</v>
+      </c>
+      <c r="K48" t="s">
+        <v>335</v>
+      </c>
+      <c r="L48" t="s">
+        <v>336</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>330</v>
+      </c>
+      <c r="O48" t="s">
+        <v>337</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>338</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>339</v>
+      </c>
+      <c r="J49" t="s">
+        <v>340</v>
+      </c>
+      <c r="K49" t="s">
+        <v>341</v>
+      </c>
+      <c r="L49" t="s">
+        <v>342</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>343</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>344</v>
+      </c>
+      <c r="J50" t="s">
+        <v>345</v>
+      </c>
+      <c r="K50" t="s">
+        <v>346</v>
+      </c>
+      <c r="L50" t="s">
+        <v>347</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>348</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>349</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>350</v>
+      </c>
+      <c r="J51" t="s">
+        <v>351</v>
+      </c>
+      <c r="K51" t="s">
+        <v>352</v>
+      </c>
+      <c r="L51" t="s">
+        <v>353</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>354</v>
+      </c>
+      <c r="O51" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>356</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>357</v>
+      </c>
+      <c r="J52" t="s">
+        <v>358</v>
+      </c>
+      <c r="K52" t="s">
+        <v>359</v>
+      </c>
+      <c r="L52" t="s">
+        <v>360</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>361</v>
+      </c>
+      <c r="O52" t="s">
+        <v>85</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>362</v>
+      </c>
+      <c r="X52" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>365</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>366</v>
+      </c>
+      <c r="J53" t="s">
+        <v>367</v>
+      </c>
+      <c r="K53" t="s">
+        <v>368</v>
+      </c>
+      <c r="L53" t="s">
+        <v>369</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>370</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>371</v>
+      </c>
+      <c r="X53" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>374</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>375</v>
+      </c>
+      <c r="J54" t="s">
+        <v>376</v>
+      </c>
+      <c r="K54" t="s">
+        <v>377</v>
+      </c>
+      <c r="L54" t="s">
+        <v>378</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>379</v>
+      </c>
+      <c r="O54" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>371</v>
+      </c>
+      <c r="X54" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>381</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>382</v>
+      </c>
+      <c r="J55" t="s">
+        <v>383</v>
+      </c>
+      <c r="K55" t="s">
+        <v>384</v>
+      </c>
+      <c r="L55" t="s">
+        <v>385</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>386</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>371</v>
+      </c>
+      <c r="X55" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>388</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>389</v>
+      </c>
+      <c r="J56" t="s">
+        <v>390</v>
+      </c>
+      <c r="K56" t="s">
+        <v>391</v>
+      </c>
+      <c r="L56" t="s">
+        <v>392</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>393</v>
+      </c>
+      <c r="O56" t="s">
+        <v>85</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>371</v>
+      </c>
+      <c r="X56" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>395</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>396</v>
+      </c>
+      <c r="J57" t="s">
+        <v>397</v>
+      </c>
+      <c r="K57" t="s">
+        <v>398</v>
+      </c>
+      <c r="L57" t="s">
+        <v>399</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>393</v>
+      </c>
+      <c r="O57" t="s">
+        <v>52</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>400</v>
+      </c>
+      <c r="X57" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>402</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>403</v>
+      </c>
+      <c r="J58" t="s">
+        <v>404</v>
+      </c>
+      <c r="K58" t="s">
+        <v>405</v>
+      </c>
+      <c r="L58" t="s">
+        <v>406</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>407</v>
+      </c>
+      <c r="O58" t="s">
+        <v>337</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>371</v>
+      </c>
+      <c r="X58" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>409</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>410</v>
+      </c>
+      <c r="J59" t="s">
+        <v>411</v>
+      </c>
+      <c r="K59" t="s">
+        <v>412</v>
+      </c>
+      <c r="L59" t="s">
+        <v>413</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>413</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_613.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_613.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="472">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Saundy R</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>nachodiego</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r558379169-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -193,6 +199,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>MNFamilyAdventurers</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r557348772-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
@@ -224,6 +233,9 @@
 As mentioned the staff was helpful but...This is our second stay at the Quality Inn. Would not have rebooked it if I did not think it was a decent property.  The second time around was a little different from our first stay.The rooms are large and clean for the most part and the staff is friendly and helpful.  The bathroom in our room had a couple of issues.  The faucet in the sink dripped unless you fiddled around with the handle and found the perfect spot. Somewhat annoying.  On our fourth and last day there was no hot water in the shower. I'm not really much for cold showers. We mentioned it to hotel staff and they seemed concerned but I'm not sure what was done since we then checked out. The free continental breakfast was not as good as the first time we stayed here. The yogurt was two weeks outdated and the eggs were luke-warm at best. Not sure what was up with the waffle batter this time - the two times I tried to make a waffle it broke in half when opening the waffle iron and crumbled into small uneatable pieces when trying to get it out of the iron. Staff remade new batter but with the same cooking result. Other breakfast options, small muffins and pastries, did not seem fresh and there is no wheat option of any kind in the bread department.As mentioned the staff was helpful but overall I felt the property was declining. It is less expensive then the other nearby properties so if you're on a budget I guess this would be a good option. Unfortunately, I don't believe we will be staying here again.More</t>
   </si>
   <si>
+    <t>slhagins2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r482736118-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -242,6 +254,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>Sarah L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r478407038-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -263,6 +278,9 @@
     <t>I read a few of the negative reviews prior to booking here and figured there was some exaggeration to the complaints. Nope! The carpet in my room was so sticky, my foot made an audible sound as it lifted off the floor. The hotel smelled overwhelmingly of stale smoke. The light in the bathroom was burned out, and the water pressure dropped down to almost nothing multiple times during my shower. The TV was so pixilated that I gave up and watched something on my phone. The beds were hard and cheap with the ratty, torn box springs exposed. There were several large stains on the desk chair. The breakfast was limited, but it was passable. Overall, I will do my best to avoid this place in the future.More</t>
   </si>
   <si>
+    <t>Terri H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r473211171-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -287,6 +305,9 @@
     <t>In reading some of the other reviews, I was a little skeptical about staying here.  But the price was "right" since we had been in another town the night before and spent more than usual on an upgraded room so I took a chance on this hotel.  I didn't experience any of the problems others have.  From the outside it looks VERY new but the inside is not.  Yes, obviously it's an older hotel but ALL hotels can't be brand new everywhere you go.  It didn't smell bad to me at all, bathrooms were clean, beds were clean, rooms were clean, check-in took less than five minutes and very efficient, breakfast was good and well stocked.  BEST part for me was the room stayed cool enough ALL night.  I usually have problems with that in other hotels so I really enjoyed that.  Only problem we had was the cable didn't work on the TV when we got there.  The lady at the front desk came in our room and checked/fixed it and never had any other issues.  Fairly close to town.  I would stay here again if ever in the area.  Go to the bar/grill called Hollywood &amp; Vine downtown.  Really cool place and great bar food/cold beer!More</t>
   </si>
   <si>
+    <t>Sheryl S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r468760983-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -305,6 +326,9 @@
     <t>Dirty, old and unpleasant hotel. The hotel had a moldy odor. Check in took over 30 minutes with only one person in front of us.  Beds had no skirt on bottom just bare mattress. No comforter just a very thin blanket. Pillows had black moldy spots on them. AC would not turn off using controls had to unplug. Bathroom was in need of update. Toilet paper holder was rusted and pitted. Tub had black caulking instead of white. Beds were hard and lumpy. There were only 5 tables in the breakfast area so we had to take our food elsewhere to eat. Breakfast was not restocked well. I took the last sausage at around 8am and they never put any more out even though breakfast was open until 9. Eggs were dry and awful. Front desk was slow and unwelcoming. They never smiled or greeted us kindly. Never thanked me for being an elite gold member. I booked this hotel for the indoor pool which was closed for cleaning during the evening until 830pm.  At 830 it opened but it is very small and was soon too overcrowded with kids and unsafe for younger kids. I would not recommend this hotel. It needs renovated, deep cleaned, deodorized, new beds and linens, new ac units. Also there was a camera installed on the top of the tv which was a bit unnerving. More</t>
   </si>
   <si>
+    <t>Lalo_de_Mexico</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r441007895-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -323,6 +347,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>Michelle P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r432802022-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -338,6 +365,9 @@
     <t xml:space="preserve">We have stayed at several of these chains. We have been very pleased with all of them. The rooms are clean and good size, breakfast is great, the staff friendly, and there is always coffee water and snacks available. Pool area is very nice as well. Oh bed are comfy too!!  </t>
   </si>
   <si>
+    <t>Kristen D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r423539041-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -356,6 +386,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>BDS62</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r417691904-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -374,6 +407,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Donna H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r414561522-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -389,6 +425,9 @@
     <t>The hotel was not as bad as the reviews. Plenty of food at 730. The hotel had an employee keep the food and coffee supplied. The air was very cool. The manager had to fix the tv the previous guess had undone all the cables for games I guess. Staff friendly .Did have trouble with wifi. I would stay again.</t>
   </si>
   <si>
+    <t>bbh56260</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r391513360-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -407,6 +446,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Scott H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r377431706-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -425,6 +467,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Carla R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r373941362-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -440,6 +485,9 @@
     <t>It was better than I imagined it would be!  I certainly recommend this Quality Inn &amp; Suites to anyone to stay at. Very affordable, comfortable,  and great service.  I just loved the indoor pool and Jacuzzi.  The breakfast was so awesome as well. There was so many food options to choose from.  It was a terrific 3 night stay!  Will definitely stay in this motel if we vacation through Glen Rose again!</t>
   </si>
   <si>
+    <t>Anthony H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r356774703-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -458,6 +506,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>176eddy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r356451222-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -476,6 +527,9 @@
     <t>Chose it because of location, value, and positive reviews. Staff is nice. Pool is nice but small. Furnishings are ok. Bed and pillows uncomfortable. Sheets were okay but beds had no skirts. You could see the box springs...very cheep looking. Bathroom okay with good pressure but tub faucet dripped. Online photos are misleading in the size of the place. Pool and breakfast area are very small. Breakfast waffles and coffee are good. Eggs were not. It was okay for our first trip to Glen Rose but wish we would've stayed elsewhere.  When we come back we will each go camping or choose one of the other hotels we saw in town.More</t>
   </si>
   <si>
+    <t>Paul C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r340546494-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -494,6 +548,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Jarred H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r292173436-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -512,6 +569,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Karin D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r288800688-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -527,6 +587,9 @@
     <t>The front desk clerk and the maintenance man (maybe husband and wife) were hard-working and eager to please. The hotel itself had a smell between syrup and tanning bed salon that was hard to get past. Indoor pool was murky, which was a little gross. Breakfast was free, but not a lot of choices. Our room was near the main road, which was very noisy.</t>
   </si>
   <si>
+    <t>colleenmerkle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r287376554-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -542,6 +605,9 @@
     <t xml:space="preserve">Very clean great stay tv a little small for room size beds comfortable very affordable compared to prices of other hotels in glen rose great staff would deffinatly stay there again continental breakfast quits real early so didnt get to try that but was told by the clerk where to find an awesome breakfast in glenrose </t>
   </si>
   <si>
+    <t>riderlady</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r275404083-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -563,6 +629,9 @@
     <t>The staff was understaffed due to a management problem and what staff they did have was not very courteous to their customers. It started off with the person checking us in was overwhelmed with too many people waiting to check in but wouldn't bother her manager that she needed help. She acted as though he might be upset if she did. So we all had to be patient and wait for a very long time. Once checked in then we went to our room and it smelled like cigarette smoke. I immediately went down to talk to the person at the front desk and was told the only the rooms that they had were smoking rooms and that the room I was in was a non-smoking room. So there were no accommodations made to help with any request. That evening in our room I smelled fresh cigarette smoke and figured it had to be coming from somewhere but we had our own a/c unit in our room. Well the next morning after we checked out (oh that was another interesting ordeal as well) I walked outside and saw why there was the smell in our room. The smokers were down below our room as the hotel placed ashtrays for their cleaning staff and others right outside the front door as you walked out and it turned out our bedroom was right above the smoking area. I wasn't happy about that....The staff was understaffed due to a management problem and what staff they did have was not very courteous to their customers. It started off with the person checking us in was overwhelmed with too many people waiting to check in but wouldn't bother her manager that she needed help. She acted as though he might be upset if she did. So we all had to be patient and wait for a very long time. Once checked in then we went to our room and it smelled like cigarette smoke. I immediately went down to talk to the person at the front desk and was told the only the rooms that they had were smoking rooms and that the room I was in was a non-smoking room. So there were no accommodations made to help with any request. That evening in our room I smelled fresh cigarette smoke and figured it had to be coming from somewhere but we had our own a/c unit in our room. Well the next morning after we checked out (oh that was another interesting ordeal as well) I walked outside and saw why there was the smell in our room. The smokers were down below our room as the hotel placed ashtrays for their cleaning staff and others right outside the front door as you walked out and it turned out our bedroom was right above the smoking area. I wasn't happy about that. I brought this to the attention of the manager, who really seemed to care less, and he then became defensive and basically asked me "where was I suppose to move it? They won't go out to the field to smoke, so no I'm not going to move it." So apparently they were more worried about keeping their staff happy then their customers. When we had checked in to the hotel we had told them that we each were sharing the cost of our room. I was told that we could take care of that in the morning. Before I had a chance to check out one of my friends told me that they refused to split the room charges that it had already been charged to their card and it would be difficult to give a refund. That it would take several days for it to be credit back to their card. I refused this excuse. So when I checked out I told the person at the front desk that we would be splitting it. She started explaining why she couldn't. It so happened that the so-called manager was standing there and he told her how to do it. I explained that we were told that we could when we checked in. Then they blamed the girl who checked us in for all the mistakes. It was like totally unbelievable. Nope I won't be back. I've already told the GM of the hotel and Choice Hotels. I will not recommend that hotel either to anyone. My expectations were totally deflated by the staff. Definitely not a biker friendly hotel either.More</t>
   </si>
   <si>
+    <t>cheetahguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r269163129-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -578,6 +647,9 @@
     <t>Quite nice for a budget hotel. All interior corridors. Small indoor pool and Jacuzzi. Laundry room with a single washer and dryer. Breakfast was decent - about the norm for these budget chain hotels (but no instant oatmeal as I like). Small refrigerator and microwave in room. Sink is outside bathroom so someone can use it while other person is using toilet or shower. I would stay here again if I was in the area.</t>
   </si>
   <si>
+    <t>Amber K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r260246506-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -599,6 +671,9 @@
     <t>I rented two rooms for a family trip during spring break.  Rooms were pretty average, but had everything we needed. A plus is the mini fridge which is nice when you've got kids.  The best feature for the kids is the indoor pool and hot tub. There is also a decent breakfast included, but they ran out if several items before the breakfast time was up, so I suggest showing up early.  There were lots of families with children, so we felt right at home.  There was a bit of mildew in the tub area and the tub had a slow drain, but overall the room and property was clean.  This property is close to the Glen Rose attractions.  For the price, this was a good value and I would recommend it.More</t>
   </si>
   <si>
+    <t>David Q</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r254271428-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -620,6 +695,9 @@
     <t>This place is awesome. After being on the road for 3weeks we had some scary experiences. We walked in here and were awed. Beautiful lobby, large breakfast room, heated indoor pool and hot tub, nicely decorated large rooms.  Clean,clean,clean. And did I mention the friendly and helpful staff? We liked it so well we stayed an extra day! Lots to do here. We hiked Dinosaur Valley state park..saw many dinosaur fossil tracks. Also drove Fossil Rim wildlife center...a three hour drive through with many species of African and exotic animals that you can hand feed with food provided.It was a memorable stay and we will be back!     Barb and Dave Q.More</t>
   </si>
   <si>
+    <t>Kim L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r251792676-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -638,6 +716,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>741carolem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r247788798-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -656,6 +737,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>toballou</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r230959521-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -674,6 +758,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>jjkabilene</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r227360078-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -698,6 +785,9 @@
     <t>Terribly unacceptable. To start, the smell!!!! Its stinks makes with glades an carpet powder. Couldnt breath so strong. Sheets stained and wholes in them. The flag was so torn. It was disrespectful. Pure lazy. We left, got hotel hotel down the street.Used to be a great place not no moreMore</t>
   </si>
   <si>
+    <t>Tyler B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r219789157-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -713,6 +803,9 @@
     <t>I recently stayed here for a weekend trip.  Really nice hotel, clean, food was good, staff was friendly and helpful.Suggested we went to a local place for dinner.  WOW, what great food, but that's for a different review.Would recommend this place for anyone headed out to the State Park, or other local attractions.</t>
   </si>
   <si>
+    <t>Thullraven</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r206082307-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -734,6 +827,9 @@
     <t>I was here one night with my wife and daughter. The price was very reasonable. The rooms was good sized and comfortable, except that there were two lights that weren't working,and the AC unit wouldn't turn off even on the "Stop" setting. The unit itself works great. The man person on duty during the day, I believe his name is Terry, was fantastic and was very informative and helpful. There is an indoor pool and hot tub, which I loved until a couple of teenage boys came and decided to jump and dive in the pool and splash all over the place. Then one of them decided to turn off the hot tub I was in at the time and I turned it back on and told him not to do that again, and he didn't. That said, I had been there awhile and since my peaceful time was now gone, I went back to my room. I don't blame the hotel for them, however. That's poor parenting. The next morning, we went to the breakfast. I wasn't doing so well with the waffle maker and didn't flip it when the timer went off. In my defense, I was half asleep. Anyway, the girl on duty was a bit rude when getting on to me about it. Granted, I was wrong to take so long, but she was rude enough that my wife felt compelled to say something. If not...I was here one night with my wife and daughter. The price was very reasonable. The rooms was good sized and comfortable, except that there were two lights that weren't working,and the AC unit wouldn't turn off even on the "Stop" setting. The unit itself works great. The man person on duty during the day, I believe his name is Terry, was fantastic and was very informative and helpful. There is an indoor pool and hot tub, which I loved until a couple of teenage boys came and decided to jump and dive in the pool and splash all over the place. Then one of them decided to turn off the hot tub I was in at the time and I turned it back on and told him not to do that again, and he didn't. That said, I had been there awhile and since my peaceful time was now gone, I went back to my room. I don't blame the hotel for them, however. That's poor parenting. The next morning, we went to the breakfast. I wasn't doing so well with the waffle maker and didn't flip it when the timer went off. In my defense, I was half asleep. Anyway, the girl on duty was a bit rude when getting on to me about it. Granted, I was wrong to take so long, but she was rude enough that my wife felt compelled to say something. If not for the negatives, this would have gotten at least four stars from me. Anyway, I'm a Choice Hotel Member, but will most likely stay somewhere else next time I come here.More</t>
   </si>
   <si>
+    <t>Entrekin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r196633408-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -755,6 +851,9 @@
     <t>We stayed here before a morning trip to nearby Fossil Rim, and it was just what we needed. Not a 5-star resort by any stretch - but a safe, convenient, and affordable place to stay. Our room was clean. The indoor pool is a bit small, but it was fine for our family. The staff was pleasant and generally helpful. The included breakfast was pretty typical fare - cereal, fruit, breads, and Texas-shaped waffles. Parking was well-lit and convenient. The only things we didn't care for were the lack of extra pillows for the king-size bed (there were only two, and no more were available even after asking at the front desk) and the taste of the tap water (which is more a local issue than one specific to the hotel).More</t>
   </si>
   <si>
+    <t>Yeezy_cj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r192789729-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -770,6 +869,9 @@
     <t xml:space="preserve">I stayed at this hotel for a few days at the end of Jan 2014 with my wife and kids. Rooms are very large and extremely comfortable. Breakfast was great in the mornings and the staff were helpful. We were very unfamiliar with the area so they were extremely helpful with directions. We will be back next year!  </t>
   </si>
   <si>
+    <t>visionbysharee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r185810600-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -794,6 +896,9 @@
     <t>Believe it or not, my husband and I decided to Honeymoon in Glen Rose, Tx. After tediously comparing rates at other local bed and breakfasts, we decided to stay at ABV due to the price. I am glad we did. The hospitality and service we received here was like nothing I've ever seen before. When I return to the area, I will definitely stay here again-no questions asked.More</t>
   </si>
   <si>
+    <t>Peter d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r183111069-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -815,6 +920,9 @@
     <t>I had met Terry, the manager, on a previous trip while passing through town.  I knew I would be bringing the guys up for a golf outing and needed to find a nice clean place to stay.  Terry showed me what the rooms were like and told me to call him when we needed to stay.  We just finished our second golf trip with the guys to Glen Rose, TX, and Terry and his staff could not have been nicer to us.  It is truly a great value, plus clean and friendly to boot!  Y'all should stop in and try it.More</t>
   </si>
   <si>
+    <t>lbelmore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r179769686-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -839,6 +947,9 @@
     <t>This was my first time to stay at any Americas Best Value Inn &amp; Suites. Although I was apprehensive, I relied on some good reviews on tripadvisor. I was very pleased and relieved. The hotel was great, clean, spacious, comfortable, and efficient. The manager is truly a people person with a fantastic personality. He loves children. One of the friendliest helpful managers ever. He went out of his way to welcome us. The pool was cold the first day. When we mentioned it, he made sure it was super warm for us the next day...awesome. I think he said his name was Terry, but my memory may be wrong. You won't have a great breakfast, but you will be treated to a great waffle, fruit, cereal and variety of breads. I highly recommend this place. Indoor pool, super low price. enjoyed our stay immensely.More</t>
   </si>
   <si>
+    <t>mydonna</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r171416541-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -857,6 +968,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>cindyp21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r171126028-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -872,6 +986,9 @@
     <t xml:space="preserve">So surprising for such a low-priced chain, this location is a wonderful choice.  Great sized rooms, really comfy bed, very clean in rooms and public spaces, great complementary breakfast (perfect waffles) and friendly, accommodating staff. I'd stay here again in a heartbeat and highly recommend. </t>
   </si>
   <si>
+    <t>HooksFan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r170235165-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -893,6 +1010,9 @@
     <t>Our family stayed here in June 2012.  We were located on the 1st floor and didn't have a musty/mildew odor in our room.  The in-laws also stayed here and didn't have any issues with their room.We chose this hotel over the Holiday Inn that is located up the hill because of the price.  The price difference for our three night stay would have been nearly $150.00 more.  The lobby and room were very nice and clean.  We were pleasantly surprised with the quality of the room.  We stayed in a room with two queen beds.  It was spacious and suited our family of four nicely.  The continental breakfast was adequate.  My only complaint is that I prefer to make my own waffles.  I only had one issue and that was with check-in.  I made an online reservation nearly a month out from our stay and included my Value Club Member number with the reservation.  Upon trying to check in the number wasn't on the reservation.  I was finally able to get the number after 15 minutes.  If a reservation is made through the central booking system they information should carry over.  This was our 2nd stay at this hotel.  The pool and hot tub make for a nice way to unwind for the evening.  There was no issues with the Wi-Fi.More</t>
   </si>
   <si>
+    <t>moorean6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r166852259-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -911,6 +1031,9 @@
     <t>We stayed at this hotel due to it being the lowest price (best price is as a value club member) in Glen Rose with perhaps the exception of a 1 star motel we were not sure about. We stayed in a king suite and although the room was not as big as you'd expect at a higher end hotel, it was just right for our family of 4. We had a small child and a 1 year old child- the suite provided a sleeper sofa for our child to sleep on. However, there was not room for the couch to be pulled out AND use the pack n play, but our child slept just fine on it as a sofa. Our king bed was comfortable and on the firm side, just how we like it. We did not have any trouble with the tv, microwave, fridge, a/c, bathroom, etc. The continental breakfast was better than we anticipated and have experienced at other low budget hotels in the past. There were 4 types of cereal, instant oatmeal, fresh fruit, boiled eggs, toast and bagels, and waffles which a staff member makes for you upon request. We loved not having to make our own waffles! They were good and even Texas shaped. There was milk, orange juice, and coffee to drink. The lobby was very nice and clean, the rooms were clean and cool, and the indoor pool and hot tub were...We stayed at this hotel due to it being the lowest price (best price is as a value club member) in Glen Rose with perhaps the exception of a 1 star motel we were not sure about. We stayed in a king suite and although the room was not as big as you'd expect at a higher end hotel, it was just right for our family of 4. We had a small child and a 1 year old child- the suite provided a sleeper sofa for our child to sleep on. However, there was not room for the couch to be pulled out AND use the pack n play, but our child slept just fine on it as a sofa. Our king bed was comfortable and on the firm side, just how we like it. We did not have any trouble with the tv, microwave, fridge, a/c, bathroom, etc. The continental breakfast was better than we anticipated and have experienced at other low budget hotels in the past. There were 4 types of cereal, instant oatmeal, fresh fruit, boiled eggs, toast and bagels, and waffles which a staff member makes for you upon request. We loved not having to make our own waffles! They were good and even Texas shaped. There was milk, orange juice, and coffee to drink. The lobby was very nice and clean, the rooms were clean and cool, and the indoor pool and hot tub were clean and very enjoyable. Close to attractions too, and several places to eat nearby. We did have a room on the first floor and did hear a little noise from above us, but nothing terrible that interfered with sleep or anything. We did not hear anything from the rooms next to us.More</t>
   </si>
   <si>
+    <t>wannago2HumbleTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r166566351-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -926,6 +1049,9 @@
     <t>We were attending a family reunion at Tres Rios recently, we were unable to get a cabin, so we booked a handicapped room.  Rates for our room was reasonable, held our breath, thinking room would be small, hot, no amenities...WRONG, spacious and very cold AC...much appreciated. With temp at 105...luv it..The manager Terry, I think so likeable, made our stay so much better...made the BEST waffles, even brought it to our table..great way to start your day, a little humor and kindness..this is our place to come back for other visits...No restaurant, just continental breakfast room.</t>
   </si>
   <si>
+    <t>texasrepublichistory</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r158099376-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -947,6 +1073,9 @@
     <t>I am surprised at the high ranking this hotel has received in the past. It is a clean, well-maintained budget hotel. But my experience included smelly halls [air fresheners stuck in all the hall outlets, but didn't help], smelly room [I had to open the window to try and air it out], a Very Firm bed, like "quilt on the floor", and hard foam pillows. The nice lady on the front desk was vague about why the Wi-Fi and TV appeared not to be working. I later found out that the TV only worked on "upper" channels and that a cable solved the internet problem. I was even told by a staff member that breakfast "wasn't much"? All together I spent an uncomfortable night. There are other much nicer places to stay in town at about the same price. Check around.More</t>
   </si>
   <si>
+    <t>Karlat25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r154882356-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -962,6 +1091,9 @@
     <t>Very nice and clean!  Indoor pool was great!  Staff was just wonderful!!  They even make your Texas waffles for you!  Great price!!  One lady even showed me all the brochures of where to go when they open. So nice to my kids!!</t>
   </si>
   <si>
+    <t>yolder</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r154203564-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -983,6 +1115,9 @@
     <t>The staff was great, both day and night! We went to Glen Rose this past weekend to see Dinosaur Land and the State Park. We were looking for an inexpensive place to stay for the short stop-over on the way to Dallas. This place was a lot better than we expected. For $58 a night we stayed in a nice clean room and the place looked almost brand new. There was an indoor pool, a children's play room, and a nice little workout room that had two treadmills, an elliptical, and an stationary bike. We had a very nice room, and it was very quiet. We were not bothered by anyone. The breakfast was good. They has fruit, waffles, cereal, bread, boiled eggs, ect... This hotel is within walking distance to a couple of eating places and a little river. For the price, this is a great value!!!More</t>
   </si>
   <si>
+    <t>chamae01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r148293804-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1001,6 +1136,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>margnais</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r137466346-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1022,6 +1160,9 @@
     <t>My husband and I stayed here a couple of nights for a wedding in the area.  The hotel was overall neat and clean and obviously recently remodeled.  The staff was very friendly and accommodating.  Downsides to the hotel were minimal.  One of the lights in our room was burnt out (which I'm sure would have been addressed had we said something), wallpaper needed repair in some spots and the breakfast was not very good (few choices, not well attended).  I admit, I am a bit of a hotel snob, and this would not have been my first choice (I like nicer soap and linens) but the stay was pleasant and the hotel met our needs.While I wouldn't choose to stay here again given a nicer option, I wouldn't throw a fit if someone booked me a room here either.More</t>
   </si>
   <si>
+    <t>phc756</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r135451434-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1040,6 +1181,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>MVP4621</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r134446174-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1055,6 +1199,9 @@
     <t xml:space="preserve">We had 5 rooms here for a night all were nice and clean. The man working was very nice and helpful. They have a free breakfast in the moring which is good. Ill stay here again sometime. </t>
   </si>
   <si>
+    <t>grandmato2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r126523816-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1073,6 +1220,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>txdorsey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r123020716-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1094,6 +1244,9 @@
     <t>We kicked off our Christmas Break this year with a trip to Fossil Rim.  We stayed at the America's Best Value Inn mainly because they have an indoor pool and the price was good.  We were really suprised to see all the kid friendly touches around the hotel.  There is a little library area where parents can go to read and inside the room there is a child table and toys so that the kids are entertained while Mom or Dad studies.  Also, at the breakfast area there is a child table that is just the right size for little ones to feel like they are having a breakfast of their own.  Everyone was nice, the rooms were clean, and we really appreciate all of the details that make our children feel welcome, too.More</t>
   </si>
   <si>
+    <t>JenLuikart</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r118668092-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1121,6 +1274,9 @@
     <t>Stayed at the Americas Best Value Inn in Glen Rose,Texas during our cycling race "Texas Time Trials."  It was a Great  stay for us,  Terry and the staff made us feel right at home, it was clean, any questions or info we needed was answered promptly,  and the breakfast was great topped with Texas State shaped waffles!  After returning home we joined Americas Best Value Inn's Value Club!  We will look forward to our stay next year.  Thanks Terry!Scott &amp; Jen Luikart Ohio, USAMore</t>
   </si>
   <si>
+    <t>AnnieRox</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r101119844-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1148,6 +1304,9 @@
     <t>We arrived on Friday evening (5:30pm-ish) during Spring Break.  Upon tryng to check in, we discovered that they did not have a reservation for our family.  We provdided them with our confirmation made through Hotels.com, only to be told there was nothing they could do, they had no rooms... ours was the last reservation to come in.  What???  It made no sense.  Why does Americas Best Inn use Hotels.com as a service, if they won't honor a reservation made through them.  They did make a couple a calls to other hotels (no one had rooms) and then said, "Well, Granbury is only 15 minutes away."    Granbury was definitely worth the extra few miles!  We stayed at the Best Western and had fabulous service, breakfast -- and they also had an indoor pool.  There are way more restaurant options in Granbury too.  So, if you plan a trip to see all the attractions in Glen Rose, plan to stay in Granbury!More</t>
   </si>
   <si>
+    <t>ashleygrace</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r97257559-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1169,6 +1328,9 @@
     <t>We went on a 2 and a half day trip to Glen Rose from Dallas. We had 3 kids in tow who were all very sick of being in the car and ready to bounce off the walls. As we walked into the hotel, the manager (Terry Dale) greeted each of the three kids with fruit snacks and toy airplanes. Check in went smoothly and we were told if we needed anything to let him know. When we decided to go to the pool he was busy doing something, but 5 minutes after we jumped in, he brought us towel and asked if there was anything else he could do for us. This type of service lasted the whole time we were there. He came in to the breakfast areas in the morning while we were having breakfast and made waffles for everyone (so nice to have a break from cooking!) and when we left on Thursday morning, he gave each of the kids a small present to take with them. My 2 year old covered himself in stamps from the giraffe stamp Mr. Dale gave him! We will be going back to Glen Rose in the summer, and we will be staying at America's Best Value Inn again! Its one thing for management to treat the adults paying for the room well, but it goes above and beyond when they take an interest in your children and their happiness...We went on a 2 and a half day trip to Glen Rose from Dallas. We had 3 kids in tow who were all very sick of being in the car and ready to bounce off the walls. As we walked into the hotel, the manager (Terry Dale) greeted each of the three kids with fruit snacks and toy airplanes. Check in went smoothly and we were told if we needed anything to let him know. When we decided to go to the pool he was busy doing something, but 5 minutes after we jumped in, he brought us towel and asked if there was anything else he could do for us. This type of service lasted the whole time we were there. He came in to the breakfast areas in the morning while we were having breakfast and made waffles for everyone (so nice to have a break from cooking!) and when we left on Thursday morning, he gave each of the kids a small present to take with them. My 2 year old covered himself in stamps from the giraffe stamp Mr. Dale gave him! We will be going back to Glen Rose in the summer, and we will be staying at America's Best Value Inn again! Its one thing for management to treat the adults paying for the room well, but it goes above and beyond when they take an interest in your children and their happiness and enjoyment!More</t>
   </si>
   <si>
+    <t>aggiehelen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r87464669-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1190,6 +1352,9 @@
     <t>The hotel is a little old but it is a nice place to stay for a short trip.  We loved the indoor pool &amp; "Texas" shape waffleMore</t>
   </si>
   <si>
+    <t>ladyslider</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r59272495-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1211,6 +1376,9 @@
     <t>This hotel was just OK for the cheap price I got.  First impression was very good.... The staff was pleasant, and the lobby and room were both nice; however, the hallway in front of my non-smoking room reeked of cigarette.  It continued to stink all 3 nights I was in room 100.  Someone was grilling outside the back door also.  I thought that was a bit odd.  The grill stayed there all 3 days.  The bed sagged on the side next to the phone, and I had to stay in the middle of the bed to keep from rolling off.  The pillows were very flat.  The sheets were poor quality, thin, and wouldn't stay put on the bed.  They were completely off the corners and wadded up by morning.  The breakfast was minimal.  Don't expect anything more than dry cereal, white bread, shriveled english muffins, bagels, and waffles.  Bananas were the only fruit offered, and most was overripe.  No de-caf coffee was offered.  I had to ask for it at the front desk.  None was provided in my room either.  I was given some packets that I made in my room.  The maid did not remove the filter packet or clean the pot.  She was pounding on our door at 8 am the 2nd day.  We said come back later, put out the do not disturb sign till 1 pm, and then removed it when we left.  I saw the...This hotel was just OK for the cheap price I got.  First impression was very good.... The staff was pleasant, and the lobby and room were both nice; however, the hallway in front of my non-smoking room reeked of cigarette.  It continued to stink all 3 nights I was in room 100.  Someone was grilling outside the back door also.  I thought that was a bit odd.  The grill stayed there all 3 days.  The bed sagged on the side next to the phone, and I had to stay in the middle of the bed to keep from rolling off.  The pillows were very flat.  The sheets were poor quality, thin, and wouldn't stay put on the bed.  They were completely off the corners and wadded up by morning.  The breakfast was minimal.  Don't expect anything more than dry cereal, white bread, shriveled english muffins, bagels, and waffles.  Bananas were the only fruit offered, and most was overripe.  No de-caf coffee was offered.  I had to ask for it at the front desk.  None was provided in my room either.  I was given some packets that I made in my room.  The maid did not remove the filter packet or clean the pot.  She was pounding on our door at 8 am the 2nd day.  We said come back later, put out the do not disturb sign till 1 pm, and then removed it when we left.  I saw the maid in the hallway at that time doing other rooms, but she never returned to clean our room.  I had to request towels at 11:30 that night.  The remote control for the TV was poor quality.  We had to push the buttons repeatedly to get it to respond for channel changes.  If you don't object to these things, then go ahead and stay here.  If you want better quality, spend a bit more.More</t>
   </si>
   <si>
+    <t>DanaHouston</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r59007094-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1232,6 +1400,9 @@
     <t>My extended family stayed here last weekend while visiting Fossil Rim and Dinosaur State Park. My sister had stayed here twice before and recommended it. Although we worried because it was so inexpensive, we were really pleased with the hotel!We had 3 rooms that included children, the parents, and a grandmother. We all really enjoyed it. The rooms were very clean, large, and quite. (Though my sister had problems with noisy upstairs neighbors. It is 2 stories, though, so just ask for an upstairs room! Ours was great.) The people who worked at the front desk were very friendly. They even opened the breakfast room for us to have a small birthday party - just 8 of us opening presents &amp; having cake. The kids LOVED the pool, though it was small and noisy. There were quite a few kids there and they all were having a great time.We plan on going back to Glen Rose as soon as we can and would stay at no other place. Incredible place for the price, and we usually pay a lot more! Oh, and they do let pets stay. My sister had a dog with her. She paid $5 for one night.(Oh, and the only negatives I found were the toilet paper - definitely cheap - and the lotion - pretty runny.)More</t>
   </si>
   <si>
+    <t>rodeoroadie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r57435402-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1251,6 +1422,9 @@
   </si>
   <si>
     <t>Basic requirments meet...a bed, a room.   Rooms are small.  Beds are not very comfortable, water pressure was lame....shower was more of trickle...  If I was just there to sleep and go, then it would have done the job.  Completely disappointed with "free" breakfast.  Should have paid 10 buck more to stay across the street.More</t>
+  </si>
+  <si>
+    <t>Selena_7</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r4993097-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
@@ -1770,43 +1944,47 @@
       <c r="A2" t="n">
         <v>54423</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>173900</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1824,50 +2002,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>54423</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>173901</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1881,50 +2063,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>54423</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>173902</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -1944,50 +2130,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>54423</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>173903</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2007,50 +2197,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>54423</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>5616</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2064,50 +2258,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>54423</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>173904</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -2127,50 +2325,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>54423</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>22649</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2184,50 +2386,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>54423</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>173905</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2245,41 +2451,45 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>54423</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>8909</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
@@ -2298,50 +2508,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>54423</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>43248</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2359,50 +2573,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>54423</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>173906</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2416,50 +2634,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>54423</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>28171</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O13" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2473,50 +2695,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>54423</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>173907</v>
+      </c>
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -2534,50 +2760,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>54423</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>11421</v>
+      </c>
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="K15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="L15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2591,50 +2821,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>54423</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>78901</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="J16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="K16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="O16" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2648,50 +2882,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>54423</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>674</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="J17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="K17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="O17" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2705,50 +2943,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>54423</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>173908</v>
+      </c>
+      <c r="C18" t="s">
+        <v>160</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="J18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="K18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="L18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -2766,50 +3008,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>54423</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>42097</v>
+      </c>
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="J19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="K19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="O19" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2827,50 +3073,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>54423</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>173909</v>
+      </c>
+      <c r="C20" t="s">
+        <v>174</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2884,50 +3134,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>54423</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>5333</v>
+      </c>
+      <c r="C21" t="s">
+        <v>181</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="J21" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="K21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -2945,50 +3199,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>54423</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>173910</v>
+      </c>
+      <c r="C22" t="s">
+        <v>187</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="J22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="K22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="O22" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3002,50 +3260,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>54423</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>173911</v>
+      </c>
+      <c r="C23" t="s">
+        <v>193</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="J23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="K23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="L23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="O23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3065,50 +3327,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>54423</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>173912</v>
+      </c>
+      <c r="C24" t="s">
+        <v>201</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="J24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="K24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="L24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="O24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3126,50 +3392,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>54423</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>881</v>
+      </c>
+      <c r="C25" t="s">
+        <v>207</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="J25" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="K25" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3183,50 +3453,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>54423</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>22241</v>
+      </c>
+      <c r="C26" t="s">
+        <v>215</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="J26" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="K26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="L26" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="O26" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3246,50 +3520,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>54423</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>4280</v>
+      </c>
+      <c r="C27" t="s">
+        <v>223</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="J27" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="K27" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3309,50 +3587,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>54423</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>173913</v>
+      </c>
+      <c r="C28" t="s">
+        <v>230</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="J28" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="K28" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="O28" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -3370,50 +3652,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>54423</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>173914</v>
+      </c>
+      <c r="C29" t="s">
+        <v>237</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="J29" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="K29" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="L29" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="O29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3433,41 +3719,45 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>54423</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>173915</v>
+      </c>
+      <c r="C30" t="s">
+        <v>244</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="J30" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="K30" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="L30" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
@@ -3494,56 +3784,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="X30" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="Y30" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>54423</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>156736</v>
+      </c>
+      <c r="C31" t="s">
+        <v>253</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="J31" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="K31" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="L31" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3561,50 +3855,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>54423</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>173916</v>
+      </c>
+      <c r="C32" t="s">
+        <v>259</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="J32" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="K32" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="L32" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3628,50 +3926,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>54423</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>173917</v>
+      </c>
+      <c r="C33" t="s">
+        <v>267</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="J33" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="K33" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="L33" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3685,41 +3987,45 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>54423</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>173918</v>
+      </c>
+      <c r="C34" t="s">
+        <v>275</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="J34" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="K34" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
@@ -3738,41 +4044,45 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>54423</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>173919</v>
+      </c>
+      <c r="C35" t="s">
+        <v>281</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="J35" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="K35" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="L35" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
@@ -3799,56 +4109,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="X35" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="Y35" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>54423</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>173920</v>
+      </c>
+      <c r="C36" t="s">
+        <v>290</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="J36" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="K36" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="L36" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="O36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -3870,56 +4184,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="X36" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="Y36" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>54423</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>173921</v>
+      </c>
+      <c r="C37" t="s">
+        <v>298</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="J37" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="K37" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="L37" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -3941,56 +4259,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="X37" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="Y37" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>54423</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>70131</v>
+      </c>
+      <c r="C38" t="s">
+        <v>307</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="J38" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="K38" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="L38" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="O38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -4014,41 +4336,45 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>54423</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>173922</v>
+      </c>
+      <c r="C39" t="s">
+        <v>314</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="J39" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="K39" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="L39" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
@@ -4077,50 +4403,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>54423</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>47967</v>
+      </c>
+      <c r="C40" t="s">
+        <v>320</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="J40" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="K40" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="L40" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="O40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4144,50 +4474,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>54423</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>173923</v>
+      </c>
+      <c r="C41" t="s">
+        <v>328</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="J41" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="K41" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="L41" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4211,50 +4545,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>54423</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>173924</v>
+      </c>
+      <c r="C42" t="s">
+        <v>335</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="J42" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="K42" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="O42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4278,50 +4616,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>54423</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>173925</v>
+      </c>
+      <c r="C43" t="s">
+        <v>341</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="J43" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="K43" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="L43" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="O43" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -4345,41 +4687,45 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>54423</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>173926</v>
+      </c>
+      <c r="C44" t="s">
+        <v>349</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="J44" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="K44" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="L44" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
@@ -4408,50 +4754,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>54423</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>173927</v>
+      </c>
+      <c r="C45" t="s">
+        <v>355</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="J45" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="K45" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="L45" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="O45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4475,50 +4825,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>54423</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>72645</v>
+      </c>
+      <c r="C46" t="s">
+        <v>363</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="J46" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="K46" t="s">
-        <v>322</v>
+        <v>367</v>
       </c>
       <c r="L46" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="O46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4542,50 +4896,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>54423</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>173928</v>
+      </c>
+      <c r="C47" t="s">
+        <v>370</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="J47" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="K47" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="L47" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="O47" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -4609,50 +4967,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>54423</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>173929</v>
+      </c>
+      <c r="C48" t="s">
+        <v>378</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="J48" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="K48" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="L48" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="O48" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -4676,41 +5038,45 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>54423</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>173930</v>
+      </c>
+      <c r="C49" t="s">
+        <v>385</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>338</v>
+        <v>386</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="J49" t="s">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="K49" t="s">
-        <v>341</v>
+        <v>389</v>
       </c>
       <c r="L49" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
@@ -4739,50 +5105,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>54423</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>173931</v>
+      </c>
+      <c r="C50" t="s">
+        <v>391</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="J50" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="K50" t="s">
-        <v>346</v>
+        <v>395</v>
       </c>
       <c r="L50" t="s">
-        <v>347</v>
+        <v>396</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>348</v>
+        <v>397</v>
       </c>
       <c r="O50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -4806,50 +5176,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>347</v>
+        <v>396</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>54423</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>22359</v>
+      </c>
+      <c r="C51" t="s">
+        <v>398</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="J51" t="s">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="K51" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="L51" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="O51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -4873,50 +5247,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>54423</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>173932</v>
+      </c>
+      <c r="C52" t="s">
+        <v>406</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>356</v>
+        <v>407</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>357</v>
+        <v>408</v>
       </c>
       <c r="J52" t="s">
-        <v>358</v>
+        <v>409</v>
       </c>
       <c r="K52" t="s">
-        <v>359</v>
+        <v>410</v>
       </c>
       <c r="L52" t="s">
-        <v>360</v>
+        <v>411</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="O52" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -4938,56 +5316,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>362</v>
+        <v>413</v>
       </c>
       <c r="X52" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="Y52" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>54423</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>173933</v>
+      </c>
+      <c r="C53" t="s">
+        <v>416</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>366</v>
+        <v>418</v>
       </c>
       <c r="J53" t="s">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="K53" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="L53" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="O53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5001,56 +5383,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="X53" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="Y53" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>54423</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>173934</v>
+      </c>
+      <c r="C54" t="s">
+        <v>426</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="J54" t="s">
-        <v>376</v>
+        <v>429</v>
       </c>
       <c r="K54" t="s">
-        <v>377</v>
+        <v>430</v>
       </c>
       <c r="L54" t="s">
-        <v>378</v>
+        <v>431</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="O54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5072,56 +5458,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="X54" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="Y54" t="s">
-        <v>380</v>
+        <v>433</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>54423</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>173935</v>
+      </c>
+      <c r="C55" t="s">
+        <v>434</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="J55" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="K55" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="L55" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="O55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5133,56 +5523,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="X55" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="Y55" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>54423</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>173936</v>
+      </c>
+      <c r="C56" t="s">
+        <v>442</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="J56" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
       <c r="K56" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="L56" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="O56" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -5204,56 +5598,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="X56" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="Y56" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>54423</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>173937</v>
+      </c>
+      <c r="C57" t="s">
+        <v>450</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>395</v>
+        <v>451</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>396</v>
+        <v>452</v>
       </c>
       <c r="J57" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="K57" t="s">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="L57" t="s">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="O57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5275,56 +5673,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="X57" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="Y57" t="s">
-        <v>401</v>
+        <v>457</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>54423</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>173938</v>
+      </c>
+      <c r="C58" t="s">
+        <v>458</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="J58" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="K58" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="L58" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="O58" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="P58" t="n">
         <v>2</v>
@@ -5346,47 +5748,51 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="X58" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="Y58" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>54423</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>173939</v>
+      </c>
+      <c r="C59" t="s">
+        <v>466</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>409</v>
+        <v>467</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>410</v>
+        <v>468</v>
       </c>
       <c r="J59" t="s">
-        <v>411</v>
+        <v>469</v>
       </c>
       <c r="K59" t="s">
-        <v>412</v>
+        <v>470</v>
       </c>
       <c r="L59" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
@@ -5405,7 +5811,7 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_613.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_613.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="656">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,81 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Saundy R</t>
-  </si>
-  <si>
-    <t>06/16/2018</t>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r606885779-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>55902</t>
+  </si>
+  <si>
+    <t>578443</t>
+  </si>
+  <si>
+    <t>606885779</t>
+  </si>
+  <si>
+    <t>08/15/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Spending a few days playing golf in this small town. Friendly staff. More than enough area in the room. Had a couch that made it nice. Also mini fridge. Bed is comfortable and a/c definitely blows cold. Breakfast is your basics, nothing fancy. Lots of amenities on site including an Indoor pool, workout room, reading room. Definitely recommend a stay here.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r585417700-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>585417700</t>
+  </si>
+  <si>
+    <t>06/05/2018</t>
+  </si>
+  <si>
+    <t>Smelled like cigarette smoke, cloudy pool</t>
+  </si>
+  <si>
+    <t>We got a non-smoking room for one night while in Glen Rose with family. Both the hallway and the hotel room itself smelled of stale cigarette smoke. They also had air freshener plug ins in the hallway to try to mask the smell, but it was so strong that it was hard to mask. My sister in law had the same thoughts that we did regarding the cigarette smoke smell. When we left, my 11 month old's hair smelled of smoke - and no one in our family smokes!In addition, the pool was also absolutely disgusting. The water was so cloudy that you could not see the bottom, and you could barely see the steps that went down into the pool. My mother in law complained and they said the pool cleaner guy was on his way, although that didn't do us any good because we were set to leave the next morning. This was a huge disappointment as the pool was the reason we chose to stay at this hotel.There is a complimentary breakfast, but my mother in law had to tell the hotel staff at least two different times that they needed to refill the bacon and eggs since he was not monitoring it.We will never stay at this hotel again. It was a very big disappointment.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We got a non-smoking room for one night while in Glen Rose with family. Both the hallway and the hotel room itself smelled of stale cigarette smoke. They also had air freshener plug ins in the hallway to try to mask the smell, but it was so strong that it was hard to mask. My sister in law had the same thoughts that we did regarding the cigarette smoke smell. When we left, my 11 month old's hair smelled of smoke - and no one in our family smokes!In addition, the pool was also absolutely disgusting. The water was so cloudy that you could not see the bottom, and you could barely see the steps that went down into the pool. My mother in law complained and they said the pool cleaner guy was on his way, although that didn't do us any good because we were set to leave the next morning. This was a huge disappointment as the pool was the reason we chose to stay at this hotel.There is a complimentary breakfast, but my mother in law had to tell the hotel staff at least two different times that they needed to refill the bacon and eggs since he was not monitoring it.We will never stay at this hotel again. It was a very big disappointment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r576837369-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>576837369</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Clean and could nvenient</t>
+  </si>
+  <si>
+    <t>Close to everything. Glen Rose is a quaint , small town. Motel is located close to your choice of fast food, or n it so fast food. Indoor pool and a handsome young man at the desk who was very helpful with local information.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r558696003-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
-    <t>55902</t>
-  </si>
-  <si>
-    <t>578443</t>
-  </si>
-  <si>
     <t>558696003</t>
   </si>
   <si>
@@ -177,12 +237,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>nachodiego</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r558379169-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -199,9 +253,6 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>MNFamilyAdventurers</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r557348772-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
@@ -233,7 +284,40 @@
 As mentioned the staff was helpful but...This is our second stay at the Quality Inn. Would not have rebooked it if I did not think it was a decent property.  The second time around was a little different from our first stay.The rooms are large and clean for the most part and the staff is friendly and helpful.  The bathroom in our room had a couple of issues.  The faucet in the sink dripped unless you fiddled around with the handle and found the perfect spot. Somewhat annoying.  On our fourth and last day there was no hot water in the shower. I'm not really much for cold showers. We mentioned it to hotel staff and they seemed concerned but I'm not sure what was done since we then checked out. The free continental breakfast was not as good as the first time we stayed here. The yogurt was two weeks outdated and the eggs were luke-warm at best. Not sure what was up with the waffle batter this time - the two times I tried to make a waffle it broke in half when opening the waffle iron and crumbled into small uneatable pieces when trying to get it out of the iron. Staff remade new batter but with the same cooking result. Other breakfast options, small muffins and pastries, did not seem fresh and there is no wheat option of any kind in the bread department.As mentioned the staff was helpful but overall I felt the property was declining. It is less expensive then the other nearby properties so if you're on a budget I guess this would be a good option. Unfortunately, I don't believe we will be staying here again.More</t>
   </si>
   <si>
-    <t>slhagins2</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r532491245-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>532491245</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>paper thin walls and service</t>
+  </si>
+  <si>
+    <t>Clean, simple, large rooms. 1st floor hallway smelled like smoke. Mini-fridge made noises at night, toilet ran too long part of the time, walls thin- could hear people moving around and talking in nearby rooms. Front desk check-in service was as thin as the walls, no greeting upon check-in- person was on her cellphone every time we saw her. no welcoming or greeting after checking us in at all. Never looked up or smiled when we passed by. Same with other front desk agents- service is lacking. Breakfast was crowded and mundane, trash overflowing.  wouldn't stay here again.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r505084924-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>505084924</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Manager was outstanding!</t>
+  </si>
+  <si>
+    <t>Clean room, good breakfast. Staff was friendly and helpful. The manager knows his job and was very helpful. We were very pleased with our stay here. The indoor pool was nice, saved us from getting sunburned and kept the kids busy until bedtime.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r482736118-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
@@ -254,9 +338,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t>Sarah L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r478407038-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -272,15 +353,9 @@
     <t>I read a few of the negative reviews prior to booking here and figured there was some exaggeration to the complaints. Nope! The carpet in my room was so sticky, my foot made an audible sound as it lifted off the floor. The hotel smelled overwhelmingly of stale smoke. The light in the bathroom was burned out, and the water pressure dropped down to almost nothing multiple times during my shower. The TV was so pixilated that I gave up and watched something on my phone. The beds were hard and cheap with the ratty, torn box springs exposed. There were several large stains on the desk chair. The breakfast was limited, but it was passable. Overall, I will do my best to avoid this place in the future.MoreShow less</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
     <t>I read a few of the negative reviews prior to booking here and figured there was some exaggeration to the complaints. Nope! The carpet in my room was so sticky, my foot made an audible sound as it lifted off the floor. The hotel smelled overwhelmingly of stale smoke. The light in the bathroom was burned out, and the water pressure dropped down to almost nothing multiple times during my shower. The TV was so pixilated that I gave up and watched something on my phone. The beds were hard and cheap with the ratty, torn box springs exposed. There were several large stains on the desk chair. The breakfast was limited, but it was passable. Overall, I will do my best to avoid this place in the future.More</t>
   </si>
   <si>
-    <t>Terri H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r473211171-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -305,7 +380,34 @@
     <t>In reading some of the other reviews, I was a little skeptical about staying here.  But the price was "right" since we had been in another town the night before and spent more than usual on an upgraded room so I took a chance on this hotel.  I didn't experience any of the problems others have.  From the outside it looks VERY new but the inside is not.  Yes, obviously it's an older hotel but ALL hotels can't be brand new everywhere you go.  It didn't smell bad to me at all, bathrooms were clean, beds were clean, rooms were clean, check-in took less than five minutes and very efficient, breakfast was good and well stocked.  BEST part for me was the room stayed cool enough ALL night.  I usually have problems with that in other hotels so I really enjoyed that.  Only problem we had was the cable didn't work on the TV when we got there.  The lady at the front desk came in our room and checked/fixed it and never had any other issues.  Fairly close to town.  I would stay here again if ever in the area.  Go to the bar/grill called Hollywood &amp; Vine downtown.  Really cool place and great bar food/cold beer!More</t>
   </si>
   <si>
-    <t>Sheryl S</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r471441893-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>471441893</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>NO CANCELLATION POLICY ONLINE-- REFUSED TO GIVE MONEY BACK</t>
+  </si>
+  <si>
+    <t>I made a reservation thru Expedia for Quality Inn.  There is no cancellation policy anywhere on their Internet site.  I called four days in advance to cancel the room when I found out my son's mountain biking race had been cancelled due to weather.  Quality Inn refused to give me my money back.   I am disgusted with the customer service with both Expedia and Quality Inn.  I will make sure to avoid both companies in the future.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r470401045-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>470401045</t>
+  </si>
+  <si>
+    <t>03/26/2017</t>
+  </si>
+  <si>
+    <t>Fantastic Stay!</t>
+  </si>
+  <si>
+    <t>Can't ask for better service and perks for the price.  This hotel is well located if you are going to visit any of the various attractions in town.  Well kept place, very clean, with excellent beds and linen. The hotel offers a nice hot breakfast and the staff could not be more helpful. Another great perk is their swimming pool, loved it's lighting and the temperature was as good as it gets! Can't wait to return!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r468760983-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
@@ -326,9 +428,6 @@
     <t>Dirty, old and unpleasant hotel. The hotel had a moldy odor. Check in took over 30 minutes with only one person in front of us.  Beds had no skirt on bottom just bare mattress. No comforter just a very thin blanket. Pillows had black moldy spots on them. AC would not turn off using controls had to unplug. Bathroom was in need of update. Toilet paper holder was rusted and pitted. Tub had black caulking instead of white. Beds were hard and lumpy. There were only 5 tables in the breakfast area so we had to take our food elsewhere to eat. Breakfast was not restocked well. I took the last sausage at around 8am and they never put any more out even though breakfast was open until 9. Eggs were dry and awful. Front desk was slow and unwelcoming. They never smiled or greeted us kindly. Never thanked me for being an elite gold member. I booked this hotel for the indoor pool which was closed for cleaning during the evening until 830pm.  At 830 it opened but it is very small and was soon too overcrowded with kids and unsafe for younger kids. I would not recommend this hotel. It needs renovated, deep cleaned, deodorized, new beds and linens, new ac units. Also there was a camera installed on the top of the tv which was a bit unnerving. More</t>
   </si>
   <si>
-    <t>Lalo_de_Mexico</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r441007895-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -347,9 +446,6 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t>Michelle P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r432802022-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -365,7 +461,37 @@
     <t xml:space="preserve">We have stayed at several of these chains. We have been very pleased with all of them. The rooms are clean and good size, breakfast is great, the staff friendly, and there is always coffee water and snacks available. Pool area is very nice as well. Oh bed are comfy too!!  </t>
   </si>
   <si>
-    <t>Kristen D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r426650100-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>426650100</t>
+  </si>
+  <si>
+    <t>10/10/2016</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>Our 1st visit to Glen Rose and decided to stay at the Quality Inn. Very convenient location, hotel is up to date and very clean, indoor pool and hot tub was very nice, check in employees were very friendly and efficient. Breakfast was ok - just your basics. We will stay again whenever we come back to Glen Rose.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r425995700-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>425995700</t>
+  </si>
+  <si>
+    <t>10/07/2016</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>This place is nice might need a little work on carpets also second floor squeaks when you walk on it. Check in was fast and courteous. Breakfast was also given.Indoor pool was great. This is a great location for all this city has to offer.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r423539041-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
@@ -386,9 +512,6 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t>BDS62</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r417691904-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -404,12 +527,6 @@
     <t xml:space="preserve">I stayed one night while on a motorcycle trip and had a great time!  The facility is next to a Sonic which is very convenient.  The place has a nice indoor pool and free breakfast.   Clean room and the bathroom was very nice. Recommended while in Glen Rose, Texas. </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>Donna H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r414561522-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -425,7 +542,40 @@
     <t>The hotel was not as bad as the reviews. Plenty of food at 730. The hotel had an employee keep the food and coffee supplied. The air was very cool. The manager had to fix the tv the previous guess had undone all the cables for games I guess. Staff friendly .Did have trouble with wifi. I would stay again.</t>
   </si>
   <si>
-    <t>bbh56260</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r413305910-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>413305910</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>Clean and Relaxing</t>
+  </si>
+  <si>
+    <t>The Hotel employees are so professional and accommodating and extremely friendly.  Very clean and nice place to stay.  Have stayed here before and this is where I will stay when I am in Glen Rose.  Close to all eating establishments.  Very quite and relaxing location.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r401819692-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>401819692</t>
+  </si>
+  <si>
+    <t>08/05/2016</t>
+  </si>
+  <si>
+    <t>Love it every time I stay there</t>
+  </si>
+  <si>
+    <t>Even with the new management the stay was excellent, love the breakfast, it has a little bit of everything. The indoor pool and jacuzzi are a delight as well. The gym was also a much added plus to my stays. Mike was the manager this time and he was very friendly and helpful. I would definitely recommend this to anyone</t>
+  </si>
+  <si>
+    <t>July 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r391513360-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
@@ -446,9 +596,6 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t>Scott H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r377431706-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -467,9 +614,6 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t>Carla R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r373941362-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -485,7 +629,37 @@
     <t>It was better than I imagined it would be!  I certainly recommend this Quality Inn &amp; Suites to anyone to stay at. Very affordable, comfortable,  and great service.  I just loved the indoor pool and Jacuzzi.  The breakfast was so awesome as well. There was so many food options to choose from.  It was a terrific 3 night stay!  Will definitely stay in this motel if we vacation through Glen Rose again!</t>
   </si>
   <si>
-    <t>Anthony H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r368800480-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>368800480</t>
+  </si>
+  <si>
+    <t>04/29/2016</t>
+  </si>
+  <si>
+    <t>Awesome for the price!</t>
+  </si>
+  <si>
+    <t>We had a room with two queen beds. There was a fridge and microwave in the room. The shower was amazing. The air conditioner worked well. It wasn't too hot or too cold. The hotel was clean and quiet. There was a wide variety of food for breakfast including waffles that were very yummy! We enjoyed our stay!</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r364035741-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>364035741</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>Smoke in the hall way, otherwise o.k.</t>
+  </si>
+  <si>
+    <t>I didn't like the smoker's "parfume", breakfast was the usual junk food, otherwise everything was o.k.: Kingsized bed was really king sized, mattress  was good, it was clean, rate was relatively cheap.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r356774703-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
@@ -506,9 +680,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>176eddy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r356451222-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -527,9 +698,6 @@
     <t>Chose it because of location, value, and positive reviews. Staff is nice. Pool is nice but small. Furnishings are ok. Bed and pillows uncomfortable. Sheets were okay but beds had no skirts. You could see the box springs...very cheep looking. Bathroom okay with good pressure but tub faucet dripped. Online photos are misleading in the size of the place. Pool and breakfast area are very small. Breakfast waffles and coffee are good. Eggs were not. It was okay for our first trip to Glen Rose but wish we would've stayed elsewhere.  When we come back we will each go camping or choose one of the other hotels we saw in town.More</t>
   </si>
   <si>
-    <t>Paul C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r340546494-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -548,7 +716,40 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>Jarred H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r296977297-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>296977297</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>Leisure</t>
+  </si>
+  <si>
+    <t>The room was good size bed was comfortable staff was friendly but the room we were in had problems with the toilet not working had staff fix twice and then staff advised my new Husband how to fix it if anymore problems with it. I'm sorry but we weren't there to fix maintenance problems and got no apologies for the inconvenience but you get what you pay for! Sincerely Newlyweds. P.S. if you're staying in Room 109 hopefully next person will have better luck we will pay a little more for nicer hotel from now on.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r293060046-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>293060046</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>Ok stay</t>
+  </si>
+  <si>
+    <t>We were in town last weekend from Wisconsin visiting family. The stay itself was pretty good. Only real complaint is the clerk on duty during our check in Fri night sure didn't seem to want to be there. Not friendly at all. Just left a bad first impression of your hotel. Other than that, everything else was fine. The daytime clerk was much more friendly and suggested places to visit and things to do while in the area.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r292173436-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
@@ -566,12 +767,6 @@
     <t>We used "Sam's Club" to reserve our room. Then once we get here they tell us that all they have for us is a smoking room. They then tell us that we can go to the dollar general down the street to get air fresheners. My son has asthma and they were strong arming us to pay $10 more a night to not be in a smoking room. Once we moved to a NON-smoking room the room smelt of VERY strong mildew. *in short-smoking floor-they don't work with you-dirty and unfriendlyHorrible place and I will NEVER recommend anyone to this place.</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
-    <t>Karin D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r288800688-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -587,9 +782,6 @@
     <t>The front desk clerk and the maintenance man (maybe husband and wife) were hard-working and eager to please. The hotel itself had a smell between syrup and tanning bed salon that was hard to get past. Indoor pool was murky, which was a little gross. Breakfast was free, but not a lot of choices. Our room was near the main road, which was very noisy.</t>
   </si>
   <si>
-    <t>colleenmerkle</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r287376554-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -605,7 +797,43 @@
     <t xml:space="preserve">Very clean great stay tv a little small for room size beds comfortable very affordable compared to prices of other hotels in glen rose great staff would deffinatly stay there again continental breakfast quits real early so didnt get to try that but was told by the clerk where to find an awesome breakfast in glenrose </t>
   </si>
   <si>
-    <t>riderlady</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r278486073-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>278486073</t>
+  </si>
+  <si>
+    <t>06/07/2015</t>
+  </si>
+  <si>
+    <t>Don't Expect Friendly Desk Check-in</t>
+  </si>
+  <si>
+    <t>I'm a Choice Privileges member but forgot my card. I told the desk clerk the same and asked if she could help look up my account number. Her exact words were "I don't know anything about that". She took my Credit Card and ID, checked us in, never saying another word, then slid my room keys to me and turned away with it telling me the room or directions. Plenty of other local hotels to choose from.  I will NEVER return to this one with staff like that.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r276031420-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>276031420</t>
+  </si>
+  <si>
+    <t>05/31/2015</t>
+  </si>
+  <si>
+    <t>Decent stay</t>
+  </si>
+  <si>
+    <t>We asked for a handicapped room &amp; were surprised that all handicapped rooms are on the 2nd floor. Ice machines &amp; breakfast are all on first floor. Our room was good sized &amp; was easy for my husband to maneuver. Nice bars in the tub. The room did not have a clean pleasant smell as the rest of the hotel did. All in all, it was an enjoyable stay. Staff were pleasant but not overly friendly or helpful unless you asked questions.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r275404083-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
@@ -629,9 +857,6 @@
     <t>The staff was understaffed due to a management problem and what staff they did have was not very courteous to their customers. It started off with the person checking us in was overwhelmed with too many people waiting to check in but wouldn't bother her manager that she needed help. She acted as though he might be upset if she did. So we all had to be patient and wait for a very long time. Once checked in then we went to our room and it smelled like cigarette smoke. I immediately went down to talk to the person at the front desk and was told the only the rooms that they had were smoking rooms and that the room I was in was a non-smoking room. So there were no accommodations made to help with any request. That evening in our room I smelled fresh cigarette smoke and figured it had to be coming from somewhere but we had our own a/c unit in our room. Well the next morning after we checked out (oh that was another interesting ordeal as well) I walked outside and saw why there was the smell in our room. The smokers were down below our room as the hotel placed ashtrays for their cleaning staff and others right outside the front door as you walked out and it turned out our bedroom was right above the smoking area. I wasn't happy about that....The staff was understaffed due to a management problem and what staff they did have was not very courteous to their customers. It started off with the person checking us in was overwhelmed with too many people waiting to check in but wouldn't bother her manager that she needed help. She acted as though he might be upset if she did. So we all had to be patient and wait for a very long time. Once checked in then we went to our room and it smelled like cigarette smoke. I immediately went down to talk to the person at the front desk and was told the only the rooms that they had were smoking rooms and that the room I was in was a non-smoking room. So there were no accommodations made to help with any request. That evening in our room I smelled fresh cigarette smoke and figured it had to be coming from somewhere but we had our own a/c unit in our room. Well the next morning after we checked out (oh that was another interesting ordeal as well) I walked outside and saw why there was the smell in our room. The smokers were down below our room as the hotel placed ashtrays for their cleaning staff and others right outside the front door as you walked out and it turned out our bedroom was right above the smoking area. I wasn't happy about that. I brought this to the attention of the manager, who really seemed to care less, and he then became defensive and basically asked me "where was I suppose to move it? They won't go out to the field to smoke, so no I'm not going to move it." So apparently they were more worried about keeping their staff happy then their customers. When we had checked in to the hotel we had told them that we each were sharing the cost of our room. I was told that we could take care of that in the morning. Before I had a chance to check out one of my friends told me that they refused to split the room charges that it had already been charged to their card and it would be difficult to give a refund. That it would take several days for it to be credit back to their card. I refused this excuse. So when I checked out I told the person at the front desk that we would be splitting it. She started explaining why she couldn't. It so happened that the so-called manager was standing there and he told her how to do it. I explained that we were told that we could when we checked in. Then they blamed the girl who checked us in for all the mistakes. It was like totally unbelievable. Nope I won't be back. I've already told the GM of the hotel and Choice Hotels. I will not recommend that hotel either to anyone. My expectations were totally deflated by the staff. Definitely not a biker friendly hotel either.More</t>
   </si>
   <si>
-    <t>cheetahguy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r269163129-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -647,9 +872,6 @@
     <t>Quite nice for a budget hotel. All interior corridors. Small indoor pool and Jacuzzi. Laundry room with a single washer and dryer. Breakfast was decent - about the norm for these budget chain hotels (but no instant oatmeal as I like). Small refrigerator and microwave in room. Sink is outside bathroom so someone can use it while other person is using toilet or shower. I would stay here again if I was in the area.</t>
   </si>
   <si>
-    <t>Amber K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r260246506-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -671,7 +893,34 @@
     <t>I rented two rooms for a family trip during spring break.  Rooms were pretty average, but had everything we needed. A plus is the mini fridge which is nice when you've got kids.  The best feature for the kids is the indoor pool and hot tub. There is also a decent breakfast included, but they ran out if several items before the breakfast time was up, so I suggest showing up early.  There were lots of families with children, so we felt right at home.  There was a bit of mildew in the tub area and the tub had a slow drain, but overall the room and property was clean.  This property is close to the Glen Rose attractions.  For the price, this was a good value and I would recommend it.More</t>
   </si>
   <si>
-    <t>David Q</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r259670077-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>259670077</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t>Kids are special</t>
+  </si>
+  <si>
+    <t>We brought our 2 grandson to Glen Rose for Spring Break. Upon arriving they were given rocket launchers (foam) and balloons to play with in the pool. Coffee, ice water and cookies were in the lobby day &amp; night for all to enjoy.  The staff was so friendly, helpful and just plain nice.  Our rooms were clean and the beds were super comfortable. The boys had so much fun they asked to stay an extra night (Mostly to swim).</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r259319710-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>259319710</t>
+  </si>
+  <si>
+    <t>03/13/2015</t>
+  </si>
+  <si>
+    <t>Perfect!</t>
+  </si>
+  <si>
+    <t>Perfect family hotel! The free breakfast included goyurt for kids! The pool is 3', 4', and 5' again perfect for kids and they had guest towels at pool side! Every employee was super friendly &amp; helpful. We had a wonderful two night visit.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r254271428-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
@@ -695,9 +944,6 @@
     <t>This place is awesome. After being on the road for 3weeks we had some scary experiences. We walked in here and were awed. Beautiful lobby, large breakfast room, heated indoor pool and hot tub, nicely decorated large rooms.  Clean,clean,clean. And did I mention the friendly and helpful staff? We liked it so well we stayed an extra day! Lots to do here. We hiked Dinosaur Valley state park..saw many dinosaur fossil tracks. Also drove Fossil Rim wildlife center...a three hour drive through with many species of African and exotic animals that you can hand feed with food provided.It was a memorable stay and we will be back!     Barb and Dave Q.More</t>
   </si>
   <si>
-    <t>Kim L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r251792676-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -716,9 +962,6 @@
     <t>December 2014</t>
   </si>
   <si>
-    <t>741carolem</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r247788798-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -737,7 +980,40 @@
     <t>January 2015</t>
   </si>
   <si>
-    <t>toballou</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r239356861-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>239356861</t>
+  </si>
+  <si>
+    <t>11/11/2014</t>
+  </si>
+  <si>
+    <t>FANTASTIC stay at Glenn Rose Quality Inn &amp; Suites</t>
+  </si>
+  <si>
+    <t>This place is a dream come true.  Clean, Neat, wonderful.....to FANTASTIC STAFF. Great breakfast, you could not ask for more.  They bend over backwards to meet all your needs.I would NEVER stay at anothr place.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r236184070-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>236184070</t>
+  </si>
+  <si>
+    <t>10/25/2014</t>
+  </si>
+  <si>
+    <t>Quality &amp; Value</t>
+  </si>
+  <si>
+    <t>Every year I bring 12 guys in our golf group to Glen Rose to play golf.  I have booked rooms at this hotel for many years.  I can't say enough about the staff.  Everyone on shift has been friendly, efficient and very accommodating.  The manager Terry Dale has made sure that we are taken care of.  The rooms are very clean and comfortable ,with a small refrigerator and microwave in each room......just perfect for a bunch of golf nuts on the road.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r230959521-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
@@ -758,9 +1034,6 @@
     <t>August 2014</t>
   </si>
   <si>
-    <t>jjkabilene</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r227360078-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -785,9 +1058,6 @@
     <t>Terribly unacceptable. To start, the smell!!!! Its stinks makes with glades an carpet powder. Couldnt breath so strong. Sheets stained and wholes in them. The flag was so torn. It was disrespectful. Pure lazy. We left, got hotel hotel down the street.Used to be a great place not no moreMore</t>
   </si>
   <si>
-    <t>Tyler B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r219789157-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -803,7 +1073,43 @@
     <t>I recently stayed here for a weekend trip.  Really nice hotel, clean, food was good, staff was friendly and helpful.Suggested we went to a local place for dinner.  WOW, what great food, but that's for a different review.Would recommend this place for anyone headed out to the State Park, or other local attractions.</t>
   </si>
   <si>
-    <t>Thullraven</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r215815178-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>215815178</t>
+  </si>
+  <si>
+    <t>07/16/2014</t>
+  </si>
+  <si>
+    <t>Great cheapie motel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is an affordable motel, so adjust your expectations accordingly. But it's perfectly clean (except for an unfortunate smoky smell coming from the carpet all along the second floor corridor, yuck). But the room itself was very clean. And the staff were helpful. And, as I say, it's good value. </t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r207318908-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>207318908</t>
+  </si>
+  <si>
+    <t>05/27/2014</t>
+  </si>
+  <si>
+    <t>Good Hotel for a Budget</t>
+  </si>
+  <si>
+    <t>The location is pretty good, the breakfast is good for a continental breakfast, there were several types of pastries, you can make your own Texas shaped waffles, there are several types of dry cereals, plus boiled eggs and sausage. Breakfast  ends at 9, earlier than some other hotels,  so be sure and get to the breakfast room  before then. The beds are made up with sheets, they don't have bedspreads or comforters, and there are no extra blankets in the room. I asked for a blanket at the desk and was told there were no more. There is an indoor pool and spa, both a bit small but fine for indoors. It has a children's room right next to the pool. They have cable tv,  it is the older flat screens,  not plasma, but it worked just fine. They also have free wi fi. The beds in our room were on the firm side. It was  a good stay for an inexpensive hotel. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>The location is pretty good, the breakfast is good for a continental breakfast, there were several types of pastries, you can make your own Texas shaped waffles, there are several types of dry cereals, plus boiled eggs and sausage. Breakfast  ends at 9, earlier than some other hotels,  so be sure and get to the breakfast room  before then. The beds are made up with sheets, they don't have bedspreads or comforters, and there are no extra blankets in the room. I asked for a blanket at the desk and was told there were no more. There is an indoor pool and spa, both a bit small but fine for indoors. It has a children's room right next to the pool. They have cable tv,  it is the older flat screens,  not plasma, but it worked just fine. They also have free wi fi. The beds in our room were on the firm side. It was  a good stay for an inexpensive hotel. I would stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r206082307-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
@@ -827,9 +1133,6 @@
     <t>I was here one night with my wife and daughter. The price was very reasonable. The rooms was good sized and comfortable, except that there were two lights that weren't working,and the AC unit wouldn't turn off even on the "Stop" setting. The unit itself works great. The man person on duty during the day, I believe his name is Terry, was fantastic and was very informative and helpful. There is an indoor pool and hot tub, which I loved until a couple of teenage boys came and decided to jump and dive in the pool and splash all over the place. Then one of them decided to turn off the hot tub I was in at the time and I turned it back on and told him not to do that again, and he didn't. That said, I had been there awhile and since my peaceful time was now gone, I went back to my room. I don't blame the hotel for them, however. That's poor parenting. The next morning, we went to the breakfast. I wasn't doing so well with the waffle maker and didn't flip it when the timer went off. In my defense, I was half asleep. Anyway, the girl on duty was a bit rude when getting on to me about it. Granted, I was wrong to take so long, but she was rude enough that my wife felt compelled to say something. If not...I was here one night with my wife and daughter. The price was very reasonable. The rooms was good sized and comfortable, except that there were two lights that weren't working,and the AC unit wouldn't turn off even on the "Stop" setting. The unit itself works great. The man person on duty during the day, I believe his name is Terry, was fantastic and was very informative and helpful. There is an indoor pool and hot tub, which I loved until a couple of teenage boys came and decided to jump and dive in the pool and splash all over the place. Then one of them decided to turn off the hot tub I was in at the time and I turned it back on and told him not to do that again, and he didn't. That said, I had been there awhile and since my peaceful time was now gone, I went back to my room. I don't blame the hotel for them, however. That's poor parenting. The next morning, we went to the breakfast. I wasn't doing so well with the waffle maker and didn't flip it when the timer went off. In my defense, I was half asleep. Anyway, the girl on duty was a bit rude when getting on to me about it. Granted, I was wrong to take so long, but she was rude enough that my wife felt compelled to say something. If not for the negatives, this would have gotten at least four stars from me. Anyway, I'm a Choice Hotel Member, but will most likely stay somewhere else next time I come here.More</t>
   </si>
   <si>
-    <t>Entrekin</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r196633408-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -851,9 +1154,6 @@
     <t>We stayed here before a morning trip to nearby Fossil Rim, and it was just what we needed. Not a 5-star resort by any stretch - but a safe, convenient, and affordable place to stay. Our room was clean. The indoor pool is a bit small, but it was fine for our family. The staff was pleasant and generally helpful. The included breakfast was pretty typical fare - cereal, fruit, breads, and Texas-shaped waffles. Parking was well-lit and convenient. The only things we didn't care for were the lack of extra pillows for the king-size bed (there were only two, and no more were available even after asking at the front desk) and the taste of the tap water (which is more a local issue than one specific to the hotel).More</t>
   </si>
   <si>
-    <t>Yeezy_cj</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r192789729-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -869,7 +1169,49 @@
     <t xml:space="preserve">I stayed at this hotel for a few days at the end of Jan 2014 with my wife and kids. Rooms are very large and extremely comfortable. Breakfast was great in the mornings and the staff were helpful. We were very unfamiliar with the area so they were extremely helpful with directions. We will be back next year!  </t>
   </si>
   <si>
-    <t>visionbysharee</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r189144314-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>189144314</t>
+  </si>
+  <si>
+    <t>12/31/2013</t>
+  </si>
+  <si>
+    <t>Its OK</t>
+  </si>
+  <si>
+    <t>This is an older hotel in town but the day Manager is so friendly, he even will make you a waffle for breakfast. many hotel stay under my belt and have never seen a manager so friendly and nice. This is what hotel service should be in all the USA.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r186383983-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>186383983</t>
+  </si>
+  <si>
+    <t>11/30/2013</t>
+  </si>
+  <si>
+    <t>Great, Afforadable place to stay in Glen Rose</t>
+  </si>
+  <si>
+    <t>This is our second year staying at the ABV Inn in Glen Rose. It's a basic hotel for a great price. The staff is great, and the manager is amazing!! We will continue to stay here anytime we are in Glen Rose.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Jason P, Owner at Quality Inn &amp; Suites, responded to this reviewResponded December 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2013</t>
+  </si>
+  <si>
+    <t>This is our second year staying at the ABV Inn in Glen Rose. It's a basic hotel for a great price. The staff is great, and the manager is amazing!! We will continue to stay here anytime we are in Glen Rose.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r185810600-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
@@ -887,18 +1229,9 @@
     <t>Believe it or not, my husband and I decided to Honeymoon in Glen Rose, Tx. After tediously comparing rates at other local bed and breakfasts, we decided to stay at ABV due to the price. I am glad we did. The hospitality and service we received here was like nothing I've ever seen before. When I return to the area, I will definitely stay here again-no questions asked.MoreShow less</t>
   </si>
   <si>
-    <t>Jason P, Owner at Quality Inn &amp; Suites, responded to this reviewResponded December 9, 2013</t>
-  </si>
-  <si>
-    <t>Responded December 9, 2013</t>
-  </si>
-  <si>
     <t>Believe it or not, my husband and I decided to Honeymoon in Glen Rose, Tx. After tediously comparing rates at other local bed and breakfasts, we decided to stay at ABV due to the price. I am glad we did. The hospitality and service we received here was like nothing I've ever seen before. When I return to the area, I will definitely stay here again-no questions asked.More</t>
   </si>
   <si>
-    <t>Peter d</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r183111069-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -920,9 +1253,6 @@
     <t>I had met Terry, the manager, on a previous trip while passing through town.  I knew I would be bringing the guys up for a golf outing and needed to find a nice clean place to stay.  Terry showed me what the rooms were like and told me to call him when we needed to stay.  We just finished our second golf trip with the guys to Glen Rose, TX, and Terry and his staff could not have been nicer to us.  It is truly a great value, plus clean and friendly to boot!  Y'all should stop in and try it.More</t>
   </si>
   <si>
-    <t>lbelmore</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r179769686-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -947,7 +1277,43 @@
     <t>This was my first time to stay at any Americas Best Value Inn &amp; Suites. Although I was apprehensive, I relied on some good reviews on tripadvisor. I was very pleased and relieved. The hotel was great, clean, spacious, comfortable, and efficient. The manager is truly a people person with a fantastic personality. He loves children. One of the friendliest helpful managers ever. He went out of his way to welcome us. The pool was cold the first day. When we mentioned it, he made sure it was super warm for us the next day...awesome. I think he said his name was Terry, but my memory may be wrong. You won't have a great breakfast, but you will be treated to a great waffle, fruit, cereal and variety of breads. I highly recommend this place. Indoor pool, super low price. enjoyed our stay immensely.More</t>
   </si>
   <si>
-    <t>mydonna</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r179509478-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>179509478</t>
+  </si>
+  <si>
+    <t>10/02/2013</t>
+  </si>
+  <si>
+    <t>Excellent hotel and very charming town!</t>
+  </si>
+  <si>
+    <t>I had a very pleasant stay at this hotel! I chose this hotel because it looked nice in the pictures and had a very low rate compared to other hotels in the area that looked the same. Everything exceeded my expectations.  The room was immaculately clean and they have a very good tv package with movies. My kids liked the indoor pool and the hot tub. I have heard great things about Glen Rose and checked out the town for mini vacation with my family. We had a great time in this charming town. The next time we visit we will stay at this hotel for sure!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>I had a very pleasant stay at this hotel! I chose this hotel because it looked nice in the pictures and had a very low rate compared to other hotels in the area that looked the same. Everything exceeded my expectations.  The room was immaculately clean and they have a very good tv package with movies. My kids liked the indoor pool and the hot tub. I have heard great things about Glen Rose and checked out the town for mini vacation with my family. We had a great time in this charming town. The next time we visit we will stay at this hotel for sure!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r175302603-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>175302603</t>
+  </si>
+  <si>
+    <t>09/02/2013</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>The front desk staff were friendly and helpful.  Expedia price online does not include the hotel tax and pet fee.  Thank goodness for luggage cart too.  Lobby has TV and seating area. Noticed as exiting elevator a smell in the hallway on second floor.  Smelled like mixture of smoke and possibly new carpet.  Luckily the room did not smell this way.   Room was nice size and space for pack 'n play.  AC worked well.  Styrofoam and plastic cups in room for coffee but could not use them in microwave to heat water for other beverages (ie. hot chocolate and tea).  The beds and pillows were comfy.  Nice size closet.  The towels were a bit thin &amp; only had 3 bath size in room for 4 adults &amp; a toddler.  Just used the multitude of hand towels and wash cloths:)  Shower pressure not all that great but got the job done.  Noise level low on second floor.  Breakfast area large and very clean and consisted of basic cold cereal, instant oatmeal, cute large size Texas shaped waffles, fruit, juice, milk, coffee and boiled eggs.  Nice indoor pool and hot tub.  Ample parking although spaces are small for pickup trucks:)  Pricing very good compared to other area places.  Would definitely stay here again if in area.MoreShow less</t>
+  </si>
+  <si>
+    <t>The front desk staff were friendly and helpful.  Expedia price online does not include the hotel tax and pet fee.  Thank goodness for luggage cart too.  Lobby has TV and seating area. Noticed as exiting elevator a smell in the hallway on second floor.  Smelled like mixture of smoke and possibly new carpet.  Luckily the room did not smell this way.   Room was nice size and space for pack 'n play.  AC worked well.  Styrofoam and plastic cups in room for coffee but could not use them in microwave to heat water for other beverages (ie. hot chocolate and tea).  The beds and pillows were comfy.  Nice size closet.  The towels were a bit thin &amp; only had 3 bath size in room for 4 adults &amp; a toddler.  Just used the multitude of hand towels and wash cloths:)  Shower pressure not all that great but got the job done.  Noise level low on second floor.  Breakfast area large and very clean and consisted of basic cold cereal, instant oatmeal, cute large size Texas shaped waffles, fruit, juice, milk, coffee and boiled eggs.  Nice indoor pool and hot tub.  Ample parking although spaces are small for pickup trucks:)  Pricing very good compared to other area places.  Would definitely stay here again if in area.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r171416541-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
@@ -968,9 +1334,6 @@
     <t>July 2013</t>
   </si>
   <si>
-    <t>cindyp21</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r171126028-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -986,9 +1349,6 @@
     <t xml:space="preserve">So surprising for such a low-priced chain, this location is a wonderful choice.  Great sized rooms, really comfy bed, very clean in rooms and public spaces, great complementary breakfast (perfect waffles) and friendly, accommodating staff. I'd stay here again in a heartbeat and highly recommend. </t>
   </si>
   <si>
-    <t>HooksFan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r170235165-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1010,7 +1370,46 @@
     <t>Our family stayed here in June 2012.  We were located on the 1st floor and didn't have a musty/mildew odor in our room.  The in-laws also stayed here and didn't have any issues with their room.We chose this hotel over the Holiday Inn that is located up the hill because of the price.  The price difference for our three night stay would have been nearly $150.00 more.  The lobby and room were very nice and clean.  We were pleasantly surprised with the quality of the room.  We stayed in a room with two queen beds.  It was spacious and suited our family of four nicely.  The continental breakfast was adequate.  My only complaint is that I prefer to make my own waffles.  I only had one issue and that was with check-in.  I made an online reservation nearly a month out from our stay and included my Value Club Member number with the reservation.  Upon trying to check in the number wasn't on the reservation.  I was finally able to get the number after 15 minutes.  If a reservation is made through the central booking system they information should carry over.  This was our 2nd stay at this hotel.  The pool and hot tub make for a nice way to unwind for the evening.  There was no issues with the Wi-Fi.More</t>
   </si>
   <si>
-    <t>moorean6</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r169358849-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>169358849</t>
+  </si>
+  <si>
+    <t>07/27/2013</t>
+  </si>
+  <si>
+    <t>choose another hotel</t>
+  </si>
+  <si>
+    <t>We booked this hotel through the hotel website Friday July 26th at 5:00pm. We arrived at 9:25 pm and the reservations had still not been received. There was another lady in front of us who booked through price line and hers had not been received either. The lady at the front desk said until she received the FAX she could not do anything. Then she looked at our reservation confirmation and said she could book us in but it would take a little bit. It took about 30 minutes and she booked us in before the lady that went through priceline...thank goodness this time we did not use price line. The room was not cleaned the next day. Towels were still on the floor and the coffee was not refilled. The front desk said they do not clean the room on a two night stay but that they signed off in the book saying the staff refilled supplies. The hotel does have a mildew smell or something. I am not a picky hotel person and have never taken the time to write a review on a hotel but I wish I would have picked another hotel. Good luck if you choose to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jason P, Manager at Quality Inn &amp; Suites, responded to this reviewResponded July 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2013</t>
+  </si>
+  <si>
+    <t>We booked this hotel through the hotel website Friday July 26th at 5:00pm. We arrived at 9:25 pm and the reservations had still not been received. There was another lady in front of us who booked through price line and hers had not been received either. The lady at the front desk said until she received the FAX she could not do anything. Then she looked at our reservation confirmation and said she could book us in but it would take a little bit. It took about 30 minutes and she booked us in before the lady that went through priceline...thank goodness this time we did not use price line. The room was not cleaned the next day. Towels were still on the floor and the coffee was not refilled. The front desk said they do not clean the room on a two night stay but that they signed off in the book saying the staff refilled supplies. The hotel does have a mildew smell or something. I am not a picky hotel person and have never taken the time to write a review on a hotel but I wish I would have picked another hotel. Good luck if you choose to stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r169103450-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>169103450</t>
+  </si>
+  <si>
+    <t>07/25/2013</t>
+  </si>
+  <si>
+    <t>Everything was great save for the smell</t>
+  </si>
+  <si>
+    <t>Ive read a few reviews about a musty, mildew odor in this hotel.  I dont know if were all getting the same room, but our room was smelly.  we just bought some air freshener.  its coming from the ac.  my wife wouldnt let me complain to mgt bexause everything else about the room was great.  If you have upstirs guests, it can be loud.  I dont know if they were bowling uo there or what, but the sounds were horrible.  Hotel price is its saving grace.  since we were out all day looking at dino footprints or exploring the small town or the countryside or fort worth Nd surrounding areas, we only used the room for sleeping and cleaning.  I may or may not use this chain again, but for the price, three days in this hotel cost what two days at another would.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ive read a few reviews about a musty, mildew odor in this hotel.  I dont know if were all getting the same room, but our room was smelly.  we just bought some air freshener.  its coming from the ac.  my wife wouldnt let me complain to mgt bexause everything else about the room was great.  If you have upstirs guests, it can be loud.  I dont know if they were bowling uo there or what, but the sounds were horrible.  Hotel price is its saving grace.  since we were out all day looking at dino footprints or exploring the small town or the countryside or fort worth Nd surrounding areas, we only used the room for sleeping and cleaning.  I may or may not use this chain again, but for the price, three days in this hotel cost what two days at another would.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r166852259-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
@@ -1031,9 +1430,6 @@
     <t>We stayed at this hotel due to it being the lowest price (best price is as a value club member) in Glen Rose with perhaps the exception of a 1 star motel we were not sure about. We stayed in a king suite and although the room was not as big as you'd expect at a higher end hotel, it was just right for our family of 4. We had a small child and a 1 year old child- the suite provided a sleeper sofa for our child to sleep on. However, there was not room for the couch to be pulled out AND use the pack n play, but our child slept just fine on it as a sofa. Our king bed was comfortable and on the firm side, just how we like it. We did not have any trouble with the tv, microwave, fridge, a/c, bathroom, etc. The continental breakfast was better than we anticipated and have experienced at other low budget hotels in the past. There were 4 types of cereal, instant oatmeal, fresh fruit, boiled eggs, toast and bagels, and waffles which a staff member makes for you upon request. We loved not having to make our own waffles! They were good and even Texas shaped. There was milk, orange juice, and coffee to drink. The lobby was very nice and clean, the rooms were clean and cool, and the indoor pool and hot tub were...We stayed at this hotel due to it being the lowest price (best price is as a value club member) in Glen Rose with perhaps the exception of a 1 star motel we were not sure about. We stayed in a king suite and although the room was not as big as you'd expect at a higher end hotel, it was just right for our family of 4. We had a small child and a 1 year old child- the suite provided a sleeper sofa for our child to sleep on. However, there was not room for the couch to be pulled out AND use the pack n play, but our child slept just fine on it as a sofa. Our king bed was comfortable and on the firm side, just how we like it. We did not have any trouble with the tv, microwave, fridge, a/c, bathroom, etc. The continental breakfast was better than we anticipated and have experienced at other low budget hotels in the past. There were 4 types of cereal, instant oatmeal, fresh fruit, boiled eggs, toast and bagels, and waffles which a staff member makes for you upon request. We loved not having to make our own waffles! They were good and even Texas shaped. There was milk, orange juice, and coffee to drink. The lobby was very nice and clean, the rooms were clean and cool, and the indoor pool and hot tub were clean and very enjoyable. Close to attractions too, and several places to eat nearby. We did have a room on the first floor and did hear a little noise from above us, but nothing terrible that interfered with sleep or anything. We did not hear anything from the rooms next to us.More</t>
   </si>
   <si>
-    <t>wannago2HumbleTX</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r166566351-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1049,9 +1445,6 @@
     <t>We were attending a family reunion at Tres Rios recently, we were unable to get a cabin, so we booked a handicapped room.  Rates for our room was reasonable, held our breath, thinking room would be small, hot, no amenities...WRONG, spacious and very cold AC...much appreciated. With temp at 105...luv it..The manager Terry, I think so likeable, made our stay so much better...made the BEST waffles, even brought it to our table..great way to start your day, a little humor and kindness..this is our place to come back for other visits...No restaurant, just continental breakfast room.</t>
   </si>
   <si>
-    <t>texasrepublichistory</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r158099376-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1073,7 +1466,43 @@
     <t>I am surprised at the high ranking this hotel has received in the past. It is a clean, well-maintained budget hotel. But my experience included smelly halls [air fresheners stuck in all the hall outlets, but didn't help], smelly room [I had to open the window to try and air it out], a Very Firm bed, like "quilt on the floor", and hard foam pillows. The nice lady on the front desk was vague about why the Wi-Fi and TV appeared not to be working. I later found out that the TV only worked on "upper" channels and that a cable solved the internet problem. I was even told by a staff member that breakfast "wasn't much"? All together I spent an uncomfortable night. There are other much nicer places to stay in town at about the same price. Check around.More</t>
   </si>
   <si>
-    <t>Karlat25</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r157398893-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>157398893</t>
+  </si>
+  <si>
+    <t>04/11/2013</t>
+  </si>
+  <si>
+    <t>Nice Comfortable Stay</t>
+  </si>
+  <si>
+    <t>We stayed here one night to break up a car trip, and found it very comfortable.  We had a dog with us and felt safe walking her in the well-lit parking lot area.  There is a Sonic Drive-in adjacent to the property, and we also felt safe walking over to it for a late-night treat!  The room was large, clean, and nicely decorated.  If we were to visit the area for one night or an extended visit, we would definitely stay here again.  The only problem was that we stayed downstairs in a non-smoking room and could smell cigarette smoke.  We contacted the front desk to let them know and to tell them it was not us smoking, and they attempted to clear the smell right away.  Management definitely tries to stay on top of any problem, and it shows in a well-maintained property.  This is only the second Americas Best Value Inn we've stayed at, and this one was definitely nicer, and it's nicer than many of the other chain hotels/motels we've stayed at that cost much more.  We had a pleasant stay, a tasty complimentary breakfast, and friendly staff to make us feel welcomed.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>We stayed here one night to break up a car trip, and found it very comfortable.  We had a dog with us and felt safe walking her in the well-lit parking lot area.  There is a Sonic Drive-in adjacent to the property, and we also felt safe walking over to it for a late-night treat!  The room was large, clean, and nicely decorated.  If we were to visit the area for one night or an extended visit, we would definitely stay here again.  The only problem was that we stayed downstairs in a non-smoking room and could smell cigarette smoke.  We contacted the front desk to let them know and to tell them it was not us smoking, and they attempted to clear the smell right away.  Management definitely tries to stay on top of any problem, and it shows in a well-maintained property.  This is only the second Americas Best Value Inn we've stayed at, and this one was definitely nicer, and it's nicer than many of the other chain hotels/motels we've stayed at that cost much more.  We had a pleasant stay, a tasty complimentary breakfast, and friendly staff to make us feel welcomed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r157004022-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>157004022</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Very nice for the price!</t>
+  </si>
+  <si>
+    <t>We were attending a college tour of Tarleton this weekend, and all of the rooms in Stephenville were taken, so we booked a room here.  I was a little worried because the price was so low.  However, I was very pleasantly surprised by this place!  We had a double-queen room on the first floor.  The room was very clean and quiet.  We didn't use the pool, but we looked in on it, and it seemed very clean and well maintained.  The staff was very friendly and gave us dining recommendations for that evening.  We were greeted the next morning by a very friendly member of the staff who made waffles for us.  Other than the waffles, the free breakfast was pretty much what you would expect.  Get the waffles - they are delicious.  The only complaint about this place was that the beds were super firm.  Other than that, it was a very nice place.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were attending a college tour of Tarleton this weekend, and all of the rooms in Stephenville were taken, so we booked a room here.  I was a little worried because the price was so low.  However, I was very pleasantly surprised by this place!  We had a double-queen room on the first floor.  The room was very clean and quiet.  We didn't use the pool, but we looked in on it, and it seemed very clean and well maintained.  The staff was very friendly and gave us dining recommendations for that evening.  We were greeted the next morning by a very friendly member of the staff who made waffles for us.  Other than the waffles, the free breakfast was pretty much what you would expect.  Get the waffles - they are delicious.  The only complaint about this place was that the beds were super firm.  Other than that, it was a very nice place.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r154882356-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
@@ -1091,9 +1520,6 @@
     <t>Very nice and clean!  Indoor pool was great!  Staff was just wonderful!!  They even make your Texas waffles for you!  Great price!!  One lady even showed me all the brochures of where to go when they open. So nice to my kids!!</t>
   </si>
   <si>
-    <t>yolder</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r154203564-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1109,15 +1535,9 @@
     <t>The staff was great, both day and night! We went to Glen Rose this past weekend to see Dinosaur Land and the State Park. We were looking for an inexpensive place to stay for the short stop-over on the way to Dallas. This place was a lot better than we expected. For $58 a night we stayed in a nice clean room and the place looked almost brand new. There was an indoor pool, a children's play room, and a nice little workout room that had two treadmills, an elliptical, and an stationary bike. We had a very nice room, and it was very quiet. We were not bothered by anyone. The breakfast was good. They has fruit, waffles, cereal, bread, boiled eggs, ect... This hotel is within walking distance to a couple of eating places and a little river. For the price, this is a great value!!!MoreShow less</t>
   </si>
   <si>
-    <t>March 2013</t>
-  </si>
-  <si>
     <t>The staff was great, both day and night! We went to Glen Rose this past weekend to see Dinosaur Land and the State Park. We were looking for an inexpensive place to stay for the short stop-over on the way to Dallas. This place was a lot better than we expected. For $58 a night we stayed in a nice clean room and the place looked almost brand new. There was an indoor pool, a children's play room, and a nice little workout room that had two treadmills, an elliptical, and an stationary bike. We had a very nice room, and it was very quiet. We were not bothered by anyone. The breakfast was good. They has fruit, waffles, cereal, bread, boiled eggs, ect... This hotel is within walking distance to a couple of eating places and a little river. For the price, this is a great value!!!More</t>
   </si>
   <si>
-    <t>chamae01</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r148293804-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1136,7 +1556,37 @@
     <t>November 2012</t>
   </si>
   <si>
-    <t>margnais</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r145466255-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>145466255</t>
+  </si>
+  <si>
+    <t>11/15/2012</t>
+  </si>
+  <si>
+    <t>clean, friendly, dogs allowed</t>
+  </si>
+  <si>
+    <t>Excellent Belgian, Texas-shaped waffles for breakfast.  Otherwise cereal, toast, bagles.  Shallow indoor pool and hot tub a plus.  Very friendly staff.  Free internet computer in lobby.  light-blocking curtains in the rooms.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r141914368-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>141914368</t>
+  </si>
+  <si>
+    <t>10/03/2012</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>The room was nice and pretty clean. Good deal for the price. The halls sometimes smelled smokey. The gentleman working the front desk was super friendly and the breakfast was fine. Even had Texas shaped waffles. I was happy that the hot tub was working well and the pool was perfect. Overall, my friends and I would probably stay there again.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r137466346-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
@@ -1160,9 +1610,6 @@
     <t>My husband and I stayed here a couple of nights for a wedding in the area.  The hotel was overall neat and clean and obviously recently remodeled.  The staff was very friendly and accommodating.  Downsides to the hotel were minimal.  One of the lights in our room was burnt out (which I'm sure would have been addressed had we said something), wallpaper needed repair in some spots and the breakfast was not very good (few choices, not well attended).  I admit, I am a bit of a hotel snob, and this would not have been my first choice (I like nicer soap and linens) but the stay was pleasant and the hotel met our needs.While I wouldn't choose to stay here again given a nicer option, I wouldn't throw a fit if someone booked me a room here either.More</t>
   </si>
   <si>
-    <t>phc756</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r135451434-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1178,12 +1625,6 @@
     <t>This was the host hotel for our event.  Clean, good bed, and enough towels. Breakfast was on time, and very clean food service area.  Good value for the money, flexible for check in and check out times, very helpful and accomodating.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>MVP4621</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r134446174-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1199,7 +1640,37 @@
     <t xml:space="preserve">We had 5 rooms here for a night all were nice and clean. The man working was very nice and helpful. They have a free breakfast in the moring which is good. Ill stay here again sometime. </t>
   </si>
   <si>
-    <t>grandmato2</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r132192486-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>132192486</t>
+  </si>
+  <si>
+    <t>06/17/2012</t>
+  </si>
+  <si>
+    <t>Terrific Value, Great Motel</t>
+  </si>
+  <si>
+    <t>Just stayed at Americas Best Value Inn, Glen Rose.  Terrific Value, great motel.  Terry the manager, runs the desk and puts out breakfast every morning, including terrific Texas shaped waffles. He brought my step grand daughter all kinds of trinkets which she loved and was just an all around great guy.  Nice indoor pool, nice exercise room with eliptical, bike, and 2 treadmills. There's a little kids room with tables, and books.  Comfortable king bed, Hot water in shower was strong.  We really enjoyed our stay.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r131516583-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>131516583</t>
+  </si>
+  <si>
+    <t>06/07/2012</t>
+  </si>
+  <si>
+    <t>Relaxing Experience</t>
+  </si>
+  <si>
+    <t>My husband and I just returned from a 2 night stay in Glen Rose, Tx where we stayed at the Americas Best Value Inn &amp; Suites.  It was a great place to stay with wonderful prices.  The room was very clean, we had plenty of clean towels, it was very quiet and the king bed was very comfortable.  We slept in the first morning and the cleaning people didn't wake us up trying to come in to clean the room.  When we returned later our room had been cleaned, the bed made and fresh towels were put out for us.  Great place.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r126523816-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
@@ -1220,9 +1691,6 @@
     <t>March 2012</t>
   </si>
   <si>
-    <t>txdorsey</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r123020716-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1244,9 +1712,6 @@
     <t>We kicked off our Christmas Break this year with a trip to Fossil Rim.  We stayed at the America's Best Value Inn mainly because they have an indoor pool and the price was good.  We were really suprised to see all the kid friendly touches around the hotel.  There is a little library area where parents can go to read and inside the room there is a child table and toys so that the kids are entertained while Mom or Dad studies.  Also, at the breakfast area there is a child table that is just the right size for little ones to feel like they are having a breakfast of their own.  Everyone was nice, the rooms were clean, and we really appreciate all of the details that make our children feel welcome, too.More</t>
   </si>
   <si>
-    <t>JenLuikart</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r118668092-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1274,7 +1739,52 @@
     <t>Stayed at the Americas Best Value Inn in Glen Rose,Texas during our cycling race "Texas Time Trials."  It was a Great  stay for us,  Terry and the staff made us feel right at home, it was clean, any questions or info we needed was answered promptly,  and the breakfast was great topped with Texas State shaped waffles!  After returning home we joined Americas Best Value Inn's Value Club!  We will look forward to our stay next year.  Thanks Terry!Scott &amp; Jen Luikart Ohio, USAMore</t>
   </si>
   <si>
-    <t>AnnieRox</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r102713348-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>102713348</t>
+  </si>
+  <si>
+    <t>04/03/2011</t>
+  </si>
+  <si>
+    <t>Loved it</t>
+  </si>
+  <si>
+    <t>This hotel was great!  We showed up with rambunctious 5 and 6 year old kiddos and we were shown the indoor pool right away.  We didn't have swim suits but the manager knew right where we could go to get some.  Once we got back and changed, we headed down for some energy release for the kids.  The breakfast was great, too!  Texas shaped waffles, cereal, fruit, coffee and juice..perfect for everyone.  Thanks Terry Dale for your hospitality!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>abviglenrose858, Manager at Quality Inn &amp; Suites, responded to this reviewResponded May 5, 2011</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2011</t>
+  </si>
+  <si>
+    <t>This hotel was great!  We showed up with rambunctious 5 and 6 year old kiddos and we were shown the indoor pool right away.  We didn't have swim suits but the manager knew right where we could go to get some.  Once we got back and changed, we headed down for some energy release for the kids.  The breakfast was great, too!  Texas shaped waffles, cereal, fruit, coffee and juice..perfect for everyone.  Thanks Terry Dale for your hospitality!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r101122529-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>101122529</t>
+  </si>
+  <si>
+    <t>03/22/2011</t>
+  </si>
+  <si>
+    <t>I felt like I was the owner of the property</t>
+  </si>
+  <si>
+    <t>I wanted to take a minute to compliment Terry Dale in Glen Rose, TX. Even before we had car problems, Terry was very friendly and helpful in meeting all of our needs and continued make our stay just like visiting family. We will always be staying at this property whenever we visit the area! Great indoor pool!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>I wanted to take a minute to compliment Terry Dale in Glen Rose, TX. Even before we had car problems, Terry was very friendly and helpful in meeting all of our needs and continued make our stay just like visiting family. We will always be staying at this property whenever we visit the area! Great indoor pool!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r101119844-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
@@ -1283,30 +1793,15 @@
     <t>101119844</t>
   </si>
   <si>
-    <t>03/22/2011</t>
-  </si>
-  <si>
     <t>Would not honor confirmation/reservation made through Hotels.com</t>
   </si>
   <si>
     <t>We arrived on Friday evening (5:30pm-ish) during Spring Break.  Upon tryng to check in, we discovered that they did not have a reservation for our family.  We provdided them with our confirmation made through Hotels.com, only to be told there was nothing they could do, they had no rooms... ours was the last reservation to come in.  What???  It made no sense.  Why does Americas Best Inn use Hotels.com as a service, if they won't honor a reservation made through them.  They did make a couple a calls to other hotels (no one had rooms) and then said, "Well, Granbury is only 15 minutes away."    Granbury was definitely worth the extra few miles!  We stayed at the Best Western and had fabulous service, breakfast -- and they also had an indoor pool.  There are way more restaurant options in Granbury too.  So, if you plan a trip to see all the attractions in Glen Rose, plan to stay in Granbury!MoreShow less</t>
   </si>
   <si>
-    <t>March 2011</t>
-  </si>
-  <si>
-    <t>abviglenrose858, Manager at Quality Inn &amp; Suites, responded to this reviewResponded May 5, 2011</t>
-  </si>
-  <si>
-    <t>Responded May 5, 2011</t>
-  </si>
-  <si>
     <t>We arrived on Friday evening (5:30pm-ish) during Spring Break.  Upon tryng to check in, we discovered that they did not have a reservation for our family.  We provdided them with our confirmation made through Hotels.com, only to be told there was nothing they could do, they had no rooms... ours was the last reservation to come in.  What???  It made no sense.  Why does Americas Best Inn use Hotels.com as a service, if they won't honor a reservation made through them.  They did make a couple a calls to other hotels (no one had rooms) and then said, "Well, Granbury is only 15 minutes away."    Granbury was definitely worth the extra few miles!  We stayed at the Best Western and had fabulous service, breakfast -- and they also had an indoor pool.  There are way more restaurant options in Granbury too.  So, if you plan a trip to see all the attractions in Glen Rose, plan to stay in Granbury!More</t>
   </si>
   <si>
-    <t>ashleygrace</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r97257559-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1328,9 +1823,6 @@
     <t>We went on a 2 and a half day trip to Glen Rose from Dallas. We had 3 kids in tow who were all very sick of being in the car and ready to bounce off the walls. As we walked into the hotel, the manager (Terry Dale) greeted each of the three kids with fruit snacks and toy airplanes. Check in went smoothly and we were told if we needed anything to let him know. When we decided to go to the pool he was busy doing something, but 5 minutes after we jumped in, he brought us towel and asked if there was anything else he could do for us. This type of service lasted the whole time we were there. He came in to the breakfast areas in the morning while we were having breakfast and made waffles for everyone (so nice to have a break from cooking!) and when we left on Thursday morning, he gave each of the kids a small present to take with them. My 2 year old covered himself in stamps from the giraffe stamp Mr. Dale gave him! We will be going back to Glen Rose in the summer, and we will be staying at America's Best Value Inn again! Its one thing for management to treat the adults paying for the room well, but it goes above and beyond when they take an interest in your children and their happiness...We went on a 2 and a half day trip to Glen Rose from Dallas. We had 3 kids in tow who were all very sick of being in the car and ready to bounce off the walls. As we walked into the hotel, the manager (Terry Dale) greeted each of the three kids with fruit snacks and toy airplanes. Check in went smoothly and we were told if we needed anything to let him know. When we decided to go to the pool he was busy doing something, but 5 minutes after we jumped in, he brought us towel and asked if there was anything else he could do for us. This type of service lasted the whole time we were there. He came in to the breakfast areas in the morning while we were having breakfast and made waffles for everyone (so nice to have a break from cooking!) and when we left on Thursday morning, he gave each of the kids a small present to take with them. My 2 year old covered himself in stamps from the giraffe stamp Mr. Dale gave him! We will be going back to Glen Rose in the summer, and we will be staying at America's Best Value Inn again! Its one thing for management to treat the adults paying for the room well, but it goes above and beyond when they take an interest in your children and their happiness and enjoyment!More</t>
   </si>
   <si>
-    <t>aggiehelen</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r87464669-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1340,9 +1832,6 @@
     <t>11/17/2010</t>
   </si>
   <si>
-    <t>Nice place to stay</t>
-  </si>
-  <si>
     <t>The hotel is a little old but it is a nice place to stay for a short trip.  We loved the indoor pool &amp; "Texas" shape waffleMoreShow less</t>
   </si>
   <si>
@@ -1352,7 +1841,46 @@
     <t>The hotel is a little old but it is a nice place to stay for a short trip.  We loved the indoor pool &amp; "Texas" shape waffleMore</t>
   </si>
   <si>
-    <t>ladyslider</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r71892114-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>71892114</t>
+  </si>
+  <si>
+    <t>07/22/2010</t>
+  </si>
+  <si>
+    <t>Awesome host, clean rooms, relaxing stay-and at a great price!!!!</t>
+  </si>
+  <si>
+    <t>The host were friendly and the rooms were as nice as the higher priced hotels we've stayed in.  The pool and hot tub were definitely a plus. They also have a exercise room and a game room. We had Texas shaped waffles, milk, juice and bananas for breakfast.  The Sonic next door was handy for a late night Sundae!  We couldn't have been happier!  I still can't believe it was so reasonable!  We were not expecting it to be so nice!  The towels were a little rough but hey that's something I can deal with when there's so much more to offer!  If you're needing a get away at an affordable price this is a great place.  Glen Rose and Grandberry have a lot to offer and you don't have to break the bank!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>The host were friendly and the rooms were as nice as the higher priced hotels we've stayed in.  The pool and hot tub were definitely a plus. They also have a exercise room and a game room. We had Texas shaped waffles, milk, juice and bananas for breakfast.  The Sonic next door was handy for a late night Sundae!  We couldn't have been happier!  I still can't believe it was so reasonable!  We were not expecting it to be so nice!  The towels were a little rough but hey that's something I can deal with when there's so much more to offer!  If you're needing a get away at an affordable price this is a great place.  Glen Rose and Grandberry have a lot to offer and you don't have to break the bank!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r66527679-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>66527679</t>
+  </si>
+  <si>
+    <t>06/05/2010</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>We stayed here two nights.  The rooms were clean and nice.  The staff was friendly and always trying to make us enjoy our stay.  The pool is indoors and it was nice not having to worry about sunrays.  The pool is heated.  What was nice is that Sonic within walking distances and there is a small park.  All was very convenient esp since there were kids.  The breakfast is not much but the waffles were make your own Texas shape waffles and my kids really enjoyed making them and eating them.  I would stay here again in a heartbeat.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>We stayed here two nights.  The rooms were clean and nice.  The staff was friendly and always trying to make us enjoy our stay.  The pool is indoors and it was nice not having to worry about sunrays.  The pool is heated.  What was nice is that Sonic within walking distances and there is a small park.  All was very convenient esp since there were kids.  The breakfast is not much but the waffles were make your own Texas shape waffles and my kids really enjoyed making them and eating them.  I would stay here again in a heartbeat.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r59272495-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
@@ -1376,9 +1904,6 @@
     <t>This hotel was just OK for the cheap price I got.  First impression was very good.... The staff was pleasant, and the lobby and room were both nice; however, the hallway in front of my non-smoking room reeked of cigarette.  It continued to stink all 3 nights I was in room 100.  Someone was grilling outside the back door also.  I thought that was a bit odd.  The grill stayed there all 3 days.  The bed sagged on the side next to the phone, and I had to stay in the middle of the bed to keep from rolling off.  The pillows were very flat.  The sheets were poor quality, thin, and wouldn't stay put on the bed.  They were completely off the corners and wadded up by morning.  The breakfast was minimal.  Don't expect anything more than dry cereal, white bread, shriveled english muffins, bagels, and waffles.  Bananas were the only fruit offered, and most was overripe.  No de-caf coffee was offered.  I had to ask for it at the front desk.  None was provided in my room either.  I was given some packets that I made in my room.  The maid did not remove the filter packet or clean the pot.  She was pounding on our door at 8 am the 2nd day.  We said come back later, put out the do not disturb sign till 1 pm, and then removed it when we left.  I saw the...This hotel was just OK for the cheap price I got.  First impression was very good.... The staff was pleasant, and the lobby and room were both nice; however, the hallway in front of my non-smoking room reeked of cigarette.  It continued to stink all 3 nights I was in room 100.  Someone was grilling outside the back door also.  I thought that was a bit odd.  The grill stayed there all 3 days.  The bed sagged on the side next to the phone, and I had to stay in the middle of the bed to keep from rolling off.  The pillows were very flat.  The sheets were poor quality, thin, and wouldn't stay put on the bed.  They were completely off the corners and wadded up by morning.  The breakfast was minimal.  Don't expect anything more than dry cereal, white bread, shriveled english muffins, bagels, and waffles.  Bananas were the only fruit offered, and most was overripe.  No de-caf coffee was offered.  I had to ask for it at the front desk.  None was provided in my room either.  I was given some packets that I made in my room.  The maid did not remove the filter packet or clean the pot.  She was pounding on our door at 8 am the 2nd day.  We said come back later, put out the do not disturb sign till 1 pm, and then removed it when we left.  I saw the maid in the hallway at that time doing other rooms, but she never returned to clean our room.  I had to request towels at 11:30 that night.  The remote control for the TV was poor quality.  We had to push the buttons repeatedly to get it to respond for channel changes.  If you don't object to these things, then go ahead and stay here.  If you want better quality, spend a bit more.More</t>
   </si>
   <si>
-    <t>DanaHouston</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r59007094-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1400,9 +1925,6 @@
     <t>My extended family stayed here last weekend while visiting Fossil Rim and Dinosaur State Park. My sister had stayed here twice before and recommended it. Although we worried because it was so inexpensive, we were really pleased with the hotel!We had 3 rooms that included children, the parents, and a grandmother. We all really enjoyed it. The rooms were very clean, large, and quite. (Though my sister had problems with noisy upstairs neighbors. It is 2 stories, though, so just ask for an upstairs room! Ours was great.) The people who worked at the front desk were very friendly. They even opened the breakfast room for us to have a small birthday party - just 8 of us opening presents &amp; having cake. The kids LOVED the pool, though it was small and noisy. There were quite a few kids there and they all were having a great time.We plan on going back to Glen Rose as soon as we can and would stay at no other place. Incredible place for the price, and we usually pay a lot more! Oh, and they do let pets stay. My sister had a dog with her. She paid $5 for one night.(Oh, and the only negatives I found were the toilet paper - definitely cheap - and the lotion - pretty runny.)More</t>
   </si>
   <si>
-    <t>rodeoroadie</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r57435402-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
   </si>
   <si>
@@ -1424,7 +1946,37 @@
     <t>Basic requirments meet...a bed, a room.   Rooms are small.  Beds are not very comfortable, water pressure was lame....shower was more of trickle...  If I was just there to sleep and go, then it would have done the job.  Completely disappointed with "free" breakfast.  Should have paid 10 buck more to stay across the street.More</t>
   </si>
   <si>
-    <t>Selena_7</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r20871232-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>20871232</t>
+  </si>
+  <si>
+    <t>10/14/2008</t>
+  </si>
+  <si>
+    <t>Great hotel and friendly people</t>
+  </si>
+  <si>
+    <t>Stayed in Glen Rose for several days during the Hurrican Ike evacuation.  It was clean-the waffles were great- and the friendliest people I have met in a long time.  My grandchildren took a special interest in the elevator and the management didn't even seem to get too aggravated with them.  Nice place.  Libby Myers</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r6822945-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
+  </si>
+  <si>
+    <t>6822945</t>
+  </si>
+  <si>
+    <t>02/20/2007</t>
+  </si>
+  <si>
+    <t>very pleasant</t>
+  </si>
+  <si>
+    <t>This hotel was a very bright and cheerful place.  Very friendly and helpful staff.  It was beastly hot outside, but the AC worked well.  I rated it a "3" simply because it was an average hotel - nothing special or spectacular, just a very good place to spend the night.  I would definitely do so again should I find myself in this area.</t>
+  </si>
+  <si>
+    <t>August 2006</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55902-d578443-r4993097-Quality_Inn_Suites-Glen_Rose_Texas.html</t>
@@ -1944,185 +2496,173 @@
       <c r="A2" t="n">
         <v>54423</v>
       </c>
-      <c r="B2" t="n">
-        <v>173900</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>54423</v>
       </c>
-      <c r="B3" t="n">
-        <v>173901</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
         <v>2</v>
       </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>54423</v>
       </c>
-      <c r="B4" t="n">
-        <v>173902</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>67</v>
-      </c>
       <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -2130,63 +2670,57 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>54423</v>
       </c>
-      <c r="B5" t="n">
-        <v>173903</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
         <v>69</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="K5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>75</v>
-      </c>
       <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
         <v>5</v>
@@ -2197,54 +2731,50 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>54423</v>
       </c>
-      <c r="B6" t="n">
-        <v>5616</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
         <v>76</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
         <v>78</v>
-      </c>
-      <c r="J6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2258,66 +2788,62 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>54423</v>
       </c>
-      <c r="B7" t="n">
-        <v>173904</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -2325,125 +2851,125 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>54423</v>
       </c>
-      <c r="B8" t="n">
-        <v>22649</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>54423</v>
       </c>
-      <c r="B9" t="n">
-        <v>173905</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -2451,363 +2977,351 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>54423</v>
       </c>
-      <c r="B10" t="n">
-        <v>8909</v>
-      </c>
-      <c r="C10" t="s">
-        <v>107</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>54423</v>
       </c>
-      <c r="B11" t="n">
-        <v>43248</v>
-      </c>
-      <c r="C11" t="s">
-        <v>113</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>54423</v>
       </c>
-      <c r="B12" t="n">
-        <v>173906</v>
-      </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>126</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>54423</v>
       </c>
-      <c r="B13" t="n">
-        <v>28171</v>
-      </c>
-      <c r="C13" t="s">
-        <v>127</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O13" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>54423</v>
       </c>
-      <c r="B14" t="n">
-        <v>173907</v>
-      </c>
-      <c r="C14" t="s">
-        <v>133</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>54423</v>
       </c>
-      <c r="B15" t="n">
-        <v>11421</v>
-      </c>
-      <c r="C15" t="s">
-        <v>140</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2821,116 +3335,108 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>54423</v>
       </c>
-      <c r="B16" t="n">
-        <v>78901</v>
-      </c>
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="L16" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="O16" t="s">
-        <v>91</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>54423</v>
       </c>
-      <c r="B17" t="n">
-        <v>674</v>
-      </c>
-      <c r="C17" t="s">
-        <v>153</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="J17" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="K17" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="L17" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N17" t="s">
-        <v>159</v>
-      </c>
-      <c r="O17" t="s">
-        <v>91</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
@@ -2943,64 +3449,60 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>54423</v>
       </c>
-      <c r="B18" t="n">
-        <v>173908</v>
-      </c>
-      <c r="C18" t="s">
-        <v>160</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="J18" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="K18" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -3008,245 +3510,225 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>54423</v>
       </c>
-      <c r="B19" t="n">
-        <v>42097</v>
-      </c>
-      <c r="C19" t="s">
-        <v>167</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="J19" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K19" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="L19" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="O19" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>54423</v>
       </c>
-      <c r="B20" t="n">
-        <v>173909</v>
-      </c>
-      <c r="C20" t="s">
-        <v>174</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="J20" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K20" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="L20" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>54423</v>
       </c>
-      <c r="B21" t="n">
-        <v>5333</v>
-      </c>
-      <c r="C21" t="s">
-        <v>181</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="J21" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="K21" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="L21" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>4</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>54423</v>
       </c>
-      <c r="B22" t="n">
-        <v>173910</v>
-      </c>
-      <c r="C22" t="s">
-        <v>187</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="J22" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="K22" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="L22" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="O22" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3260,66 +3742,60 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>54423</v>
       </c>
-      <c r="B23" t="n">
-        <v>173911</v>
-      </c>
-      <c r="C23" t="s">
-        <v>193</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="J23" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="K23" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="L23" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
-        <v>3</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3327,56 +3803,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>54423</v>
       </c>
-      <c r="B24" t="n">
-        <v>173912</v>
-      </c>
-      <c r="C24" t="s">
-        <v>201</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J24" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="K24" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="L24" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
       <c r="Q24" t="n">
         <v>4</v>
       </c>
@@ -3384,7 +3858,7 @@
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3392,256 +3866,232 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>54423</v>
       </c>
-      <c r="B25" t="n">
-        <v>881</v>
-      </c>
-      <c r="C25" t="s">
-        <v>207</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="J25" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="K25" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="L25" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>54423</v>
       </c>
-      <c r="B26" t="n">
-        <v>22241</v>
-      </c>
-      <c r="C26" t="s">
-        <v>215</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="J26" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="K26" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="L26" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="O26" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>54423</v>
       </c>
-      <c r="B27" t="n">
-        <v>4280</v>
-      </c>
-      <c r="C27" t="s">
-        <v>223</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="J27" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="K27" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>54423</v>
       </c>
-      <c r="B28" t="n">
-        <v>173913</v>
-      </c>
-      <c r="C28" t="s">
-        <v>230</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="J28" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="K28" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="L28" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="O28" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -3652,66 +4102,62 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>54423</v>
       </c>
-      <c r="B29" t="n">
-        <v>173914</v>
-      </c>
-      <c r="C29" t="s">
-        <v>237</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="J29" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="K29" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="L29" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
       </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3719,135 +4165,117 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>54423</v>
       </c>
-      <c r="B30" t="n">
-        <v>173915</v>
-      </c>
-      <c r="C30" t="s">
-        <v>244</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="J30" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="K30" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="L30" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
-      <c r="P30" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1</v>
-      </c>
+      <c r="N30" t="s">
+        <v>217</v>
+      </c>
+      <c r="O30" t="s">
+        <v>116</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>3</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>250</v>
-      </c>
-      <c r="X30" t="s">
-        <v>251</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>54423</v>
       </c>
-      <c r="B31" t="n">
-        <v>156736</v>
-      </c>
-      <c r="C31" t="s">
-        <v>253</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="J31" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="K31" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="L31" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
-      </c>
-      <c r="P31" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
       <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
+      <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3855,70 +4283,60 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>54423</v>
       </c>
-      <c r="B32" t="n">
-        <v>173916</v>
-      </c>
-      <c r="C32" t="s">
-        <v>259</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="J32" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="K32" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="L32" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3926,54 +4344,50 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>54423</v>
       </c>
-      <c r="B33" t="n">
-        <v>173917</v>
-      </c>
-      <c r="C33" t="s">
-        <v>267</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="J33" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="K33" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="L33" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3987,51 +4401,51 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>54423</v>
       </c>
-      <c r="B34" t="n">
-        <v>173918</v>
-      </c>
-      <c r="C34" t="s">
-        <v>275</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="J34" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="K34" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="L34" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s"/>
-      <c r="O34" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>241</v>
+      </c>
+      <c r="O34" t="s">
+        <v>59</v>
+      </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
@@ -4044,358 +4458,294 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>54423</v>
       </c>
-      <c r="B35" t="n">
-        <v>173919</v>
-      </c>
-      <c r="C35" t="s">
-        <v>281</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="J35" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="K35" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="L35" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
-      </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>241</v>
+      </c>
+      <c r="O35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>287</v>
-      </c>
-      <c r="X35" t="s">
-        <v>288</v>
-      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>54423</v>
       </c>
-      <c r="B36" t="n">
-        <v>173920</v>
-      </c>
-      <c r="C36" t="s">
-        <v>290</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="J36" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
       <c r="K36" t="s">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="L36" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>287</v>
-      </c>
-      <c r="X36" t="s">
-        <v>288</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>297</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>54423</v>
       </c>
-      <c r="B37" t="n">
-        <v>173921</v>
-      </c>
-      <c r="C37" t="s">
-        <v>298</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>299</v>
+        <v>252</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="J37" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="K37" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="L37" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s">
-        <v>304</v>
-      </c>
-      <c r="X37" t="s">
-        <v>305</v>
-      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>54423</v>
       </c>
-      <c r="B38" t="n">
-        <v>70131</v>
-      </c>
-      <c r="C38" t="s">
-        <v>307</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="J38" t="s">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="K38" t="s">
-        <v>311</v>
+        <v>260</v>
       </c>
       <c r="L38" t="s">
-        <v>312</v>
+        <v>261</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>313</v>
+        <v>262</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>2</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>4</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>312</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>54423</v>
       </c>
-      <c r="B39" t="n">
-        <v>173922</v>
-      </c>
-      <c r="C39" t="s">
-        <v>314</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="J39" t="s">
-        <v>317</v>
+        <v>265</v>
       </c>
       <c r="K39" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="L39" t="s">
-        <v>319</v>
+        <v>267</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
-      </c>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>268</v>
+      </c>
+      <c r="O39" t="s">
+        <v>269</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
       <c r="R39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S39" t="n">
         <v>4</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4403,70 +4753,62 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>319</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>54423</v>
       </c>
-      <c r="B40" t="n">
-        <v>47967</v>
-      </c>
-      <c r="C40" t="s">
-        <v>320</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="J40" t="s">
-        <v>323</v>
+        <v>272</v>
       </c>
       <c r="K40" t="s">
-        <v>324</v>
+        <v>273</v>
       </c>
       <c r="L40" t="s">
-        <v>325</v>
+        <v>274</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>326</v>
+        <v>275</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -4474,70 +4816,60 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>327</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>54423</v>
       </c>
-      <c r="B41" t="n">
-        <v>173923</v>
-      </c>
-      <c r="C41" t="s">
-        <v>328</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>329</v>
+        <v>277</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="J41" t="s">
-        <v>331</v>
+        <v>279</v>
       </c>
       <c r="K41" t="s">
-        <v>332</v>
+        <v>280</v>
       </c>
       <c r="L41" t="s">
-        <v>333</v>
+        <v>281</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P41" t="s"/>
       <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4545,141 +4877,119 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>334</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>54423</v>
       </c>
-      <c r="B42" t="n">
-        <v>173924</v>
-      </c>
-      <c r="C42" t="s">
-        <v>335</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>336</v>
+        <v>282</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="J42" t="s">
-        <v>338</v>
+        <v>284</v>
       </c>
       <c r="K42" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
       <c r="L42" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>340</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>54423</v>
       </c>
-      <c r="B43" t="n">
-        <v>173925</v>
-      </c>
-      <c r="C43" t="s">
-        <v>341</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>342</v>
+        <v>289</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>343</v>
+        <v>290</v>
       </c>
       <c r="J43" t="s">
-        <v>344</v>
+        <v>291</v>
       </c>
       <c r="K43" t="s">
-        <v>345</v>
+        <v>292</v>
       </c>
       <c r="L43" t="s">
-        <v>346</v>
+        <v>293</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
       <c r="O43" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="P43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>2</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4687,63 +4997,57 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>348</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>54423</v>
       </c>
-      <c r="B44" t="n">
-        <v>173926</v>
-      </c>
-      <c r="C44" t="s">
-        <v>349</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>351</v>
+        <v>295</v>
       </c>
       <c r="J44" t="s">
-        <v>352</v>
+        <v>296</v>
       </c>
       <c r="K44" t="s">
-        <v>353</v>
+        <v>297</v>
       </c>
       <c r="L44" t="s">
-        <v>354</v>
+        <v>298</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
-      <c r="N44" t="s"/>
-      <c r="O44" t="s"/>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
+      <c r="N44" t="s">
+        <v>287</v>
+      </c>
+      <c r="O44" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44" t="s"/>
       <c r="Q44" t="n">
         <v>5</v>
       </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
         <v>5</v>
@@ -4754,70 +5058,62 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>354</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>54423</v>
       </c>
-      <c r="B45" t="n">
-        <v>173927</v>
-      </c>
-      <c r="C45" t="s">
-        <v>355</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="J45" t="s">
-        <v>358</v>
+        <v>301</v>
       </c>
       <c r="K45" t="s">
-        <v>359</v>
+        <v>302</v>
       </c>
       <c r="L45" t="s">
-        <v>360</v>
+        <v>303</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>361</v>
+        <v>304</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P45" t="s"/>
       <c r="Q45" t="n">
-        <v>4</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R45" t="s"/>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4825,70 +5121,62 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>54423</v>
       </c>
-      <c r="B46" t="n">
-        <v>72645</v>
-      </c>
-      <c r="C46" t="s">
-        <v>363</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="J46" t="s">
-        <v>366</v>
+        <v>308</v>
       </c>
       <c r="K46" t="s">
-        <v>367</v>
+        <v>309</v>
       </c>
       <c r="L46" t="s">
-        <v>368</v>
+        <v>310</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>369</v>
+        <v>311</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
-      </c>
-      <c r="P46" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P46" t="s"/>
       <c r="Q46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R46" t="n">
-        <v>4</v>
-      </c>
-      <c r="S46" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4896,67 +5184,57 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>368</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>54423</v>
       </c>
-      <c r="B47" t="n">
-        <v>173928</v>
-      </c>
-      <c r="C47" t="s">
-        <v>370</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>371</v>
+        <v>312</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>372</v>
+        <v>313</v>
       </c>
       <c r="J47" t="s">
-        <v>373</v>
+        <v>314</v>
       </c>
       <c r="K47" t="s">
-        <v>374</v>
+        <v>315</v>
       </c>
       <c r="L47" t="s">
-        <v>375</v>
+        <v>316</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>376</v>
+        <v>317</v>
       </c>
       <c r="O47" t="s">
-        <v>91</v>
-      </c>
-      <c r="P47" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P47" t="s"/>
       <c r="Q47" t="n">
-        <v>4</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
         <v>5</v>
@@ -4967,70 +5245,62 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>377</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>54423</v>
       </c>
-      <c r="B48" t="n">
-        <v>173929</v>
-      </c>
-      <c r="C48" t="s">
-        <v>378</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>379</v>
+        <v>318</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>380</v>
+        <v>319</v>
       </c>
       <c r="J48" t="s">
-        <v>381</v>
+        <v>320</v>
       </c>
       <c r="K48" t="s">
-        <v>382</v>
+        <v>321</v>
       </c>
       <c r="L48" t="s">
-        <v>383</v>
+        <v>322</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>376</v>
+        <v>323</v>
       </c>
       <c r="O48" t="s">
-        <v>384</v>
+        <v>269</v>
       </c>
       <c r="P48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q48" t="n">
-        <v>3</v>
-      </c>
-      <c r="R48" t="n">
-        <v>4</v>
-      </c>
-      <c r="S48" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -5038,63 +5308,57 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>383</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>54423</v>
       </c>
-      <c r="B49" t="n">
-        <v>173930</v>
-      </c>
-      <c r="C49" t="s">
-        <v>385</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>387</v>
+        <v>325</v>
       </c>
       <c r="J49" t="s">
-        <v>388</v>
+        <v>326</v>
       </c>
       <c r="K49" t="s">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="L49" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
-      </c>
-      <c r="N49" t="s"/>
-      <c r="O49" t="s"/>
-      <c r="P49" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>329</v>
+      </c>
+      <c r="O49" t="s">
+        <v>78</v>
+      </c>
+      <c r="P49" t="s"/>
       <c r="Q49" t="n">
-        <v>4</v>
-      </c>
-      <c r="R49" t="n">
-        <v>4</v>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
         <v>5</v>
@@ -5105,70 +5369,62 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>54423</v>
       </c>
-      <c r="B50" t="n">
-        <v>173931</v>
-      </c>
-      <c r="C50" t="s">
-        <v>391</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>392</v>
+        <v>330</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>393</v>
+        <v>331</v>
       </c>
       <c r="J50" t="s">
-        <v>394</v>
+        <v>332</v>
       </c>
       <c r="K50" t="s">
-        <v>395</v>
+        <v>333</v>
       </c>
       <c r="L50" t="s">
-        <v>396</v>
+        <v>334</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>397</v>
+        <v>335</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q50" t="n">
-        <v>4</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -5176,138 +5432,124 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>396</v>
+        <v>334</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>54423</v>
       </c>
-      <c r="B51" t="n">
-        <v>22359</v>
-      </c>
-      <c r="C51" t="s">
-        <v>398</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>399</v>
+        <v>336</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>400</v>
+        <v>337</v>
       </c>
       <c r="J51" t="s">
-        <v>401</v>
+        <v>338</v>
       </c>
       <c r="K51" t="s">
-        <v>402</v>
+        <v>339</v>
       </c>
       <c r="L51" t="s">
-        <v>403</v>
+        <v>340</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
-      </c>
-      <c r="N51" t="s">
-        <v>404</v>
-      </c>
-      <c r="O51" t="s">
-        <v>53</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
       <c r="P51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R51" t="n">
         <v>5</v>
       </c>
       <c r="S51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>341</v>
+      </c>
+      <c r="X51" t="s">
+        <v>342</v>
+      </c>
       <c r="Y51" t="s">
-        <v>405</v>
+        <v>343</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>54423</v>
       </c>
-      <c r="B52" t="n">
-        <v>173932</v>
-      </c>
-      <c r="C52" t="s">
-        <v>406</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>407</v>
+        <v>344</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>408</v>
+        <v>345</v>
       </c>
       <c r="J52" t="s">
-        <v>409</v>
+        <v>346</v>
       </c>
       <c r="K52" t="s">
-        <v>410</v>
+        <v>347</v>
       </c>
       <c r="L52" t="s">
-        <v>411</v>
+        <v>348</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>412</v>
+        <v>335</v>
       </c>
       <c r="O52" t="s">
-        <v>91</v>
-      </c>
-      <c r="P52" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
       <c r="R52" t="n">
         <v>5</v>
       </c>
-      <c r="S52" t="n">
-        <v>5</v>
-      </c>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
         <v>5</v>
@@ -5315,503 +5557,3196 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s">
-        <v>413</v>
-      </c>
-      <c r="X52" t="s">
-        <v>414</v>
-      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>415</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>54423</v>
       </c>
-      <c r="B53" t="n">
-        <v>173933</v>
-      </c>
-      <c r="C53" t="s">
-        <v>416</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>417</v>
+        <v>349</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>418</v>
+        <v>350</v>
       </c>
       <c r="J53" t="s">
-        <v>419</v>
+        <v>351</v>
       </c>
       <c r="K53" t="s">
-        <v>420</v>
+        <v>352</v>
       </c>
       <c r="L53" t="s">
-        <v>421</v>
+        <v>353</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>422</v>
+        <v>354</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
       <c r="R53" t="s"/>
       <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="n">
-        <v>1</v>
-      </c>
+      <c r="U53" t="s"/>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s">
-        <v>423</v>
-      </c>
-      <c r="X53" t="s">
-        <v>424</v>
-      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>425</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>54423</v>
       </c>
-      <c r="B54" t="n">
-        <v>173934</v>
-      </c>
-      <c r="C54" t="s">
-        <v>426</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>427</v>
+        <v>355</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>428</v>
+        <v>356</v>
       </c>
       <c r="J54" t="s">
-        <v>429</v>
+        <v>357</v>
       </c>
       <c r="K54" t="s">
-        <v>430</v>
+        <v>358</v>
       </c>
       <c r="L54" t="s">
-        <v>431</v>
+        <v>359</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>432</v>
+        <v>360</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s">
-        <v>423</v>
-      </c>
-      <c r="X54" t="s">
-        <v>424</v>
-      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>433</v>
+        <v>361</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>54423</v>
       </c>
-      <c r="B55" t="n">
-        <v>173935</v>
-      </c>
-      <c r="C55" t="s">
-        <v>434</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>435</v>
+        <v>362</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>436</v>
+        <v>363</v>
       </c>
       <c r="J55" t="s">
-        <v>437</v>
+        <v>364</v>
       </c>
       <c r="K55" t="s">
-        <v>438</v>
+        <v>365</v>
       </c>
       <c r="L55" t="s">
-        <v>439</v>
+        <v>366</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>440</v>
+        <v>367</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
-      </c>
-      <c r="P55" t="s"/>
-      <c r="Q55" t="s"/>
-      <c r="R55" t="s"/>
-      <c r="S55" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
       <c r="T55" t="s"/>
-      <c r="U55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s">
-        <v>423</v>
-      </c>
-      <c r="X55" t="s">
-        <v>424</v>
-      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>441</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>54423</v>
       </c>
-      <c r="B56" t="n">
-        <v>173936</v>
-      </c>
-      <c r="C56" t="s">
-        <v>442</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>444</v>
+        <v>370</v>
       </c>
       <c r="J56" t="s">
-        <v>445</v>
+        <v>371</v>
       </c>
       <c r="K56" t="s">
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="L56" t="s">
-        <v>447</v>
+        <v>373</v>
       </c>
       <c r="M56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>448</v>
+        <v>374</v>
       </c>
       <c r="O56" t="s">
-        <v>91</v>
-      </c>
-      <c r="P56" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>3</v>
-      </c>
-      <c r="R56" t="n">
-        <v>3</v>
-      </c>
-      <c r="S56" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="n">
-        <v>3</v>
-      </c>
+      <c r="U56" t="s"/>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s">
-        <v>423</v>
-      </c>
-      <c r="X56" t="s">
-        <v>424</v>
-      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>449</v>
+        <v>375</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>54423</v>
       </c>
-      <c r="B57" t="n">
-        <v>173937</v>
-      </c>
-      <c r="C57" t="s">
-        <v>450</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>451</v>
+        <v>376</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>452</v>
+        <v>377</v>
       </c>
       <c r="J57" t="s">
-        <v>453</v>
+        <v>378</v>
       </c>
       <c r="K57" t="s">
-        <v>454</v>
+        <v>379</v>
       </c>
       <c r="L57" t="s">
-        <v>455</v>
+        <v>380</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
-      <c r="N57" t="s">
-        <v>448</v>
-      </c>
-      <c r="O57" t="s">
-        <v>53</v>
-      </c>
-      <c r="P57" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>4</v>
-      </c>
-      <c r="R57" t="n">
-        <v>5</v>
-      </c>
-      <c r="S57" t="n">
-        <v>5</v>
-      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>5</v>
-      </c>
+      <c r="U57" t="s"/>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s">
-        <v>456</v>
-      </c>
-      <c r="X57" t="s">
-        <v>424</v>
-      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>457</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>54423</v>
       </c>
-      <c r="B58" t="n">
-        <v>173938</v>
-      </c>
-      <c r="C58" t="s">
-        <v>458</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>459</v>
+        <v>381</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>460</v>
+        <v>382</v>
       </c>
       <c r="J58" t="s">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="K58" t="s">
-        <v>462</v>
+        <v>384</v>
       </c>
       <c r="L58" t="s">
-        <v>463</v>
+        <v>385</v>
       </c>
       <c r="M58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>464</v>
+        <v>386</v>
       </c>
       <c r="O58" t="s">
-        <v>384</v>
+        <v>59</v>
       </c>
       <c r="P58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s">
-        <v>423</v>
-      </c>
-      <c r="X58" t="s">
-        <v>424</v>
-      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>465</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>54423</v>
       </c>
-      <c r="B59" t="n">
-        <v>173939</v>
-      </c>
-      <c r="C59" t="s">
-        <v>466</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
+        <v>387</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>388</v>
+      </c>
+      <c r="J59" t="s">
+        <v>389</v>
+      </c>
+      <c r="K59" t="s">
+        <v>390</v>
+      </c>
+      <c r="L59" t="s">
+        <v>391</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>392</v>
+      </c>
+      <c r="O59" t="s">
+        <v>59</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>393</v>
+      </c>
+      <c r="X59" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>396</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>397</v>
+      </c>
+      <c r="J60" t="s">
+        <v>398</v>
+      </c>
+      <c r="K60" t="s">
+        <v>399</v>
+      </c>
+      <c r="L60" t="s">
+        <v>400</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>393</v>
+      </c>
+      <c r="X60" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>402</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>403</v>
+      </c>
+      <c r="J61" t="s">
+        <v>404</v>
+      </c>
+      <c r="K61" t="s">
+        <v>405</v>
+      </c>
+      <c r="L61" t="s">
+        <v>406</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>407</v>
+      </c>
+      <c r="O61" t="s">
+        <v>78</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>393</v>
+      </c>
+      <c r="X61" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>409</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>410</v>
+      </c>
+      <c r="J62" t="s">
+        <v>411</v>
+      </c>
+      <c r="K62" t="s">
+        <v>412</v>
+      </c>
+      <c r="L62" t="s">
+        <v>413</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>407</v>
+      </c>
+      <c r="O62" t="s">
+        <v>59</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>414</v>
+      </c>
+      <c r="X62" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>417</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>418</v>
+      </c>
+      <c r="J63" t="s">
+        <v>419</v>
+      </c>
+      <c r="K63" t="s">
+        <v>420</v>
+      </c>
+      <c r="L63" t="s">
+        <v>421</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>422</v>
+      </c>
+      <c r="O63" t="s">
+        <v>59</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>414</v>
+      </c>
+      <c r="X63" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>424</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>425</v>
+      </c>
+      <c r="J64" t="s">
+        <v>426</v>
+      </c>
+      <c r="K64" t="s">
+        <v>427</v>
+      </c>
+      <c r="L64" t="s">
+        <v>428</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>422</v>
+      </c>
+      <c r="O64" t="s">
+        <v>59</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>414</v>
+      </c>
+      <c r="X64" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>430</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>431</v>
+      </c>
+      <c r="J65" t="s">
+        <v>432</v>
+      </c>
+      <c r="K65" t="s">
+        <v>433</v>
+      </c>
+      <c r="L65" t="s">
+        <v>434</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>435</v>
+      </c>
+      <c r="O65" t="s">
+        <v>59</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>436</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>437</v>
+      </c>
+      <c r="J66" t="s">
+        <v>438</v>
+      </c>
+      <c r="K66" t="s">
+        <v>439</v>
+      </c>
+      <c r="L66" t="s">
+        <v>440</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>441</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>442</v>
+      </c>
+      <c r="J67" t="s">
+        <v>443</v>
+      </c>
+      <c r="K67" t="s">
+        <v>444</v>
+      </c>
+      <c r="L67" t="s">
+        <v>445</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>446</v>
+      </c>
+      <c r="O67" t="s">
+        <v>59</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>448</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>449</v>
+      </c>
+      <c r="J68" t="s">
+        <v>450</v>
+      </c>
+      <c r="K68" t="s">
+        <v>451</v>
+      </c>
+      <c r="L68" t="s">
+        <v>452</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>435</v>
+      </c>
+      <c r="O68" t="s">
+        <v>116</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>453</v>
+      </c>
+      <c r="X68" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>456</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J69" t="s">
+        <v>458</v>
+      </c>
+      <c r="K69" t="s">
+        <v>459</v>
+      </c>
+      <c r="L69" t="s">
+        <v>460</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>462</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>463</v>
+      </c>
+      <c r="J70" t="s">
+        <v>464</v>
+      </c>
+      <c r="K70" t="s">
+        <v>465</v>
+      </c>
+      <c r="L70" t="s">
+        <v>466</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>435</v>
+      </c>
+      <c r="O70" t="s">
+        <v>59</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
         <v>467</v>
       </c>
-      <c r="G59" t="s">
-        <v>46</v>
-      </c>
-      <c r="H59" t="s">
-        <v>47</v>
-      </c>
-      <c r="I59" t="s">
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
         <v>468</v>
       </c>
-      <c r="J59" t="s">
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
         <v>469</v>
       </c>
-      <c r="K59" t="s">
+      <c r="J71" t="s">
         <v>470</v>
       </c>
-      <c r="L59" t="s">
+      <c r="K71" t="s">
         <v>471</v>
       </c>
-      <c r="M59" t="n">
-        <v>5</v>
-      </c>
-      <c r="N59" t="s"/>
-      <c r="O59" t="s"/>
-      <c r="P59" t="s"/>
-      <c r="Q59" t="s"/>
-      <c r="R59" t="s"/>
-      <c r="S59" t="s"/>
-      <c r="T59" t="s"/>
-      <c r="U59" t="s"/>
-      <c r="V59" t="n">
-        <v>0</v>
-      </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
-      <c r="Y59" t="s">
-        <v>471</v>
+      <c r="L71" t="s">
+        <v>472</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>446</v>
+      </c>
+      <c r="O71" t="s">
+        <v>59</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>473</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>474</v>
+      </c>
+      <c r="J72" t="s">
+        <v>475</v>
+      </c>
+      <c r="K72" t="s">
+        <v>476</v>
+      </c>
+      <c r="L72" t="s">
+        <v>477</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>478</v>
+      </c>
+      <c r="O72" t="s">
+        <v>52</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>480</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>481</v>
+      </c>
+      <c r="J73" t="s">
+        <v>482</v>
+      </c>
+      <c r="K73" t="s">
+        <v>483</v>
+      </c>
+      <c r="L73" t="s">
+        <v>484</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>485</v>
+      </c>
+      <c r="O73" t="s">
+        <v>116</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>487</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>488</v>
+      </c>
+      <c r="J74" t="s">
+        <v>489</v>
+      </c>
+      <c r="K74" t="s">
+        <v>490</v>
+      </c>
+      <c r="L74" t="s">
+        <v>491</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>478</v>
+      </c>
+      <c r="O74" t="s">
+        <v>78</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>493</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>494</v>
+      </c>
+      <c r="J75" t="s">
+        <v>495</v>
+      </c>
+      <c r="K75" t="s">
+        <v>496</v>
+      </c>
+      <c r="L75" t="s">
+        <v>497</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>498</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>499</v>
+      </c>
+      <c r="J76" t="s">
+        <v>500</v>
+      </c>
+      <c r="K76" t="s">
+        <v>501</v>
+      </c>
+      <c r="L76" t="s">
+        <v>502</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>485</v>
+      </c>
+      <c r="O76" t="s">
+        <v>59</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>504</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>505</v>
+      </c>
+      <c r="J77" t="s">
+        <v>506</v>
+      </c>
+      <c r="K77" t="s">
+        <v>507</v>
+      </c>
+      <c r="L77" t="s">
+        <v>508</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>509</v>
+      </c>
+      <c r="O77" t="s">
+        <v>59</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>510</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>511</v>
+      </c>
+      <c r="J78" t="s">
+        <v>512</v>
+      </c>
+      <c r="K78" t="s">
+        <v>513</v>
+      </c>
+      <c r="L78" t="s">
+        <v>514</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>509</v>
+      </c>
+      <c r="O78" t="s">
+        <v>59</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>515</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>516</v>
+      </c>
+      <c r="J79" t="s">
+        <v>517</v>
+      </c>
+      <c r="K79" t="s">
+        <v>518</v>
+      </c>
+      <c r="L79" t="s">
+        <v>519</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>520</v>
+      </c>
+      <c r="O79" t="s">
+        <v>78</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>521</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>522</v>
+      </c>
+      <c r="J80" t="s">
+        <v>523</v>
+      </c>
+      <c r="K80" t="s">
+        <v>524</v>
+      </c>
+      <c r="L80" t="s">
+        <v>525</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>526</v>
+      </c>
+      <c r="O80" t="s">
+        <v>116</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>528</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>529</v>
+      </c>
+      <c r="J81" t="s">
+        <v>530</v>
+      </c>
+      <c r="K81" t="s">
+        <v>531</v>
+      </c>
+      <c r="L81" t="s">
+        <v>532</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>526</v>
+      </c>
+      <c r="O81" t="s">
+        <v>269</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>533</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>534</v>
+      </c>
+      <c r="J82" t="s">
+        <v>535</v>
+      </c>
+      <c r="K82" t="s">
+        <v>536</v>
+      </c>
+      <c r="L82" t="s">
+        <v>537</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>538</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>539</v>
+      </c>
+      <c r="J83" t="s">
+        <v>540</v>
+      </c>
+      <c r="K83" t="s">
+        <v>541</v>
+      </c>
+      <c r="L83" t="s">
+        <v>542</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>543</v>
+      </c>
+      <c r="O83" t="s">
+        <v>59</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>544</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>545</v>
+      </c>
+      <c r="J84" t="s">
+        <v>546</v>
+      </c>
+      <c r="K84" t="s">
+        <v>547</v>
+      </c>
+      <c r="L84" t="s">
+        <v>548</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>543</v>
+      </c>
+      <c r="O84" t="s">
+        <v>116</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>549</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>550</v>
+      </c>
+      <c r="J85" t="s">
+        <v>551</v>
+      </c>
+      <c r="K85" t="s">
+        <v>552</v>
+      </c>
+      <c r="L85" t="s">
+        <v>553</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>554</v>
+      </c>
+      <c r="O85" t="s">
+        <v>59</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>555</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>556</v>
+      </c>
+      <c r="J86" t="s">
+        <v>557</v>
+      </c>
+      <c r="K86" t="s">
+        <v>558</v>
+      </c>
+      <c r="L86" t="s">
+        <v>559</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>560</v>
+      </c>
+      <c r="O86" t="s">
+        <v>59</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>562</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>563</v>
+      </c>
+      <c r="J87" t="s">
+        <v>564</v>
+      </c>
+      <c r="K87" t="s">
+        <v>565</v>
+      </c>
+      <c r="L87" t="s">
+        <v>566</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>567</v>
+      </c>
+      <c r="O87" t="s">
+        <v>116</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>568</v>
+      </c>
+      <c r="X87" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>571</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>572</v>
+      </c>
+      <c r="J88" t="s">
+        <v>573</v>
+      </c>
+      <c r="K88" t="s">
+        <v>574</v>
+      </c>
+      <c r="L88" t="s">
+        <v>575</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>576</v>
+      </c>
+      <c r="O88" t="s">
+        <v>59</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>577</v>
+      </c>
+      <c r="X88" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>580</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>581</v>
+      </c>
+      <c r="J89" t="s">
+        <v>582</v>
+      </c>
+      <c r="K89" t="s">
+        <v>583</v>
+      </c>
+      <c r="L89" t="s">
+        <v>584</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>585</v>
+      </c>
+      <c r="O89" t="s">
+        <v>59</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>577</v>
+      </c>
+      <c r="X89" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>587</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>588</v>
+      </c>
+      <c r="J90" t="s">
+        <v>582</v>
+      </c>
+      <c r="K90" t="s">
+        <v>589</v>
+      </c>
+      <c r="L90" t="s">
+        <v>590</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>585</v>
+      </c>
+      <c r="O90" t="s">
+        <v>59</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>577</v>
+      </c>
+      <c r="X90" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>592</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>593</v>
+      </c>
+      <c r="J91" t="s">
+        <v>594</v>
+      </c>
+      <c r="K91" t="s">
+        <v>595</v>
+      </c>
+      <c r="L91" t="s">
+        <v>596</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>597</v>
+      </c>
+      <c r="O91" t="s">
+        <v>59</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>577</v>
+      </c>
+      <c r="X91" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>599</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>600</v>
+      </c>
+      <c r="J92" t="s">
+        <v>601</v>
+      </c>
+      <c r="K92" t="s">
+        <v>154</v>
+      </c>
+      <c r="L92" t="s">
+        <v>602</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>603</v>
+      </c>
+      <c r="O92" t="s">
+        <v>59</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>577</v>
+      </c>
+      <c r="X92" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>605</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>606</v>
+      </c>
+      <c r="J93" t="s">
+        <v>607</v>
+      </c>
+      <c r="K93" t="s">
+        <v>608</v>
+      </c>
+      <c r="L93" t="s">
+        <v>609</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>610</v>
+      </c>
+      <c r="O93" t="s">
+        <v>116</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>577</v>
+      </c>
+      <c r="X93" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>612</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>613</v>
+      </c>
+      <c r="J94" t="s">
+        <v>614</v>
+      </c>
+      <c r="K94" t="s">
+        <v>615</v>
+      </c>
+      <c r="L94" t="s">
+        <v>616</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>617</v>
+      </c>
+      <c r="O94" t="s">
+        <v>59</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>577</v>
+      </c>
+      <c r="X94" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>619</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>620</v>
+      </c>
+      <c r="J95" t="s">
+        <v>621</v>
+      </c>
+      <c r="K95" t="s">
+        <v>622</v>
+      </c>
+      <c r="L95" t="s">
+        <v>623</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>624</v>
+      </c>
+      <c r="O95" t="s">
+        <v>116</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>3</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>577</v>
+      </c>
+      <c r="X95" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>626</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>627</v>
+      </c>
+      <c r="J96" t="s">
+        <v>628</v>
+      </c>
+      <c r="K96" t="s">
+        <v>629</v>
+      </c>
+      <c r="L96" t="s">
+        <v>630</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>624</v>
+      </c>
+      <c r="O96" t="s">
+        <v>59</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>631</v>
+      </c>
+      <c r="X96" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>633</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s">
+        <v>634</v>
+      </c>
+      <c r="J97" t="s">
+        <v>635</v>
+      </c>
+      <c r="K97" t="s">
+        <v>636</v>
+      </c>
+      <c r="L97" t="s">
+        <v>637</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2</v>
+      </c>
+      <c r="N97" t="s">
+        <v>638</v>
+      </c>
+      <c r="O97" t="s">
+        <v>269</v>
+      </c>
+      <c r="P97" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>2</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>3</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>577</v>
+      </c>
+      <c r="X97" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" t="s">
+        <v>640</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" t="s">
+        <v>641</v>
+      </c>
+      <c r="J98" t="s">
+        <v>642</v>
+      </c>
+      <c r="K98" t="s">
+        <v>643</v>
+      </c>
+      <c r="L98" t="s">
+        <v>644</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s">
+        <v>645</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" t="s">
+        <v>646</v>
+      </c>
+      <c r="J99" t="s">
+        <v>647</v>
+      </c>
+      <c r="K99" t="s">
+        <v>648</v>
+      </c>
+      <c r="L99" t="s">
+        <v>649</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s">
+        <v>650</v>
+      </c>
+      <c r="O99" t="s">
+        <v>269</v>
+      </c>
+      <c r="P99" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>54423</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s">
+        <v>651</v>
+      </c>
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" t="s">
+        <v>652</v>
+      </c>
+      <c r="J100" t="s">
+        <v>653</v>
+      </c>
+      <c r="K100" t="s">
+        <v>654</v>
+      </c>
+      <c r="L100" t="s">
+        <v>655</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s"/>
+      <c r="O100" t="s"/>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="s"/>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>655</v>
       </c>
     </row>
   </sheetData>
